--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC9E7F-FD9F-43CB-8182-FFB15A752A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372B27F-8518-49F6-A92D-CAB3EFE45FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
@@ -38,35 +38,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>↓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木、地面、岩、土や倒木の段差、</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウボク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ダンサ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -146,10 +124,7 @@
       <t>テキ</t>
     </rPh>
     <rPh sb="47" eb="48">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジユウ</t>
+      <t>チカジユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,46 +168,289 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵</t>
+    <t>メイン→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏み台</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の回避(身代わりの術)について学ぶ場所→</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイン→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓敵の回避(身代わりの術)について学ぶ場所</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
+    <rPh sb="2" eb="4">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓３連分身回避</t>
+    <rPh sb="2" eb="3">
+      <t>レン</t>
     </rPh>
     <rPh sb="3" eb="5">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>カイヒ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ミガ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジュツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑飛び込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑飛び台</t>
     <rPh sb="1" eb="2">
       <t>ト</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑飛び降り</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑踏み台</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑梯子</t>
+    <rPh sb="1" eb="3">
+      <t>ハシゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑梯子(気づかれにくい)</t>
+    <rPh sb="1" eb="3">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑梯子or飛び台(からの分身回避)</t>
+    <rPh sb="1" eb="3">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓踏み台</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓飛び降りや梯子使用しないと敵が気付くよスポット→</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑橋</t>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登</t>
+    <rPh sb="0" eb="1">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓梯子</t>
+    <rPh sb="1" eb="3">
+      <t>ハシゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑ﾋﾟﾁﾋﾟﾁﾊﾟﾁｬﾊﾟﾁｬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵(人か犬)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び降り→</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木、地面、岩、土や倒木の段差、木の幹</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウボク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダンサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾁﾋﾟﾁｬﾊﾟ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵多め→</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック多め→</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -240,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +522,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +601,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -409,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,61 +708,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,144 +1114,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F6CC9-498D-453D-A44F-43A51BBA67CF}">
-  <dimension ref="A1:DS36"/>
+  <dimension ref="A1:KO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CB9" sqref="CB9"/>
+    <sheetView tabSelected="1" topLeftCell="HO13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A1" s="23"/>
+    <row r="1" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
-      <c r="C2" t="s">
+      <c r="G2" s="11"/>
+      <c r="Z2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="HT4" s="8"/>
+      <c r="HU4" s="8"/>
+    </row>
+    <row r="5" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="HT5" s="33"/>
+      <c r="HU5" s="33"/>
+      <c r="II5" s="8"/>
+      <c r="IJ5" s="8"/>
+      <c r="IR5" s="8"/>
+      <c r="IS5" s="8"/>
+    </row>
+    <row r="6" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="DN6" s="17"/>
+      <c r="DP6" t="s">
+        <v>30</v>
+      </c>
+      <c r="HR6" s="8"/>
+      <c r="HS6" s="8"/>
+      <c r="HT6" s="8"/>
+      <c r="HU6" s="8"/>
+      <c r="IA6" s="8"/>
+      <c r="IB6" s="8"/>
+      <c r="II6" s="33"/>
+      <c r="IJ6" s="33"/>
+      <c r="IR6" s="8"/>
+      <c r="IS6" s="8"/>
+      <c r="JF6" s="8"/>
+      <c r="JG6" s="8"/>
+    </row>
+    <row r="7" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="DN7" s="17"/>
+      <c r="FI7" s="8"/>
+      <c r="FJ7" s="8"/>
+      <c r="FK7" s="9"/>
+      <c r="HT7" s="8"/>
+      <c r="HU7" s="8"/>
+      <c r="IA7" s="33"/>
+      <c r="IB7" s="33"/>
+      <c r="IG7" s="8"/>
+      <c r="IH7" s="8"/>
+      <c r="II7" s="8"/>
+      <c r="IJ7" s="8"/>
+      <c r="IR7" s="33"/>
+      <c r="IS7" s="33"/>
+      <c r="JF7" s="8"/>
+      <c r="JG7" s="8"/>
+    </row>
+    <row r="8" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="BH8" s="17"/>
+      <c r="BL8" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>18</v>
+      </c>
+      <c r="DN8" s="17"/>
+      <c r="EJ8" t="s">
+        <v>28</v>
+      </c>
+      <c r="FH8" s="7"/>
+      <c r="FI8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="I2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="BH8" s="20"/>
-      <c r="BL8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="BH9" s="20"/>
-    </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.45">
+      <c r="FJ8" s="8"/>
+      <c r="FK8" s="9"/>
+      <c r="HL8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HT8" s="8"/>
+      <c r="HU8" s="8"/>
+      <c r="HV8" s="31"/>
+      <c r="HW8" s="31"/>
+      <c r="HY8" s="8"/>
+      <c r="HZ8" s="8"/>
+      <c r="IA8" s="33"/>
+      <c r="IB8" s="33"/>
+      <c r="II8" s="8"/>
+      <c r="IJ8" s="8"/>
+      <c r="IK8" s="31"/>
+      <c r="IL8" s="31"/>
+      <c r="IO8" s="8"/>
+      <c r="IP8" s="8"/>
+      <c r="IQ8" s="8"/>
+      <c r="IR8" s="8"/>
+      <c r="IS8" s="8"/>
+      <c r="IT8" s="8"/>
+      <c r="IU8" s="8"/>
+      <c r="JC8" s="8"/>
+      <c r="JD8" s="8"/>
+      <c r="JE8" s="8"/>
+      <c r="JF8" s="8"/>
+      <c r="JG8" s="8"/>
+    </row>
+    <row r="9" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="BH9" s="17"/>
+      <c r="DJ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK9" s="9"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8"/>
+      <c r="DN9" s="8"/>
+      <c r="DO9" s="8"/>
+      <c r="DX9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE9" s="9"/>
+      <c r="EF9" s="8"/>
+      <c r="EG9" s="8"/>
+      <c r="EH9" s="8"/>
+      <c r="EI9" s="8"/>
+      <c r="EJ9" s="9"/>
+      <c r="EK9" s="9"/>
+      <c r="FF9" s="9"/>
+      <c r="FG9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="FH9" s="8"/>
+      <c r="FI9" s="8"/>
+      <c r="FJ9" s="9"/>
+      <c r="FK9" s="8"/>
+      <c r="HN9" s="31"/>
+      <c r="HO9" s="31"/>
+      <c r="HR9" s="31"/>
+      <c r="HS9" s="31"/>
+      <c r="HT9" s="8"/>
+      <c r="HU9" s="8"/>
+      <c r="HV9" s="31"/>
+      <c r="HW9" s="31"/>
+      <c r="IA9" s="8"/>
+      <c r="IB9" s="8"/>
+      <c r="IC9" s="8"/>
+      <c r="ID9" s="8"/>
+      <c r="IG9" s="31"/>
+      <c r="IH9" s="31"/>
+      <c r="II9" s="8"/>
+      <c r="IJ9" s="8"/>
+      <c r="IK9" s="31"/>
+      <c r="IL9" s="31"/>
+      <c r="IP9" s="31"/>
+      <c r="IQ9" s="31"/>
+      <c r="IR9" s="8"/>
+      <c r="IS9" s="8"/>
+      <c r="IT9" s="31"/>
+      <c r="IU9" s="31"/>
+      <c r="JF9" s="8"/>
+      <c r="JG9" s="8"/>
+    </row>
+    <row r="10" spans="1:268" x14ac:dyDescent="0.45">
       <c r="BA10" s="9"/>
-      <c r="BH10" s="20"/>
+      <c r="BH10" s="17"/>
       <c r="BU10" s="4"/>
-    </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.45">
+      <c r="CJ10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="DB10" s="4"/>
+      <c r="DJ10" s="9"/>
+      <c r="DK10" s="7"/>
+      <c r="DL10" s="8"/>
+      <c r="DM10" s="8"/>
+      <c r="DN10" s="8"/>
+      <c r="DO10" s="8"/>
+      <c r="DX10" s="4"/>
+      <c r="EC10" s="7"/>
+      <c r="ED10" s="7"/>
+      <c r="EE10" s="9"/>
+      <c r="EF10" s="8"/>
+      <c r="EL10" s="9"/>
+      <c r="EM10" s="9"/>
+      <c r="EU10" s="4"/>
+      <c r="FE10" s="7"/>
+      <c r="FF10" s="9"/>
+      <c r="FG10" s="8"/>
+      <c r="FH10" s="8"/>
+      <c r="FI10" s="8"/>
+      <c r="FJ10" s="9"/>
+      <c r="FK10" s="8"/>
+      <c r="HN10" s="31"/>
+      <c r="HO10" s="31"/>
+      <c r="HR10" s="31"/>
+      <c r="HS10" s="31"/>
+      <c r="HT10" s="8"/>
+      <c r="HU10" s="8"/>
+      <c r="HV10" s="31"/>
+      <c r="HW10" s="31"/>
+      <c r="HY10" s="31"/>
+      <c r="HZ10" s="31"/>
+      <c r="IA10" s="8"/>
+      <c r="IB10" s="8"/>
+      <c r="IC10" s="31"/>
+      <c r="ID10" s="31"/>
+      <c r="IG10" s="31"/>
+      <c r="IH10" s="31"/>
+      <c r="II10" s="8"/>
+      <c r="IJ10" s="8"/>
+      <c r="IK10" s="31"/>
+      <c r="IL10" s="31"/>
+      <c r="IP10" s="31"/>
+      <c r="IQ10" s="31"/>
+      <c r="IR10" s="8"/>
+      <c r="IS10" s="8"/>
+      <c r="IT10" s="31"/>
+      <c r="IU10" s="31"/>
+      <c r="JF10" s="8"/>
+      <c r="JG10" s="8"/>
+    </row>
+    <row r="11" spans="1:268" x14ac:dyDescent="0.45">
       <c r="BA11" s="9"/>
       <c r="BB11" s="8"/>
       <c r="BC11" s="3"/>
@@ -997,8 +1401,131 @@
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
-    </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.45">
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
+      <c r="CV11" s="3"/>
+      <c r="CW11" s="3"/>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
+      <c r="CZ11" s="3"/>
+      <c r="DA11" s="3"/>
+      <c r="DB11" s="3"/>
+      <c r="DC11" s="3"/>
+      <c r="DD11" s="3"/>
+      <c r="DE11" s="3"/>
+      <c r="DF11" s="3"/>
+      <c r="DG11" s="3"/>
+      <c r="DH11" s="3"/>
+      <c r="DI11" s="3"/>
+      <c r="DJ11" s="3"/>
+      <c r="DK11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DL11" s="3"/>
+      <c r="DM11" s="3"/>
+      <c r="DN11" s="3"/>
+      <c r="DO11" s="3"/>
+      <c r="DT11" s="9"/>
+      <c r="DU11" s="8"/>
+      <c r="DV11" s="8"/>
+      <c r="DW11" s="8"/>
+      <c r="DX11" s="8"/>
+      <c r="DY11" s="8"/>
+      <c r="DZ11" s="8"/>
+      <c r="EA11" s="7"/>
+      <c r="EB11" s="7"/>
+      <c r="EE11" s="9"/>
+      <c r="EF11" s="8"/>
+      <c r="EN11" s="9"/>
+      <c r="EO11" s="9"/>
+      <c r="EP11" s="8"/>
+      <c r="EQ11" s="8"/>
+      <c r="ER11" s="8"/>
+      <c r="ES11" s="8"/>
+      <c r="ET11" s="8"/>
+      <c r="EU11" s="8"/>
+      <c r="EV11" s="8"/>
+      <c r="EW11" s="8"/>
+      <c r="FD11" s="7"/>
+      <c r="FF11" s="9"/>
+      <c r="FG11" s="8"/>
+      <c r="FH11" s="8"/>
+      <c r="FI11" s="8"/>
+      <c r="FJ11" s="9"/>
+      <c r="FK11" s="8"/>
+      <c r="HL11" s="31"/>
+      <c r="HM11" s="3"/>
+      <c r="HN11" s="3"/>
+      <c r="HO11" s="3"/>
+      <c r="HP11" s="3"/>
+      <c r="HQ11" s="3"/>
+      <c r="HR11" s="3"/>
+      <c r="HS11" s="3"/>
+      <c r="HT11" s="8"/>
+      <c r="HU11" s="8"/>
+      <c r="HV11" s="3"/>
+      <c r="HW11" s="3"/>
+      <c r="HX11" s="3"/>
+      <c r="HY11" s="3"/>
+      <c r="HZ11" s="3"/>
+      <c r="IA11" s="8"/>
+      <c r="IB11" s="8"/>
+      <c r="IC11" s="3"/>
+      <c r="ID11" s="3"/>
+      <c r="IE11" s="3"/>
+      <c r="IF11" s="3"/>
+      <c r="IG11" s="3"/>
+      <c r="IH11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="II11" s="8"/>
+      <c r="IJ11" s="8"/>
+      <c r="IK11" s="3"/>
+      <c r="IL11" s="3"/>
+      <c r="IM11" s="3"/>
+      <c r="IN11" s="3"/>
+      <c r="IO11" s="3"/>
+      <c r="IP11" s="3"/>
+      <c r="IQ11" s="3"/>
+      <c r="IR11" s="8"/>
+      <c r="IS11" s="8"/>
+      <c r="IT11" s="3"/>
+      <c r="IU11" s="3"/>
+      <c r="IV11" s="3"/>
+      <c r="IW11" s="3"/>
+      <c r="IX11" s="3"/>
+      <c r="IY11" s="3"/>
+      <c r="IZ11" s="3"/>
+      <c r="JA11" s="3"/>
+      <c r="JB11" s="3"/>
+      <c r="JC11" s="3"/>
+      <c r="JD11" s="3"/>
+      <c r="JE11" s="3"/>
+      <c r="JF11" s="8"/>
+      <c r="JG11" s="8"/>
+      <c r="JH11" s="3"/>
+    </row>
+    <row r="12" spans="1:268" x14ac:dyDescent="0.45">
       <c r="BA12" s="9"/>
       <c r="BB12" s="8"/>
       <c r="BC12" s="3"/>
@@ -1024,10 +1551,114 @@
       <c r="BW12" s="3"/>
       <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
-    </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.45">
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="3"/>
+      <c r="CL12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="3"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="3"/>
+      <c r="CR12" s="3"/>
+      <c r="CS12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CU12" s="3"/>
+      <c r="CV12" s="3"/>
+      <c r="CW12" s="3"/>
+      <c r="CX12" s="3"/>
+      <c r="CY12" s="3"/>
+      <c r="CZ12" s="3"/>
+      <c r="DA12" s="3"/>
+      <c r="DB12" s="3"/>
+      <c r="DC12" s="3"/>
+      <c r="DD12" s="3"/>
+      <c r="DE12" s="3"/>
+      <c r="DF12" s="3"/>
+      <c r="DG12" s="3"/>
+      <c r="DH12" s="3"/>
+      <c r="DI12" s="3"/>
+      <c r="DJ12" s="3"/>
+      <c r="DK12" s="3"/>
+      <c r="DL12" s="3"/>
+      <c r="DM12" s="3"/>
+      <c r="DN12" s="3"/>
+      <c r="DO12" s="3"/>
+      <c r="DT12" s="9"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="8"/>
+      <c r="EO12" s="9"/>
+      <c r="FC12" s="7"/>
+      <c r="FF12" s="9"/>
+      <c r="FG12" s="8"/>
+      <c r="FH12" s="8"/>
+      <c r="FI12" s="8"/>
+      <c r="FJ12" s="9"/>
+      <c r="FK12" s="8"/>
+      <c r="HL12" s="31"/>
+      <c r="HM12" s="3"/>
+      <c r="HN12" s="3"/>
+      <c r="HO12" s="3"/>
+      <c r="HP12" s="3"/>
+      <c r="HQ12" s="3"/>
+      <c r="HR12" s="4"/>
+      <c r="HS12" s="3"/>
+      <c r="HT12" s="3"/>
+      <c r="HU12" s="3"/>
+      <c r="HV12" s="3"/>
+      <c r="HW12" s="3"/>
+      <c r="HX12" s="4"/>
+      <c r="HY12" s="3"/>
+      <c r="HZ12" s="3"/>
+      <c r="IA12" s="8"/>
+      <c r="IB12" s="8"/>
+      <c r="IC12" s="3"/>
+      <c r="ID12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="IE12" s="29"/>
+      <c r="IF12" s="3"/>
+      <c r="IG12" s="3"/>
+      <c r="IH12" s="3"/>
+      <c r="II12" s="3"/>
+      <c r="IJ12" s="3"/>
+      <c r="IK12" s="3"/>
+      <c r="IL12" s="3"/>
+      <c r="IM12" s="3"/>
+      <c r="IN12" s="3"/>
+      <c r="IO12" s="3"/>
+      <c r="IP12" s="3"/>
+      <c r="IQ12" s="3"/>
+      <c r="IR12" s="8"/>
+      <c r="IS12" s="8"/>
+      <c r="IT12" s="3"/>
+      <c r="IU12" s="3"/>
+      <c r="IV12" s="3"/>
+      <c r="IW12" s="3"/>
+      <c r="IX12" s="3"/>
+      <c r="IY12" s="4"/>
+      <c r="IZ12" s="3"/>
+      <c r="JA12" s="3"/>
+      <c r="JB12" s="3"/>
+      <c r="JC12" s="3"/>
+      <c r="JD12" s="3"/>
+      <c r="JE12" s="3"/>
+      <c r="JF12" s="8"/>
+      <c r="JG12" s="8"/>
+      <c r="JH12" s="3"/>
+    </row>
+    <row r="13" spans="1:268" x14ac:dyDescent="0.45">
       <c r="AZ13" s="9"/>
-      <c r="BA13" s="18"/>
+      <c r="BA13" s="15"/>
       <c r="BB13" s="8"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
@@ -1052,13 +1683,123 @@
       <c r="BW13" s="3"/>
       <c r="BX13" s="3"/>
       <c r="BY13" s="3"/>
-      <c r="BZ13" s="9"/>
-      <c r="CH13" s="14"/>
-    </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="AW14" s="19" t="s">
-        <v>15</v>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3"/>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="3"/>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3"/>
+      <c r="CV13" s="3"/>
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="3"/>
+      <c r="CY13" s="3"/>
+      <c r="CZ13" s="3"/>
+      <c r="DA13" s="3"/>
+      <c r="DB13" s="3"/>
+      <c r="DC13" s="3"/>
+      <c r="DD13" s="3"/>
+      <c r="DE13" s="3"/>
+      <c r="DF13" s="3"/>
+      <c r="DG13" s="3"/>
+      <c r="DH13" s="3"/>
+      <c r="DI13" s="3"/>
+      <c r="DJ13" s="3"/>
+      <c r="DK13" s="3"/>
+      <c r="DL13" s="3"/>
+      <c r="DM13" s="3"/>
+      <c r="DN13" s="3"/>
+      <c r="DO13" s="3"/>
+      <c r="DP13" s="9"/>
+      <c r="DT13" s="9"/>
+      <c r="EE13" s="9"/>
+      <c r="EF13" s="8"/>
+      <c r="EH13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="EN13" s="7"/>
+      <c r="EO13" s="9"/>
+      <c r="FB13" s="7"/>
+      <c r="FE13" s="7"/>
+      <c r="FF13" s="9"/>
+      <c r="FG13" s="8"/>
+      <c r="FH13" s="8"/>
+      <c r="FI13" s="8"/>
+      <c r="FJ13" s="9"/>
+      <c r="FK13" s="8"/>
+      <c r="HL13" s="31"/>
+      <c r="HM13" s="3"/>
+      <c r="HN13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="HO13" s="28"/>
+      <c r="HP13" s="3"/>
+      <c r="HQ13" s="3"/>
+      <c r="HR13" s="3"/>
+      <c r="HS13" s="3"/>
+      <c r="HT13" s="3"/>
+      <c r="HU13" s="3"/>
+      <c r="HV13" s="3"/>
+      <c r="HW13" s="3"/>
+      <c r="HX13" s="3"/>
+      <c r="HY13" s="3"/>
+      <c r="HZ13" s="3"/>
+      <c r="IA13" s="8"/>
+      <c r="IB13" s="8"/>
+      <c r="IC13" s="3"/>
+      <c r="ID13" s="3"/>
+      <c r="IE13" s="29"/>
+      <c r="IF13" s="29"/>
+      <c r="IG13" s="3"/>
+      <c r="IH13" s="3"/>
+      <c r="II13" s="3"/>
+      <c r="IJ13" s="3"/>
+      <c r="IK13" s="3"/>
+      <c r="IL13" s="3"/>
+      <c r="IM13" s="4"/>
+      <c r="IN13" s="3"/>
+      <c r="IO13" s="3"/>
+      <c r="IP13" s="3"/>
+      <c r="IQ13" s="3"/>
+      <c r="IR13" s="3"/>
+      <c r="IS13" s="4"/>
+      <c r="IT13" s="3"/>
+      <c r="IU13" s="3"/>
+      <c r="IV13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="IW13" s="29"/>
+      <c r="IX13" s="3"/>
+      <c r="IY13" s="3"/>
+      <c r="IZ13" s="3"/>
+      <c r="JA13" s="3"/>
+      <c r="JB13" s="3"/>
+      <c r="JC13" s="4"/>
+      <c r="JD13" s="3"/>
+      <c r="JE13" s="3"/>
+      <c r="JF13" s="8"/>
+      <c r="JG13" s="8"/>
+      <c r="JH13" s="3"/>
+    </row>
+    <row r="14" spans="1:268" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="AW14" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
@@ -1088,9 +1829,7 @@
       <c r="BW14" s="3"/>
       <c r="BX14" s="3"/>
       <c r="BY14" s="3"/>
-      <c r="BZ14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="BZ14" s="3"/>
       <c r="CA14" s="3"/>
       <c r="CB14" s="3"/>
       <c r="CC14" s="3"/>
@@ -1132,68 +1871,347 @@
       <c r="DM14" s="3"/>
       <c r="DN14" s="3"/>
       <c r="DO14" s="3"/>
-      <c r="DP14" s="3"/>
+      <c r="DP14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="DQ14" s="3"/>
       <c r="DR14" s="3"/>
       <c r="DS14" s="3"/>
-    </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.45">
+      <c r="DT14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DU14" s="3"/>
+      <c r="DV14" s="3"/>
+      <c r="DW14" s="3"/>
+      <c r="DX14" s="3"/>
+      <c r="DY14" s="3"/>
+      <c r="DZ14" s="3"/>
+      <c r="EA14" s="3"/>
+      <c r="EB14" s="3"/>
+      <c r="EC14" s="3"/>
+      <c r="ED14" s="3"/>
+      <c r="EE14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="EF14" s="3"/>
+      <c r="EG14" s="3"/>
+      <c r="EH14" s="3"/>
+      <c r="EI14" s="3"/>
+      <c r="EJ14" s="3"/>
+      <c r="EK14" s="3"/>
+      <c r="EL14" s="3"/>
+      <c r="EM14" s="3"/>
+      <c r="EN14" s="3"/>
+      <c r="EO14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="EP14" s="3"/>
+      <c r="EQ14" s="3"/>
+      <c r="ER14" s="3"/>
+      <c r="ES14" s="3"/>
+      <c r="ET14" s="3"/>
+      <c r="EU14" s="3"/>
+      <c r="EV14" s="3"/>
+      <c r="EW14" s="3"/>
+      <c r="EX14" s="3"/>
+      <c r="EY14" s="3"/>
+      <c r="EZ14" s="3"/>
+      <c r="FA14" s="3"/>
+      <c r="FB14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="FC14" s="3"/>
+      <c r="FD14" s="3"/>
+      <c r="FE14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="FF14" s="3"/>
+      <c r="FG14" s="3"/>
+      <c r="FH14" s="3"/>
+      <c r="FI14" s="9"/>
+      <c r="FJ14" s="3"/>
+      <c r="FK14" s="3"/>
+      <c r="HM14" s="3"/>
+      <c r="HN14" s="28"/>
+      <c r="HO14" s="28"/>
+      <c r="HP14" s="3"/>
+      <c r="HQ14" s="3"/>
+      <c r="HR14" s="3"/>
+      <c r="HS14" s="3"/>
+      <c r="HT14" s="3"/>
+      <c r="HU14" s="3"/>
+      <c r="HV14" s="3"/>
+      <c r="HW14" s="3"/>
+      <c r="HX14" s="3"/>
+      <c r="HY14" s="3"/>
+      <c r="HZ14" s="3"/>
+      <c r="IA14" s="3"/>
+      <c r="IB14" s="3"/>
+      <c r="IC14" s="3"/>
+      <c r="ID14" s="3"/>
+      <c r="IE14" s="3"/>
+      <c r="IF14" s="3"/>
+      <c r="IG14" s="3"/>
+      <c r="IH14" s="3"/>
+      <c r="II14" s="3"/>
+      <c r="IJ14" s="3"/>
+      <c r="IK14" s="3"/>
+      <c r="IL14" s="3"/>
+      <c r="IM14" s="3"/>
+      <c r="IN14" s="3"/>
+      <c r="IO14" s="3"/>
+      <c r="IP14" s="3"/>
+      <c r="IQ14" s="3"/>
+      <c r="IR14" s="3"/>
+      <c r="IS14" s="3"/>
+      <c r="IT14" s="3"/>
+      <c r="IU14" s="3"/>
+      <c r="IV14" s="3"/>
+      <c r="IW14" s="3"/>
+      <c r="IX14" s="3"/>
+      <c r="IY14" s="3"/>
+      <c r="IZ14" s="3"/>
+      <c r="JA14" s="3"/>
+      <c r="JB14" s="3"/>
+      <c r="JC14" s="3"/>
+      <c r="JD14" s="3"/>
+      <c r="JE14" s="3"/>
+      <c r="JF14" s="3"/>
+      <c r="JG14" s="3"/>
+      <c r="JH14" s="3"/>
+    </row>
+    <row r="15" spans="1:268" x14ac:dyDescent="0.45">
       <c r="AL15" s="6"/>
       <c r="AZ15" s="9"/>
-    </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="AL16" s="11"/>
+      <c r="FI15" s="9"/>
+      <c r="HW15" s="8"/>
+      <c r="HX15" s="8"/>
+      <c r="IH15" s="8"/>
+      <c r="II15" s="8"/>
+      <c r="IQ15" s="31"/>
+      <c r="IR15" s="31"/>
+    </row>
+    <row r="16" spans="1:268" x14ac:dyDescent="0.45">
       <c r="AZ16" s="9"/>
       <c r="BA16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="FI16" s="9"/>
+      <c r="HU16" s="8"/>
+      <c r="HV16" s="8"/>
+      <c r="HW16" s="8"/>
+      <c r="HX16" s="8"/>
+      <c r="IF16" s="31"/>
+      <c r="IG16" s="31"/>
+      <c r="IH16" s="8"/>
+      <c r="II16" s="8"/>
+      <c r="IQ16" s="8"/>
+      <c r="IR16" s="8"/>
+    </row>
+    <row r="17" spans="1:270" x14ac:dyDescent="0.45">
       <c r="AI17" s="9"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="17"/>
+      <c r="AL17" s="13"/>
       <c r="AZ17" s="9"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FI17" s="9"/>
+      <c r="GT17" s="8"/>
+      <c r="GU17" s="8"/>
+      <c r="HL17" t="s">
+        <v>44</v>
+      </c>
+      <c r="HW17" s="8"/>
+      <c r="HX17" s="8"/>
+      <c r="IH17" s="8"/>
+      <c r="II17" s="8"/>
+      <c r="IQ17" s="8"/>
+      <c r="IR17" s="8"/>
+      <c r="IX17" s="31"/>
+      <c r="IY17" s="31"/>
+    </row>
+    <row r="18" spans="1:270" x14ac:dyDescent="0.45">
       <c r="AH18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="14"/>
+      <c r="AL18" s="13"/>
       <c r="AY18" s="9"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FI18" s="9"/>
+      <c r="FT18" t="s">
+        <v>35</v>
+      </c>
+      <c r="GR18" s="8"/>
+      <c r="GS18" s="8"/>
+      <c r="GT18" s="8"/>
+      <c r="GU18" s="8"/>
+      <c r="HW18" s="8"/>
+      <c r="HX18" s="8"/>
+      <c r="HY18" s="8"/>
+      <c r="HZ18" s="8"/>
+      <c r="IH18" s="8"/>
+      <c r="II18" s="8"/>
+      <c r="IJ18" s="8"/>
+      <c r="IK18" s="8"/>
+      <c r="IN18" s="31"/>
+      <c r="IO18" s="31"/>
+      <c r="IP18" s="31"/>
+      <c r="IQ18" s="8"/>
+      <c r="IR18" s="8"/>
+      <c r="IS18" s="31"/>
+      <c r="IT18" s="31"/>
+      <c r="IU18" s="31"/>
+      <c r="IV18" s="31"/>
+      <c r="IW18" s="31"/>
+      <c r="IX18" s="31"/>
+      <c r="IY18" s="31"/>
+      <c r="IZ18" s="31"/>
+      <c r="JA18" s="31"/>
+      <c r="JB18" s="31"/>
+      <c r="JC18" s="31"/>
+      <c r="JD18" s="31"/>
+      <c r="JE18" s="31"/>
+      <c r="JF18" s="31"/>
+      <c r="JG18" s="31"/>
+    </row>
+    <row r="19" spans="1:270" x14ac:dyDescent="0.45">
       <c r="Z19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="9"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="15"/>
-      <c r="AN19" s="14"/>
+      <c r="AL19" s="13"/>
       <c r="AY19" s="9"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG19" s="8"/>
+      <c r="FH19" s="8"/>
+      <c r="FI19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="FJ19" s="8"/>
+      <c r="FK19" s="8"/>
+      <c r="FL19" s="8"/>
+      <c r="FT19" s="9"/>
+      <c r="FU19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="GH19" s="9"/>
+      <c r="GI19" s="9"/>
+      <c r="GJ19" s="9"/>
+      <c r="GK19" s="8"/>
+      <c r="GL19" s="8"/>
+      <c r="GT19" s="8"/>
+      <c r="GU19" s="8"/>
+      <c r="HP19" s="8"/>
+      <c r="HQ19" s="8"/>
+      <c r="HU19" s="31"/>
+      <c r="HV19" s="31"/>
+      <c r="HW19" s="8"/>
+      <c r="HX19" s="8"/>
+      <c r="HY19" s="31"/>
+      <c r="HZ19" s="31"/>
+      <c r="IF19" s="31"/>
+      <c r="IG19" s="31"/>
+      <c r="IH19" s="8"/>
+      <c r="II19" s="8"/>
+      <c r="IJ19" s="31"/>
+      <c r="IK19" s="31"/>
+      <c r="IN19" s="31"/>
+      <c r="IO19" s="31"/>
+      <c r="IP19" s="31"/>
+      <c r="IQ19" s="8"/>
+      <c r="IR19" s="8"/>
+      <c r="IS19" s="31"/>
+      <c r="IT19" s="31"/>
+      <c r="IU19" s="31"/>
+      <c r="IV19" s="31"/>
+      <c r="IW19" s="31"/>
+      <c r="IX19" s="31"/>
+      <c r="IY19" s="31"/>
+      <c r="IZ19" s="31"/>
+      <c r="JA19" s="31"/>
+      <c r="JB19" s="31"/>
+      <c r="JC19" s="31"/>
+      <c r="JD19" s="31"/>
+      <c r="JE19" s="31"/>
+      <c r="JF19" s="8"/>
+      <c r="JG19" s="8"/>
+    </row>
+    <row r="20" spans="1:270" x14ac:dyDescent="0.45">
       <c r="Z20" t="s">
         <v>1</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" s="9"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="15"/>
-      <c r="AO20" s="14"/>
+      <c r="AL20" s="13"/>
       <c r="AY20" s="9"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG20" s="8"/>
+      <c r="FH20" s="8"/>
+      <c r="FI20" s="8"/>
+      <c r="FJ20" s="8"/>
+      <c r="FK20" s="8"/>
+      <c r="FL20" s="8"/>
+      <c r="FS20" s="7"/>
+      <c r="FT20" s="9"/>
+      <c r="FU20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="GE20" s="9"/>
+      <c r="GF20" s="8"/>
+      <c r="GG20" s="8"/>
+      <c r="GK20" s="8"/>
+      <c r="GL20" s="8"/>
+      <c r="GM20" s="8"/>
+      <c r="GN20" s="8"/>
+      <c r="GT20" s="8"/>
+      <c r="GU20" s="8"/>
+      <c r="GV20" s="8"/>
+      <c r="GW20" s="8"/>
+      <c r="HN20" s="8"/>
+      <c r="HO20" s="8"/>
+      <c r="HP20" s="8"/>
+      <c r="HQ20" s="8"/>
+      <c r="HU20" s="31"/>
+      <c r="HV20" s="31"/>
+      <c r="HW20" s="8"/>
+      <c r="HX20" s="8"/>
+      <c r="HY20" s="31"/>
+      <c r="HZ20" s="31"/>
+      <c r="IF20" s="31"/>
+      <c r="IG20" s="31"/>
+      <c r="IH20" s="8"/>
+      <c r="II20" s="8"/>
+      <c r="IJ20" s="31"/>
+      <c r="IK20" s="31"/>
+      <c r="IN20" s="31"/>
+      <c r="IO20" s="31"/>
+      <c r="IP20" s="31"/>
+      <c r="IQ20" s="8"/>
+      <c r="IR20" s="8"/>
+      <c r="IS20" s="31"/>
+      <c r="IT20" s="31"/>
+      <c r="IU20" s="31"/>
+      <c r="IV20" s="31"/>
+      <c r="IW20" s="31"/>
+      <c r="IX20" s="31"/>
+      <c r="IY20" s="31"/>
+      <c r="IZ20" s="31"/>
+      <c r="JA20" s="31"/>
+      <c r="JB20" s="31"/>
+      <c r="JC20" s="31"/>
+      <c r="JD20" s="31"/>
+      <c r="JE20" s="31"/>
+      <c r="JF20" s="8"/>
+      <c r="JG20" s="8"/>
+    </row>
+    <row r="21" spans="1:270" x14ac:dyDescent="0.45">
       <c r="R21" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -1206,19 +2224,77 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="15"/>
-      <c r="AQ21" s="20"/>
+      <c r="AL21" s="13"/>
+      <c r="AQ21" s="17"/>
       <c r="AW21" s="7"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG21" s="8"/>
+      <c r="FH21" s="8"/>
+      <c r="FI21" s="8"/>
+      <c r="FJ21" s="8"/>
+      <c r="FK21" s="8"/>
+      <c r="FL21" s="8"/>
+      <c r="FS21" s="7"/>
+      <c r="FT21" s="9"/>
+      <c r="FU21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="GE21" s="7"/>
+      <c r="GF21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="GG21" s="8"/>
+      <c r="GK21" s="8"/>
+      <c r="GL21" s="8"/>
+      <c r="GT21" s="8"/>
+      <c r="GU21" s="8"/>
+      <c r="HP21" s="8"/>
+      <c r="HQ21" s="8"/>
+      <c r="HU21" s="31"/>
+      <c r="HV21" s="31"/>
+      <c r="HW21" s="8"/>
+      <c r="HX21" s="8"/>
+      <c r="HY21" s="31"/>
+      <c r="HZ21" s="8"/>
+      <c r="IA21" s="8"/>
+      <c r="IC21" s="8"/>
+      <c r="ID21" s="8"/>
+      <c r="IF21" s="31"/>
+      <c r="IG21" s="31"/>
+      <c r="IH21" s="8"/>
+      <c r="II21" s="8"/>
+      <c r="IJ21" s="31"/>
+      <c r="IK21" s="31"/>
+      <c r="IM21" s="8"/>
+      <c r="IN21" s="8"/>
+      <c r="IO21" s="31"/>
+      <c r="IP21" s="31"/>
+      <c r="IQ21" s="8"/>
+      <c r="IR21" s="8"/>
+      <c r="IS21" s="31"/>
+      <c r="IT21" s="31"/>
+      <c r="IU21" s="31"/>
+      <c r="IV21" s="8"/>
+      <c r="IW21" s="8"/>
+      <c r="IX21" s="31"/>
+      <c r="IY21" s="31"/>
+      <c r="IZ21" s="31"/>
+      <c r="JA21" s="31"/>
+      <c r="JB21" s="31"/>
+      <c r="JC21" s="31"/>
+      <c r="JD21" s="31"/>
+      <c r="JE21" s="8"/>
+      <c r="JF21" s="8"/>
+      <c r="JG21" s="8"/>
+    </row>
+    <row r="22" spans="1:270" x14ac:dyDescent="0.45">
       <c r="D22" s="1"/>
       <c r="R22" t="s">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
@@ -1227,15 +2303,80 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="15"/>
-      <c r="AQ22" s="20"/>
+      <c r="AL22" s="13"/>
+      <c r="AQ22" s="17"/>
       <c r="AW22" s="7"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="8"/>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG22" s="8"/>
+      <c r="FH22" s="8"/>
+      <c r="FI22" s="8"/>
+      <c r="FJ22" s="8"/>
+      <c r="FK22" s="8"/>
+      <c r="FL22" s="8"/>
+      <c r="FS22" s="7"/>
+      <c r="FT22" s="9"/>
+      <c r="FU22" s="28"/>
+      <c r="GD22" s="9"/>
+      <c r="GE22" s="7"/>
+      <c r="GF22" s="8"/>
+      <c r="GG22" s="8"/>
+      <c r="GK22" s="8"/>
+      <c r="GL22" s="8"/>
+      <c r="GT22" s="8"/>
+      <c r="GU22" s="8"/>
+      <c r="HB22" s="8"/>
+      <c r="HC22" s="8"/>
+      <c r="HP22" s="8"/>
+      <c r="HQ22" s="8"/>
+      <c r="HR22" s="8"/>
+      <c r="HS22" s="8"/>
+      <c r="HU22" s="31"/>
+      <c r="HV22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="HW22" s="8"/>
+      <c r="HX22" s="8"/>
+      <c r="HY22" s="31"/>
+      <c r="HZ22" s="8"/>
+      <c r="IA22" s="8"/>
+      <c r="IC22" s="8"/>
+      <c r="ID22" s="8"/>
+      <c r="IF22" s="31"/>
+      <c r="IG22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="IH22" s="8"/>
+      <c r="II22" s="8"/>
+      <c r="IJ22" s="31"/>
+      <c r="IK22" s="31"/>
+      <c r="IM22" s="8"/>
+      <c r="IN22" s="8"/>
+      <c r="IO22" s="31"/>
+      <c r="IP22" s="31"/>
+      <c r="IQ22" s="8"/>
+      <c r="IR22" s="8"/>
+      <c r="IS22" s="31"/>
+      <c r="IT22" s="31"/>
+      <c r="IU22" s="31"/>
+      <c r="IV22" s="8"/>
+      <c r="IW22" s="8"/>
+      <c r="IX22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="IY22" s="31"/>
+      <c r="IZ22" s="31"/>
+      <c r="JA22" s="31"/>
+      <c r="JB22" s="31"/>
+      <c r="JC22" s="31"/>
+      <c r="JD22" s="31"/>
+      <c r="JE22" s="31"/>
+      <c r="JF22" s="8"/>
+      <c r="JG22" s="8"/>
+    </row>
+    <row r="23" spans="1:270" x14ac:dyDescent="0.45">
       <c r="L23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" t="s">
@@ -1243,29 +2384,100 @@
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="8"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK23" s="8"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
-      <c r="AQ23" s="20"/>
+      <c r="AQ23" s="17"/>
       <c r="AW23" s="7"/>
       <c r="AX23" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" s="8"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG23" s="8"/>
+      <c r="FH23" s="8"/>
+      <c r="FI23" s="8"/>
+      <c r="FJ23" s="8"/>
+      <c r="FK23" s="8"/>
+      <c r="FL23" s="8"/>
+      <c r="FP23" s="17"/>
+      <c r="FR23" s="7"/>
+      <c r="FT23" s="9"/>
+      <c r="FU23" s="28"/>
+      <c r="GD23" s="9"/>
+      <c r="GE23" s="7"/>
+      <c r="GF23" s="8"/>
+      <c r="GG23" s="8"/>
+      <c r="GI23" t="s">
+        <v>6</v>
+      </c>
+      <c r="GK23" s="8"/>
+      <c r="GL23" s="8"/>
+      <c r="GT23" s="8"/>
+      <c r="GU23" s="8"/>
+      <c r="HB23" s="8"/>
+      <c r="HC23" s="8"/>
+      <c r="HI23" s="17"/>
+      <c r="HM23" s="3"/>
+      <c r="HN23" s="3"/>
+      <c r="HO23" s="3"/>
+      <c r="HP23" s="8"/>
+      <c r="HQ23" s="8"/>
+      <c r="HR23" s="3"/>
+      <c r="HS23" s="3"/>
+      <c r="HT23" s="29"/>
+      <c r="HU23" s="29"/>
+      <c r="HV23" s="29"/>
+      <c r="HW23" s="29"/>
+      <c r="HX23" s="29"/>
+      <c r="HY23" s="29"/>
+      <c r="HZ23" s="29"/>
+      <c r="IA23" s="29"/>
+      <c r="IB23" s="29"/>
+      <c r="IC23" s="28"/>
+      <c r="ID23" s="29"/>
+      <c r="IE23" s="29"/>
+      <c r="IF23" s="29"/>
+      <c r="IG23" s="30"/>
+      <c r="IH23" s="29"/>
+      <c r="II23" s="29"/>
+      <c r="IJ23" s="29"/>
+      <c r="IK23" s="29"/>
+      <c r="IL23" s="29"/>
+      <c r="IM23" s="29"/>
+      <c r="IN23" s="29"/>
+      <c r="IO23" s="29"/>
+      <c r="IP23" s="8"/>
+      <c r="IQ23" s="8"/>
+      <c r="IR23" s="29"/>
+      <c r="IS23" s="28"/>
+      <c r="IT23" s="29"/>
+      <c r="IU23" s="29"/>
+      <c r="IV23" s="29"/>
+      <c r="IW23" s="29"/>
+      <c r="IX23" s="29"/>
+      <c r="IY23" s="29"/>
+      <c r="IZ23" s="29"/>
+      <c r="JA23" s="28"/>
+      <c r="JB23" s="29"/>
+      <c r="JC23" s="29"/>
+      <c r="JD23" s="3"/>
+      <c r="JE23" s="3"/>
+      <c r="JF23" s="8"/>
+      <c r="JG23" s="8"/>
+    </row>
+    <row r="24" spans="1:270" x14ac:dyDescent="0.45">
       <c r="L24" t="s">
         <v>1</v>
       </c>
@@ -1275,8 +2487,8 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -1295,7 +2507,7 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
@@ -1313,8 +2525,79 @@
       <c r="AZ24" s="3"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="FG24" s="8"/>
+      <c r="FH24" s="8"/>
+      <c r="FI24" s="8"/>
+      <c r="FJ24" s="8"/>
+      <c r="FK24" s="8"/>
+      <c r="FL24" s="8"/>
+      <c r="FP24" s="17"/>
+      <c r="FR24" s="7"/>
+      <c r="FT24" s="9"/>
+      <c r="FU24" s="28"/>
+      <c r="GC24" s="9"/>
+      <c r="GE24" s="7"/>
+      <c r="GF24" s="8"/>
+      <c r="GG24" s="8"/>
+      <c r="GI24" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK24" s="8"/>
+      <c r="GL24" s="8"/>
+      <c r="GT24" s="8"/>
+      <c r="GU24" s="8"/>
+      <c r="HB24" s="8"/>
+      <c r="HC24" s="8"/>
+      <c r="HI24" s="17"/>
+      <c r="HM24" s="3"/>
+      <c r="HN24" s="3"/>
+      <c r="HO24" s="3"/>
+      <c r="HP24" s="8"/>
+      <c r="HQ24" s="8"/>
+      <c r="HR24" s="3"/>
+      <c r="HS24" s="3"/>
+      <c r="HT24" s="29"/>
+      <c r="HU24" s="30"/>
+      <c r="HV24" s="29"/>
+      <c r="HW24" s="29"/>
+      <c r="HX24" s="29"/>
+      <c r="HY24" s="29"/>
+      <c r="HZ24" s="29"/>
+      <c r="IA24" s="29"/>
+      <c r="IB24" s="29"/>
+      <c r="IC24" s="28"/>
+      <c r="ID24" s="29"/>
+      <c r="IE24" s="29"/>
+      <c r="IF24" s="29"/>
+      <c r="IG24" s="29"/>
+      <c r="IH24" s="29"/>
+      <c r="II24" s="29"/>
+      <c r="IJ24" s="29"/>
+      <c r="IK24" s="29"/>
+      <c r="IL24" s="29"/>
+      <c r="IM24" s="29"/>
+      <c r="IN24" s="28"/>
+      <c r="IO24" s="29"/>
+      <c r="IP24" s="4"/>
+      <c r="IQ24" s="8"/>
+      <c r="IR24" s="29"/>
+      <c r="IS24" s="28"/>
+      <c r="IT24" s="29"/>
+      <c r="IU24" s="29"/>
+      <c r="IV24" s="30"/>
+      <c r="IW24" s="29"/>
+      <c r="IX24" s="28"/>
+      <c r="IY24" s="29"/>
+      <c r="IZ24" s="29"/>
+      <c r="JA24" s="28"/>
+      <c r="JB24" s="29"/>
+      <c r="JC24" s="30"/>
+      <c r="JD24" s="3"/>
+      <c r="JE24" s="3"/>
+      <c r="JF24" s="8"/>
+      <c r="JG24" s="8"/>
+    </row>
+    <row r="25" spans="1:270" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
@@ -1326,7 +2609,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="9"/>
       <c r="U25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -1344,8 +2627,8 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="16" t="s">
-        <v>13</v>
+      <c r="AL25" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
@@ -1363,11 +2646,84 @@
       <c r="AZ25" s="3"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21" t="s">
-        <v>19</v>
+      <c r="FG25" s="8"/>
+      <c r="FH25" s="8"/>
+      <c r="FI25" s="8"/>
+      <c r="FJ25" s="8"/>
+      <c r="FK25" s="8"/>
+      <c r="FL25" s="8"/>
+      <c r="FM25" s="9"/>
+      <c r="FP25" s="17"/>
+      <c r="FR25" s="7"/>
+      <c r="FT25" s="9"/>
+      <c r="FU25" s="28"/>
+      <c r="GC25" s="9"/>
+      <c r="GE25" s="7"/>
+      <c r="GF25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="GG25" s="8"/>
+      <c r="GH25" s="9"/>
+      <c r="GI25" s="7"/>
+      <c r="GK25" s="8"/>
+      <c r="GL25" s="8"/>
+      <c r="GT25" s="4"/>
+      <c r="GU25" s="3"/>
+      <c r="HB25" s="8"/>
+      <c r="HC25" s="8"/>
+      <c r="HI25" s="17"/>
+      <c r="HM25" s="3"/>
+      <c r="HN25" s="3"/>
+      <c r="HO25" s="3"/>
+      <c r="HP25" s="8"/>
+      <c r="HQ25" s="8"/>
+      <c r="HR25" s="3"/>
+      <c r="HS25" s="3"/>
+      <c r="HT25" s="29"/>
+      <c r="HU25" s="29"/>
+      <c r="HV25" s="29"/>
+      <c r="HW25" s="29"/>
+      <c r="HX25" s="29"/>
+      <c r="HY25" s="30"/>
+      <c r="HZ25" s="29"/>
+      <c r="IA25" s="29"/>
+      <c r="IB25" s="29"/>
+      <c r="IC25" s="28"/>
+      <c r="ID25" s="29"/>
+      <c r="IE25" s="29"/>
+      <c r="IF25" s="29"/>
+      <c r="IG25" s="8"/>
+      <c r="IH25" s="8"/>
+      <c r="II25" s="29"/>
+      <c r="IJ25" s="29"/>
+      <c r="IK25" s="30"/>
+      <c r="IL25" s="29"/>
+      <c r="IM25" s="29"/>
+      <c r="IN25" s="28"/>
+      <c r="IO25" s="29"/>
+      <c r="IP25" s="8"/>
+      <c r="IQ25" s="8"/>
+      <c r="IR25" s="29"/>
+      <c r="IS25" s="28"/>
+      <c r="IT25" s="29"/>
+      <c r="IU25" s="29"/>
+      <c r="IV25" s="29"/>
+      <c r="IW25" s="29"/>
+      <c r="IX25" s="28"/>
+      <c r="IY25" s="29"/>
+      <c r="IZ25" s="29"/>
+      <c r="JA25" s="28"/>
+      <c r="JB25" s="29"/>
+      <c r="JC25" s="30"/>
+      <c r="JD25" s="3"/>
+      <c r="JE25" s="3"/>
+      <c r="JF25" s="3"/>
+      <c r="JG25" s="3"/>
+    </row>
+    <row r="26" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1421,49 +2777,678 @@
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
+      <c r="FG26" s="3"/>
+      <c r="FH26" s="3"/>
+      <c r="FI26" s="3"/>
+      <c r="FJ26" s="3"/>
+      <c r="FK26" s="3"/>
+      <c r="FL26" s="3"/>
+      <c r="FM26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="FN26" s="3"/>
+      <c r="FO26" s="3"/>
+      <c r="FP26" s="3"/>
+      <c r="FQ26" s="3"/>
+      <c r="FR26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="FS26" s="3"/>
+      <c r="FT26" s="3"/>
+      <c r="FU26" s="3"/>
+      <c r="FV26" s="3"/>
+      <c r="FW26" s="3"/>
+      <c r="FX26" s="3"/>
+      <c r="FY26" s="3"/>
+      <c r="FZ26" s="3"/>
+      <c r="GA26" s="3"/>
+      <c r="GB26" s="3"/>
+      <c r="GC26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="GD26" s="3"/>
+      <c r="GE26" s="3"/>
+      <c r="GF26" s="3"/>
+      <c r="GG26" s="3"/>
+      <c r="GH26" s="3"/>
+      <c r="GI26" s="3"/>
+      <c r="GJ26" s="29"/>
+      <c r="GK26" s="29"/>
+      <c r="GL26" s="29"/>
+      <c r="GM26" s="29"/>
+      <c r="GN26" s="3"/>
+      <c r="GO26" s="3"/>
+      <c r="GP26" s="3"/>
+      <c r="GQ26" s="3"/>
+      <c r="GR26" s="3"/>
+      <c r="GS26" s="3"/>
+      <c r="GT26" s="3"/>
+      <c r="GU26" s="3"/>
+      <c r="GV26" s="3"/>
+      <c r="GW26" s="3"/>
+      <c r="GX26" s="3"/>
+      <c r="GY26" s="3"/>
+      <c r="GZ26" s="3"/>
+      <c r="HA26" s="3"/>
+      <c r="HB26" s="3"/>
+      <c r="HC26" s="3"/>
+      <c r="HD26" s="3"/>
+      <c r="HE26" s="3"/>
+      <c r="HF26" s="3"/>
+      <c r="HG26" s="3"/>
+      <c r="HH26" s="3"/>
+      <c r="HI26" s="3"/>
+      <c r="HJ26" s="3"/>
+      <c r="HK26" s="3"/>
+      <c r="HL26" s="3"/>
+      <c r="HM26" s="3"/>
+      <c r="HN26" s="3"/>
+      <c r="HO26" s="3"/>
+      <c r="HP26" s="8"/>
+      <c r="HQ26" s="8"/>
+      <c r="HR26" s="3"/>
+      <c r="HS26" s="3"/>
+      <c r="HT26" s="29"/>
+      <c r="HU26" s="29"/>
+      <c r="HV26" s="29"/>
+      <c r="HW26" s="29"/>
+      <c r="HX26" s="29"/>
+      <c r="HY26" s="29"/>
+      <c r="HZ26" s="29"/>
+      <c r="IA26" s="29"/>
+      <c r="IB26" s="29"/>
+      <c r="IC26" s="29"/>
+      <c r="ID26" s="29"/>
+      <c r="IE26" s="29"/>
+      <c r="IF26" s="29"/>
+      <c r="IG26" s="8"/>
+      <c r="IH26" s="8"/>
+      <c r="II26" s="29"/>
+      <c r="IJ26" s="29"/>
+      <c r="IK26" s="29"/>
+      <c r="IL26" s="29"/>
+      <c r="IM26" s="29"/>
+      <c r="IN26" s="28"/>
+      <c r="IO26" s="29"/>
+      <c r="IP26" s="29"/>
+      <c r="IQ26" s="29"/>
+      <c r="IR26" s="29"/>
+      <c r="IS26" s="29"/>
+      <c r="IT26" s="29"/>
+      <c r="IU26" s="29"/>
+      <c r="IV26" s="29"/>
+      <c r="IW26" s="29"/>
+      <c r="IX26" s="28"/>
+      <c r="IY26" s="29"/>
+      <c r="IZ26" s="29"/>
+      <c r="JA26" s="29"/>
+      <c r="JB26" s="29"/>
+      <c r="JC26" s="29"/>
+      <c r="JD26" s="3"/>
+      <c r="JE26" s="3"/>
+      <c r="JF26" s="3"/>
+      <c r="JG26" s="3"/>
+    </row>
+    <row r="27" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="GJ27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="HN28" s="31"/>
+      <c r="HO28" s="31"/>
+      <c r="HP28" s="31"/>
+      <c r="HQ28" s="31"/>
+      <c r="HR28" s="31"/>
+      <c r="HS28" s="31"/>
+      <c r="IK28" s="8"/>
+      <c r="IL28" s="8"/>
+    </row>
+    <row r="29" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="HM29" s="31"/>
+      <c r="HN29" s="31"/>
+      <c r="HO29" s="31"/>
+      <c r="HP29" s="31"/>
+      <c r="HQ29" s="31"/>
+      <c r="HR29" s="31"/>
+      <c r="HS29" s="31"/>
+      <c r="HT29" s="31"/>
+      <c r="HU29" s="31"/>
+      <c r="HV29" s="31"/>
+      <c r="HW29" s="31"/>
+      <c r="HX29" s="31"/>
+      <c r="HY29" s="31"/>
+      <c r="HZ29" s="31"/>
+      <c r="IA29" s="31"/>
+      <c r="IB29" s="31"/>
+      <c r="IC29" s="31"/>
+      <c r="ID29" s="31"/>
+      <c r="IE29" s="31"/>
+      <c r="IF29" s="31"/>
+      <c r="IG29" s="31"/>
+      <c r="IH29" s="31"/>
+      <c r="IK29" s="33"/>
+      <c r="IL29" s="33"/>
+      <c r="JI29" s="8"/>
+      <c r="JJ29" s="8"/>
+    </row>
+    <row r="30" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="HM30" s="31"/>
+      <c r="HN30" s="31"/>
+      <c r="HO30" s="31"/>
+      <c r="HP30" s="31"/>
+      <c r="HQ30" s="31"/>
+      <c r="HR30" s="31"/>
+      <c r="HS30" s="31"/>
+      <c r="HT30" s="31"/>
+      <c r="HU30" s="31"/>
+      <c r="HV30" s="31"/>
+      <c r="HW30" s="31"/>
+      <c r="HX30" s="31"/>
+      <c r="HY30" s="31"/>
+      <c r="HZ30" s="31"/>
+      <c r="IA30" s="31"/>
+      <c r="IB30" s="31"/>
+      <c r="IC30" s="31"/>
+      <c r="ID30" s="31"/>
+      <c r="IE30" s="31"/>
+      <c r="IF30" s="31"/>
+      <c r="IG30" s="31"/>
+      <c r="IH30" s="31"/>
+      <c r="IK30" s="33"/>
+      <c r="IL30" s="33"/>
+      <c r="JA30" s="9"/>
+      <c r="JB30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="JC30" s="8"/>
+      <c r="JF30" s="31"/>
+      <c r="JG30" s="8"/>
+      <c r="JH30" s="8"/>
+      <c r="JI30" s="8"/>
+      <c r="JJ30" s="8"/>
+    </row>
+    <row r="31" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="HM31" s="31"/>
+      <c r="HN31" s="31"/>
+      <c r="HO31" s="31"/>
+      <c r="HP31" s="31"/>
+      <c r="HQ31" s="31"/>
+      <c r="HR31" s="31"/>
+      <c r="HS31" s="31"/>
+      <c r="HT31" s="31"/>
+      <c r="HU31" s="31"/>
+      <c r="HV31" s="31"/>
+      <c r="HW31" s="31"/>
+      <c r="HX31" s="31"/>
+      <c r="HY31" s="31"/>
+      <c r="HZ31" s="31"/>
+      <c r="IA31" s="31"/>
+      <c r="IB31" s="31"/>
+      <c r="IC31" s="31"/>
+      <c r="ID31" s="31"/>
+      <c r="IE31" s="31"/>
+      <c r="IF31" s="31"/>
+      <c r="IG31" s="31"/>
+      <c r="IH31" s="31"/>
+      <c r="II31" s="8"/>
+      <c r="IJ31" s="8"/>
+      <c r="IK31" s="8"/>
+      <c r="IL31" s="8"/>
+      <c r="IM31" s="8"/>
+      <c r="IN31" s="8"/>
+      <c r="JA31" s="9"/>
+      <c r="JB31" s="8"/>
+      <c r="JC31" s="8"/>
+      <c r="JI31" s="8"/>
+      <c r="JJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:270" x14ac:dyDescent="0.45">
+      <c r="HM32" s="31"/>
+      <c r="HN32" s="31"/>
+      <c r="HO32" s="31"/>
+      <c r="HP32" s="31"/>
+      <c r="HQ32" s="31"/>
+      <c r="HR32" s="31"/>
+      <c r="HS32" s="31"/>
+      <c r="HT32" s="31"/>
+      <c r="HU32" s="31"/>
+      <c r="HV32" s="31"/>
+      <c r="HW32" s="31"/>
+      <c r="HX32" s="31"/>
+      <c r="HY32" s="31"/>
+      <c r="HZ32" s="31"/>
+      <c r="IA32" s="31"/>
+      <c r="IB32" s="31"/>
+      <c r="IC32" s="31"/>
+      <c r="ID32" s="31"/>
+      <c r="IE32" s="31"/>
+      <c r="IF32" s="31"/>
+      <c r="IG32" s="31"/>
+      <c r="IH32" s="31"/>
+      <c r="II32" s="31"/>
+      <c r="IJ32" s="31"/>
+      <c r="IK32" s="8"/>
+      <c r="IL32" s="8"/>
+      <c r="IM32" s="31"/>
+      <c r="IN32" s="31"/>
+      <c r="IV32" s="17"/>
+      <c r="JA32" s="9"/>
+      <c r="JB32" s="8"/>
+      <c r="JC32" s="8"/>
+      <c r="JI32" s="8"/>
+      <c r="JJ32" s="8"/>
+    </row>
+    <row r="33" spans="1:301" x14ac:dyDescent="0.45">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="HM33" s="31"/>
+      <c r="HN33" s="31"/>
+      <c r="HO33" s="31"/>
+      <c r="HP33" s="31"/>
+      <c r="HQ33" s="31"/>
+      <c r="HR33" s="31"/>
+      <c r="HS33" s="31"/>
+      <c r="HT33" s="31"/>
+      <c r="HU33" s="31"/>
+      <c r="HV33" s="31"/>
+      <c r="HW33" s="31"/>
+      <c r="HX33" s="31"/>
+      <c r="HY33" s="31"/>
+      <c r="HZ33" s="31"/>
+      <c r="IA33" s="31"/>
+      <c r="IB33" s="31"/>
+      <c r="IC33" s="31"/>
+      <c r="ID33" s="31"/>
+      <c r="IE33" s="31"/>
+      <c r="IF33" s="31"/>
+      <c r="IG33" s="31"/>
+      <c r="IH33" s="31"/>
+      <c r="II33" s="3"/>
+      <c r="IJ33" s="3"/>
+      <c r="IK33" s="8"/>
+      <c r="IL33" s="8"/>
+      <c r="IM33" s="3"/>
+      <c r="IN33" s="3"/>
+      <c r="IO33" s="3"/>
+      <c r="IP33" s="3"/>
+      <c r="IQ33" s="3"/>
+      <c r="IR33" s="8"/>
+      <c r="IS33" s="8"/>
+      <c r="IT33" s="3"/>
+      <c r="IU33" s="3"/>
+      <c r="IV33" s="17"/>
+      <c r="IW33" s="3"/>
+      <c r="IX33" s="3"/>
+      <c r="IY33" s="3"/>
+      <c r="IZ33" s="3"/>
+      <c r="JA33" s="9"/>
+      <c r="JB33" s="8"/>
+      <c r="JC33" s="8"/>
+      <c r="JD33" s="3"/>
+      <c r="JE33" s="3"/>
+      <c r="JF33" s="3"/>
+      <c r="JG33" s="3"/>
+      <c r="JH33" s="3"/>
+      <c r="JI33" s="8"/>
+      <c r="JJ33" s="8"/>
+      <c r="JK33" s="3"/>
+      <c r="JL33" s="3"/>
+      <c r="JM33" s="3"/>
+      <c r="JN33" s="3"/>
+      <c r="JO33" s="3"/>
+      <c r="JP33" s="3"/>
+      <c r="JQ33" s="3"/>
+      <c r="JR33" s="3"/>
+      <c r="JS33" s="3"/>
+      <c r="JT33" s="3"/>
+      <c r="JU33" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="JV33" s="3"/>
+      <c r="JW33" s="3"/>
+      <c r="JX33" s="3"/>
+      <c r="JY33" s="31"/>
+      <c r="JZ33" s="31"/>
+      <c r="KA33" s="31"/>
+      <c r="KB33" s="31"/>
+      <c r="KC33" s="31"/>
+      <c r="KD33" s="31"/>
+      <c r="KE33" s="31"/>
+      <c r="KF33" s="31"/>
+      <c r="KG33" s="31"/>
+      <c r="KH33" s="31"/>
+      <c r="KI33" s="31"/>
+      <c r="KJ33" s="31"/>
+      <c r="KK33" s="31"/>
+      <c r="KL33" s="31"/>
+      <c r="KM33" s="31"/>
+      <c r="KN33" s="31"/>
+      <c r="KO33" s="31"/>
+    </row>
+    <row r="34" spans="1:301" x14ac:dyDescent="0.45">
+      <c r="HM34" s="31"/>
+      <c r="HN34" s="31"/>
+      <c r="HO34" s="31"/>
+      <c r="HP34" s="31"/>
+      <c r="HQ34" s="31"/>
+      <c r="HR34" s="31"/>
+      <c r="HS34" s="31"/>
+      <c r="HT34" s="31"/>
+      <c r="HU34" s="31"/>
+      <c r="HV34" s="31"/>
+      <c r="HW34" s="31"/>
+      <c r="HX34" s="31"/>
+      <c r="HY34" s="31"/>
+      <c r="HZ34" s="31"/>
+      <c r="IA34" s="31"/>
+      <c r="IB34" s="31"/>
+      <c r="IC34" s="31"/>
+      <c r="ID34" s="31"/>
+      <c r="IE34" s="31"/>
+      <c r="IF34" s="31"/>
+      <c r="IG34" s="31"/>
+      <c r="IH34" s="31"/>
+      <c r="II34" s="3"/>
+      <c r="IJ34" s="3"/>
+      <c r="IK34" s="8"/>
+      <c r="IL34" s="8"/>
+      <c r="IM34" s="3"/>
+      <c r="IN34" s="3"/>
+      <c r="IO34" s="3"/>
+      <c r="IP34" s="3"/>
+      <c r="IQ34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR34" s="8"/>
+      <c r="IS34" s="8"/>
+      <c r="IT34" s="3"/>
+      <c r="IU34" s="3"/>
+      <c r="IV34" s="17"/>
+      <c r="IW34" s="3"/>
+      <c r="IX34" s="3"/>
+      <c r="IY34" s="3"/>
+      <c r="IZ34" s="3"/>
+      <c r="JA34" s="3"/>
+      <c r="JB34" s="3"/>
+      <c r="JC34" s="3"/>
+      <c r="JD34" s="3"/>
+      <c r="JE34" s="3"/>
+      <c r="JF34" s="3"/>
+      <c r="JG34" s="3"/>
+      <c r="JH34" s="3"/>
+      <c r="JI34" s="8"/>
+      <c r="JJ34" s="8"/>
+      <c r="JK34" s="3"/>
+      <c r="JL34" s="3"/>
+      <c r="JM34" s="3"/>
+      <c r="JN34" s="3"/>
+      <c r="JO34" s="3"/>
+      <c r="JP34" s="3"/>
+      <c r="JQ34" s="3"/>
+      <c r="JR34" s="3"/>
+      <c r="JS34" s="3"/>
+      <c r="JT34" s="3"/>
+      <c r="JU34" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="JV34" s="3"/>
+      <c r="JW34" s="3"/>
+      <c r="JX34" s="3"/>
+      <c r="JY34" s="31"/>
+      <c r="JZ34" s="31"/>
+      <c r="KA34" s="31"/>
+      <c r="KB34" s="31"/>
+      <c r="KC34" s="31"/>
+      <c r="KD34" s="31"/>
+      <c r="KE34" s="31"/>
+      <c r="KF34" s="31"/>
+      <c r="KG34" s="31"/>
+      <c r="KH34" s="31"/>
+      <c r="KI34" s="31"/>
+      <c r="KJ34" s="31"/>
+      <c r="KK34" s="31"/>
+      <c r="KL34" s="31"/>
+      <c r="KM34" s="31"/>
+      <c r="KN34" s="31"/>
+      <c r="KO34" s="31"/>
+    </row>
+    <row r="35" spans="1:301" x14ac:dyDescent="0.45">
+      <c r="HM35" s="31"/>
+      <c r="HN35" s="31"/>
+      <c r="HO35" s="31"/>
+      <c r="HP35" s="31"/>
+      <c r="HQ35" s="31"/>
+      <c r="HR35" s="31"/>
+      <c r="HS35" s="31"/>
+      <c r="HT35" s="31"/>
+      <c r="HU35" s="31"/>
+      <c r="HV35" s="31"/>
+      <c r="HW35" s="31"/>
+      <c r="HX35" s="31"/>
+      <c r="HY35" s="31"/>
+      <c r="HZ35" s="31"/>
+      <c r="IA35" s="31"/>
+      <c r="IB35" s="31"/>
+      <c r="IC35" s="31"/>
+      <c r="ID35" s="31"/>
+      <c r="IE35" s="31"/>
+      <c r="IF35" s="31"/>
+      <c r="IG35" s="31"/>
+      <c r="IH35" s="31"/>
+      <c r="II35" s="3"/>
+      <c r="IJ35" s="3"/>
+      <c r="IK35" s="8"/>
+      <c r="IL35" s="8"/>
+      <c r="IM35" s="3"/>
+      <c r="IN35" s="3"/>
+      <c r="IO35" s="3"/>
+      <c r="IP35" s="3"/>
+      <c r="IQ35" s="3"/>
+      <c r="IR35" s="3"/>
+      <c r="IS35" s="3"/>
+      <c r="IT35" s="3"/>
+      <c r="IU35" s="3"/>
+      <c r="IV35" s="3"/>
+      <c r="IW35" s="3"/>
+      <c r="IX35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="IY35" s="28"/>
+      <c r="IZ35" s="3"/>
+      <c r="JA35" s="3"/>
+      <c r="JB35" s="3"/>
+      <c r="JC35" s="3"/>
+      <c r="JD35" s="3"/>
+      <c r="JE35" s="8"/>
+      <c r="JF35" s="8"/>
+      <c r="JG35" s="3"/>
+      <c r="JH35" s="4"/>
+      <c r="JI35" s="3"/>
+      <c r="JJ35" s="3"/>
+      <c r="JK35" s="3"/>
+      <c r="JL35" s="3"/>
+      <c r="JM35" s="3"/>
+      <c r="JN35" s="4"/>
+      <c r="JO35" s="3"/>
+      <c r="JP35" s="3"/>
+      <c r="JQ35" s="3"/>
+      <c r="JR35" s="3"/>
+      <c r="JS35" s="3"/>
+      <c r="JT35" s="3"/>
+      <c r="JU35" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="JV35" s="3"/>
+      <c r="JW35" s="3"/>
+      <c r="JX35" s="3"/>
+      <c r="JY35" s="31"/>
+      <c r="JZ35" s="31"/>
+      <c r="KA35" s="31"/>
+      <c r="KB35" s="31"/>
+      <c r="KC35" s="31"/>
+      <c r="KD35" s="31"/>
+      <c r="KE35" s="31"/>
+      <c r="KF35" s="31"/>
+      <c r="KG35" s="31"/>
+      <c r="KH35" s="31"/>
+      <c r="KI35" s="31"/>
+      <c r="KJ35" s="31"/>
+      <c r="KK35" s="31"/>
+      <c r="KL35" s="31"/>
+      <c r="KM35" s="31"/>
+      <c r="KN35" s="31"/>
+      <c r="KO35" s="31"/>
+    </row>
+    <row r="36" spans="1:301" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="GI36" s="31"/>
+      <c r="GJ36" s="31"/>
+      <c r="GK36" s="31"/>
+      <c r="GL36" s="31"/>
+      <c r="GM36" s="31"/>
+      <c r="GN36" s="31"/>
+      <c r="GO36" s="31"/>
+      <c r="GP36" s="31"/>
+      <c r="GQ36" s="31"/>
+      <c r="GR36" s="31"/>
+      <c r="GS36" s="31"/>
+      <c r="GT36" s="31"/>
+      <c r="GU36" s="31"/>
+      <c r="GV36" s="31"/>
+      <c r="GW36" s="31"/>
+      <c r="GX36" s="31"/>
+      <c r="GY36" s="31"/>
+      <c r="GZ36" s="31"/>
+      <c r="HA36" s="31"/>
+      <c r="HB36" s="31"/>
+      <c r="HC36" s="31"/>
+      <c r="HD36" s="31"/>
+      <c r="HE36" s="31"/>
+      <c r="HF36" s="31"/>
+      <c r="HG36" s="31"/>
+      <c r="HH36" s="31"/>
+      <c r="HI36" s="31"/>
+      <c r="HJ36" s="31"/>
+      <c r="HK36" s="31"/>
+      <c r="HL36" s="31"/>
+      <c r="HM36" s="31"/>
+      <c r="HN36" s="31"/>
+      <c r="HO36" s="31"/>
+      <c r="HP36" s="31"/>
+      <c r="HQ36" s="31"/>
+      <c r="HR36" s="31"/>
+      <c r="HS36" s="31"/>
+      <c r="HT36" s="31"/>
+      <c r="HU36" s="31"/>
+      <c r="HV36" s="31"/>
+      <c r="HW36" s="31"/>
+      <c r="HX36" s="31"/>
+      <c r="HY36" s="31"/>
+      <c r="HZ36" s="31"/>
+      <c r="IA36" s="31"/>
+      <c r="IB36" s="31"/>
+      <c r="IC36" s="31"/>
+      <c r="ID36" s="31"/>
+      <c r="IE36" s="31"/>
+      <c r="IF36" s="31"/>
+      <c r="IG36" s="31"/>
+      <c r="IH36" s="31"/>
+      <c r="II36" s="3"/>
+      <c r="IJ36" s="3"/>
+      <c r="IK36" s="3"/>
+      <c r="IL36" s="3"/>
+      <c r="IM36" s="3"/>
+      <c r="IN36" s="3"/>
+      <c r="IO36" s="3"/>
+      <c r="IP36" s="3"/>
+      <c r="IQ36" s="3"/>
+      <c r="IR36" s="3"/>
+      <c r="IS36" s="3"/>
+      <c r="IT36" s="3"/>
+      <c r="IU36" s="3"/>
+      <c r="IV36" s="3"/>
+      <c r="IW36" s="3"/>
+      <c r="IX36" s="28"/>
+      <c r="IY36" s="28"/>
+      <c r="IZ36" s="3"/>
+      <c r="JA36" s="3"/>
+      <c r="JB36" s="3"/>
+      <c r="JC36" s="3"/>
+      <c r="JD36" s="3"/>
+      <c r="JE36" s="8"/>
+      <c r="JF36" s="8"/>
+      <c r="JG36" s="3"/>
+      <c r="JH36" s="3"/>
+      <c r="JI36" s="3"/>
+      <c r="JJ36" s="3"/>
+      <c r="JK36" s="3"/>
+      <c r="JL36" s="3"/>
+      <c r="JM36" s="3"/>
+      <c r="JN36" s="3"/>
+      <c r="JO36" s="3"/>
+      <c r="JP36" s="3"/>
+      <c r="JQ36" s="3"/>
+      <c r="JR36" s="3"/>
+      <c r="JS36" s="3"/>
+      <c r="JT36" s="3"/>
+      <c r="JU36" s="34"/>
+      <c r="JV36" s="3"/>
+      <c r="JW36" s="3"/>
+      <c r="JX36" s="3"/>
+      <c r="JY36" s="31"/>
+      <c r="JZ36" s="31"/>
+      <c r="KA36" s="31"/>
+      <c r="KB36" s="31"/>
+      <c r="KC36" s="31"/>
+      <c r="KD36" s="31"/>
+      <c r="KE36" s="31"/>
+      <c r="KF36" s="31"/>
+      <c r="KG36" s="31"/>
+      <c r="KH36" s="31"/>
+      <c r="KI36" s="31"/>
+      <c r="KJ36" s="31"/>
+      <c r="KK36" s="31"/>
+      <c r="KL36" s="31"/>
+      <c r="KM36" s="31"/>
+      <c r="KN36" s="31"/>
+      <c r="KO36" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372B27F-8518-49F6-A92D-CAB3EFE45FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7F5A3-EFB5-44CB-ADF1-7B7EE4EE7CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="森" sheetId="1" r:id="rId1"/>
     <sheet name="城下町" sheetId="2" r:id="rId2"/>
     <sheet name="堀＆城内" sheetId="4" r:id="rId3"/>
+    <sheet name="城ギミック" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="82">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +452,343 @@
   </si>
   <si>
     <t>ル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木、地面、岩、土や倒木の段差、</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウボク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>民家</t>
+    <rPh sb="0" eb="2">
+      <t>ミンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓橋</t>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊郭(背景)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梯子orジャンプ台→</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梯子→</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊女→</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前も通れるよ</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←飛び降り</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ台→</t>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓橋(こっちの方が分身使う)</t>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓乗れるけど背景</t>
+    <rPh sb="1" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓梯子(袋小路よりもこっちの方が分身使う)</t>
+    <rPh sb="1" eb="3">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>フクロコウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ブンシンツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓橋(船次第で向こうに渡れる)</t>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓落とし穴</t>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←橋(手前ルート)</t>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←袋小路</t>
+    <rPh sb="1" eb="4">
+      <t>フクロコウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは後ろが</t>
+    <rPh sb="3" eb="4">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梯子or飛び台→</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁だが前は通れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓飛び降り</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏み台↓</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ台↓</t>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木登り→</t>
+    <rPh sb="0" eb="2">
+      <t>キノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船行ったり来たり</t>
+    <rPh sb="0" eb="1">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓落とし穴(分身だけ乗せたら分岐可能)</t>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ブンキカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓こいつに見つかったら船止める</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓背景的なサムシング(乗れる)</t>
+    <rPh sb="1" eb="4">
+      <t>ハイケイテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊覧船→</t>
+    <rPh sb="0" eb="3">
+      <t>ユウランセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天井裏</t>
+    <rPh sb="0" eb="3">
+      <t>テンジョウウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角</t>
+    <rPh sb="0" eb="1">
+      <t>カド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,7 +796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,8 +877,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +986,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -668,13 +1041,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,9 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,6 +1244,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,6 +1342,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602996</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1595F41-D959-4E92-8D3A-F4FD11B1EC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="22860"/>
+          <a:ext cx="7278116" cy="4477375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F6CC9-498D-453D-A44F-43A51BBA67CF}">
-  <dimension ref="A1:KO36"/>
+  <dimension ref="A1:JX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HO13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="IW42" sqref="IW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1168,8 +1770,8 @@
       <c r="HU4" s="8"/>
     </row>
     <row r="5" spans="1:268" x14ac:dyDescent="0.45">
-      <c r="HT5" s="33"/>
-      <c r="HU5" s="33"/>
+      <c r="HT5" s="32"/>
+      <c r="HU5" s="32"/>
       <c r="II5" s="8"/>
       <c r="IJ5" s="8"/>
       <c r="IR5" s="8"/>
@@ -1186,8 +1788,8 @@
       <c r="HU6" s="8"/>
       <c r="IA6" s="8"/>
       <c r="IB6" s="8"/>
-      <c r="II6" s="33"/>
-      <c r="IJ6" s="33"/>
+      <c r="II6" s="32"/>
+      <c r="IJ6" s="32"/>
       <c r="IR6" s="8"/>
       <c r="IS6" s="8"/>
       <c r="JF6" s="8"/>
@@ -1200,14 +1802,14 @@
       <c r="FK7" s="9"/>
       <c r="HT7" s="8"/>
       <c r="HU7" s="8"/>
-      <c r="IA7" s="33"/>
-      <c r="IB7" s="33"/>
+      <c r="IA7" s="32"/>
+      <c r="IB7" s="32"/>
       <c r="IG7" s="8"/>
       <c r="IH7" s="8"/>
       <c r="II7" s="8"/>
       <c r="IJ7" s="8"/>
-      <c r="IR7" s="33"/>
-      <c r="IS7" s="33"/>
+      <c r="IR7" s="32"/>
+      <c r="IS7" s="32"/>
       <c r="JF7" s="8"/>
       <c r="JG7" s="8"/>
     </row>
@@ -1237,16 +1839,12 @@
       </c>
       <c r="HT8" s="8"/>
       <c r="HU8" s="8"/>
-      <c r="HV8" s="31"/>
-      <c r="HW8" s="31"/>
       <c r="HY8" s="8"/>
       <c r="HZ8" s="8"/>
-      <c r="IA8" s="33"/>
-      <c r="IB8" s="33"/>
+      <c r="IA8" s="32"/>
+      <c r="IB8" s="32"/>
       <c r="II8" s="8"/>
       <c r="IJ8" s="8"/>
-      <c r="IK8" s="31"/>
-      <c r="IL8" s="31"/>
       <c r="IO8" s="8"/>
       <c r="IP8" s="8"/>
       <c r="IQ8" s="8"/>
@@ -1291,30 +1889,16 @@
       <c r="FI9" s="8"/>
       <c r="FJ9" s="9"/>
       <c r="FK9" s="8"/>
-      <c r="HN9" s="31"/>
-      <c r="HO9" s="31"/>
-      <c r="HR9" s="31"/>
-      <c r="HS9" s="31"/>
       <c r="HT9" s="8"/>
       <c r="HU9" s="8"/>
-      <c r="HV9" s="31"/>
-      <c r="HW9" s="31"/>
       <c r="IA9" s="8"/>
       <c r="IB9" s="8"/>
       <c r="IC9" s="8"/>
       <c r="ID9" s="8"/>
-      <c r="IG9" s="31"/>
-      <c r="IH9" s="31"/>
       <c r="II9" s="8"/>
       <c r="IJ9" s="8"/>
-      <c r="IK9" s="31"/>
-      <c r="IL9" s="31"/>
-      <c r="IP9" s="31"/>
-      <c r="IQ9" s="31"/>
       <c r="IR9" s="8"/>
       <c r="IS9" s="8"/>
-      <c r="IT9" s="31"/>
-      <c r="IU9" s="31"/>
       <c r="JF9" s="8"/>
       <c r="JG9" s="8"/>
     </row>
@@ -1346,32 +1930,14 @@
       <c r="FI10" s="8"/>
       <c r="FJ10" s="9"/>
       <c r="FK10" s="8"/>
-      <c r="HN10" s="31"/>
-      <c r="HO10" s="31"/>
-      <c r="HR10" s="31"/>
-      <c r="HS10" s="31"/>
       <c r="HT10" s="8"/>
       <c r="HU10" s="8"/>
-      <c r="HV10" s="31"/>
-      <c r="HW10" s="31"/>
-      <c r="HY10" s="31"/>
-      <c r="HZ10" s="31"/>
       <c r="IA10" s="8"/>
       <c r="IB10" s="8"/>
-      <c r="IC10" s="31"/>
-      <c r="ID10" s="31"/>
-      <c r="IG10" s="31"/>
-      <c r="IH10" s="31"/>
       <c r="II10" s="8"/>
       <c r="IJ10" s="8"/>
-      <c r="IK10" s="31"/>
-      <c r="IL10" s="31"/>
-      <c r="IP10" s="31"/>
-      <c r="IQ10" s="31"/>
       <c r="IR10" s="8"/>
       <c r="IS10" s="8"/>
-      <c r="IT10" s="31"/>
-      <c r="IU10" s="31"/>
       <c r="JF10" s="8"/>
       <c r="JG10" s="8"/>
     </row>
@@ -1473,7 +2039,6 @@
       <c r="FI11" s="8"/>
       <c r="FJ11" s="9"/>
       <c r="FK11" s="8"/>
-      <c r="HL11" s="31"/>
       <c r="HM11" s="3"/>
       <c r="HN11" s="3"/>
       <c r="HO11" s="3"/>
@@ -1495,7 +2060,7 @@
       <c r="IE11" s="3"/>
       <c r="IF11" s="3"/>
       <c r="IG11" s="3"/>
-      <c r="IH11" s="32" t="s">
+      <c r="IH11" s="31" t="s">
         <v>40</v>
       </c>
       <c r="II11" s="8"/>
@@ -1604,7 +2169,6 @@
       <c r="FI12" s="8"/>
       <c r="FJ12" s="9"/>
       <c r="FK12" s="8"/>
-      <c r="HL12" s="31"/>
       <c r="HM12" s="3"/>
       <c r="HN12" s="3"/>
       <c r="HO12" s="3"/>
@@ -1742,7 +2306,6 @@
       <c r="FI13" s="8"/>
       <c r="FJ13" s="9"/>
       <c r="FK13" s="8"/>
-      <c r="HL13" s="31"/>
       <c r="HM13" s="3"/>
       <c r="HN13" s="28" t="s">
         <v>41</v>
@@ -1988,8 +2551,6 @@
       <c r="HX15" s="8"/>
       <c r="IH15" s="8"/>
       <c r="II15" s="8"/>
-      <c r="IQ15" s="31"/>
-      <c r="IR15" s="31"/>
     </row>
     <row r="16" spans="1:268" x14ac:dyDescent="0.45">
       <c r="AZ16" s="9"/>
@@ -2001,8 +2562,6 @@
       <c r="HV16" s="8"/>
       <c r="HW16" s="8"/>
       <c r="HX16" s="8"/>
-      <c r="IF16" s="31"/>
-      <c r="IG16" s="31"/>
       <c r="IH16" s="8"/>
       <c r="II16" s="8"/>
       <c r="IQ16" s="8"/>
@@ -2026,8 +2585,6 @@
       <c r="II17" s="8"/>
       <c r="IQ17" s="8"/>
       <c r="IR17" s="8"/>
-      <c r="IX17" s="31"/>
-      <c r="IY17" s="31"/>
     </row>
     <row r="18" spans="1:270" x14ac:dyDescent="0.45">
       <c r="AH18" s="9"/>
@@ -2052,26 +2609,8 @@
       <c r="II18" s="8"/>
       <c r="IJ18" s="8"/>
       <c r="IK18" s="8"/>
-      <c r="IN18" s="31"/>
-      <c r="IO18" s="31"/>
-      <c r="IP18" s="31"/>
       <c r="IQ18" s="8"/>
       <c r="IR18" s="8"/>
-      <c r="IS18" s="31"/>
-      <c r="IT18" s="31"/>
-      <c r="IU18" s="31"/>
-      <c r="IV18" s="31"/>
-      <c r="IW18" s="31"/>
-      <c r="IX18" s="31"/>
-      <c r="IY18" s="31"/>
-      <c r="IZ18" s="31"/>
-      <c r="JA18" s="31"/>
-      <c r="JB18" s="31"/>
-      <c r="JC18" s="31"/>
-      <c r="JD18" s="31"/>
-      <c r="JE18" s="31"/>
-      <c r="JF18" s="31"/>
-      <c r="JG18" s="31"/>
     </row>
     <row r="19" spans="1:270" x14ac:dyDescent="0.45">
       <c r="Z19" t="s">
@@ -2104,36 +2643,12 @@
       <c r="GU19" s="8"/>
       <c r="HP19" s="8"/>
       <c r="HQ19" s="8"/>
-      <c r="HU19" s="31"/>
-      <c r="HV19" s="31"/>
       <c r="HW19" s="8"/>
       <c r="HX19" s="8"/>
-      <c r="HY19" s="31"/>
-      <c r="HZ19" s="31"/>
-      <c r="IF19" s="31"/>
-      <c r="IG19" s="31"/>
       <c r="IH19" s="8"/>
       <c r="II19" s="8"/>
-      <c r="IJ19" s="31"/>
-      <c r="IK19" s="31"/>
-      <c r="IN19" s="31"/>
-      <c r="IO19" s="31"/>
-      <c r="IP19" s="31"/>
       <c r="IQ19" s="8"/>
       <c r="IR19" s="8"/>
-      <c r="IS19" s="31"/>
-      <c r="IT19" s="31"/>
-      <c r="IU19" s="31"/>
-      <c r="IV19" s="31"/>
-      <c r="IW19" s="31"/>
-      <c r="IX19" s="31"/>
-      <c r="IY19" s="31"/>
-      <c r="IZ19" s="31"/>
-      <c r="JA19" s="31"/>
-      <c r="JB19" s="31"/>
-      <c r="JC19" s="31"/>
-      <c r="JD19" s="31"/>
-      <c r="JE19" s="31"/>
       <c r="JF19" s="8"/>
       <c r="JG19" s="8"/>
     </row>
@@ -2176,36 +2691,12 @@
       <c r="HO20" s="8"/>
       <c r="HP20" s="8"/>
       <c r="HQ20" s="8"/>
-      <c r="HU20" s="31"/>
-      <c r="HV20" s="31"/>
       <c r="HW20" s="8"/>
       <c r="HX20" s="8"/>
-      <c r="HY20" s="31"/>
-      <c r="HZ20" s="31"/>
-      <c r="IF20" s="31"/>
-      <c r="IG20" s="31"/>
       <c r="IH20" s="8"/>
       <c r="II20" s="8"/>
-      <c r="IJ20" s="31"/>
-      <c r="IK20" s="31"/>
-      <c r="IN20" s="31"/>
-      <c r="IO20" s="31"/>
-      <c r="IP20" s="31"/>
       <c r="IQ20" s="8"/>
       <c r="IR20" s="8"/>
-      <c r="IS20" s="31"/>
-      <c r="IT20" s="31"/>
-      <c r="IU20" s="31"/>
-      <c r="IV20" s="31"/>
-      <c r="IW20" s="31"/>
-      <c r="IX20" s="31"/>
-      <c r="IY20" s="31"/>
-      <c r="IZ20" s="31"/>
-      <c r="JA20" s="31"/>
-      <c r="JB20" s="31"/>
-      <c r="JC20" s="31"/>
-      <c r="JD20" s="31"/>
-      <c r="JE20" s="31"/>
       <c r="JF20" s="8"/>
       <c r="JG20" s="8"/>
     </row>
@@ -2251,39 +2742,20 @@
       <c r="GU21" s="8"/>
       <c r="HP21" s="8"/>
       <c r="HQ21" s="8"/>
-      <c r="HU21" s="31"/>
-      <c r="HV21" s="31"/>
       <c r="HW21" s="8"/>
       <c r="HX21" s="8"/>
-      <c r="HY21" s="31"/>
       <c r="HZ21" s="8"/>
       <c r="IA21" s="8"/>
       <c r="IC21" s="8"/>
       <c r="ID21" s="8"/>
-      <c r="IF21" s="31"/>
-      <c r="IG21" s="31"/>
       <c r="IH21" s="8"/>
       <c r="II21" s="8"/>
-      <c r="IJ21" s="31"/>
-      <c r="IK21" s="31"/>
       <c r="IM21" s="8"/>
       <c r="IN21" s="8"/>
-      <c r="IO21" s="31"/>
-      <c r="IP21" s="31"/>
       <c r="IQ21" s="8"/>
       <c r="IR21" s="8"/>
-      <c r="IS21" s="31"/>
-      <c r="IT21" s="31"/>
-      <c r="IU21" s="31"/>
       <c r="IV21" s="8"/>
       <c r="IW21" s="8"/>
-      <c r="IX21" s="31"/>
-      <c r="IY21" s="31"/>
-      <c r="IZ21" s="31"/>
-      <c r="JA21" s="31"/>
-      <c r="JB21" s="31"/>
-      <c r="JC21" s="31"/>
-      <c r="JD21" s="31"/>
       <c r="JE21" s="8"/>
       <c r="JF21" s="8"/>
       <c r="JG21" s="8"/>
@@ -2331,46 +2803,29 @@
       <c r="HQ22" s="8"/>
       <c r="HR22" s="8"/>
       <c r="HS22" s="8"/>
-      <c r="HU22" s="31"/>
-      <c r="HV22" s="32" t="s">
+      <c r="HV22" s="31" t="s">
         <v>40</v>
       </c>
       <c r="HW22" s="8"/>
       <c r="HX22" s="8"/>
-      <c r="HY22" s="31"/>
       <c r="HZ22" s="8"/>
       <c r="IA22" s="8"/>
       <c r="IC22" s="8"/>
       <c r="ID22" s="8"/>
-      <c r="IF22" s="31"/>
-      <c r="IG22" s="32" t="s">
+      <c r="IG22" s="31" t="s">
         <v>40</v>
       </c>
       <c r="IH22" s="8"/>
       <c r="II22" s="8"/>
-      <c r="IJ22" s="31"/>
-      <c r="IK22" s="31"/>
       <c r="IM22" s="8"/>
       <c r="IN22" s="8"/>
-      <c r="IO22" s="31"/>
-      <c r="IP22" s="31"/>
       <c r="IQ22" s="8"/>
       <c r="IR22" s="8"/>
-      <c r="IS22" s="31"/>
-      <c r="IT22" s="31"/>
-      <c r="IU22" s="31"/>
       <c r="IV22" s="8"/>
       <c r="IW22" s="8"/>
-      <c r="IX22" s="32" t="s">
+      <c r="IX22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="IY22" s="31"/>
-      <c r="IZ22" s="31"/>
-      <c r="JA22" s="31"/>
-      <c r="JB22" s="31"/>
-      <c r="JC22" s="31"/>
-      <c r="JD22" s="31"/>
-      <c r="JE22" s="31"/>
       <c r="JF22" s="8"/>
       <c r="JG22" s="8"/>
     </row>
@@ -2895,102 +3350,29 @@
       </c>
     </row>
     <row r="28" spans="1:270" x14ac:dyDescent="0.45">
-      <c r="HN28" s="31"/>
-      <c r="HO28" s="31"/>
-      <c r="HP28" s="31"/>
-      <c r="HQ28" s="31"/>
-      <c r="HR28" s="31"/>
-      <c r="HS28" s="31"/>
       <c r="IK28" s="8"/>
       <c r="IL28" s="8"/>
     </row>
     <row r="29" spans="1:270" x14ac:dyDescent="0.45">
-      <c r="HM29" s="31"/>
-      <c r="HN29" s="31"/>
-      <c r="HO29" s="31"/>
-      <c r="HP29" s="31"/>
-      <c r="HQ29" s="31"/>
-      <c r="HR29" s="31"/>
-      <c r="HS29" s="31"/>
-      <c r="HT29" s="31"/>
-      <c r="HU29" s="31"/>
-      <c r="HV29" s="31"/>
-      <c r="HW29" s="31"/>
-      <c r="HX29" s="31"/>
-      <c r="HY29" s="31"/>
-      <c r="HZ29" s="31"/>
-      <c r="IA29" s="31"/>
-      <c r="IB29" s="31"/>
-      <c r="IC29" s="31"/>
-      <c r="ID29" s="31"/>
-      <c r="IE29" s="31"/>
-      <c r="IF29" s="31"/>
-      <c r="IG29" s="31"/>
-      <c r="IH29" s="31"/>
-      <c r="IK29" s="33"/>
-      <c r="IL29" s="33"/>
+      <c r="IK29" s="32"/>
+      <c r="IL29" s="32"/>
       <c r="JI29" s="8"/>
       <c r="JJ29" s="8"/>
     </row>
     <row r="30" spans="1:270" x14ac:dyDescent="0.45">
-      <c r="HM30" s="31"/>
-      <c r="HN30" s="31"/>
-      <c r="HO30" s="31"/>
-      <c r="HP30" s="31"/>
-      <c r="HQ30" s="31"/>
-      <c r="HR30" s="31"/>
-      <c r="HS30" s="31"/>
-      <c r="HT30" s="31"/>
-      <c r="HU30" s="31"/>
-      <c r="HV30" s="31"/>
-      <c r="HW30" s="31"/>
-      <c r="HX30" s="31"/>
-      <c r="HY30" s="31"/>
-      <c r="HZ30" s="31"/>
-      <c r="IA30" s="31"/>
-      <c r="IB30" s="31"/>
-      <c r="IC30" s="31"/>
-      <c r="ID30" s="31"/>
-      <c r="IE30" s="31"/>
-      <c r="IF30" s="31"/>
-      <c r="IG30" s="31"/>
-      <c r="IH30" s="31"/>
-      <c r="IK30" s="33"/>
-      <c r="IL30" s="33"/>
+      <c r="IK30" s="32"/>
+      <c r="IL30" s="32"/>
       <c r="JA30" s="9"/>
       <c r="JB30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="JC30" s="8"/>
-      <c r="JF30" s="31"/>
       <c r="JG30" s="8"/>
       <c r="JH30" s="8"/>
       <c r="JI30" s="8"/>
       <c r="JJ30" s="8"/>
     </row>
     <row r="31" spans="1:270" x14ac:dyDescent="0.45">
-      <c r="HM31" s="31"/>
-      <c r="HN31" s="31"/>
-      <c r="HO31" s="31"/>
-      <c r="HP31" s="31"/>
-      <c r="HQ31" s="31"/>
-      <c r="HR31" s="31"/>
-      <c r="HS31" s="31"/>
-      <c r="HT31" s="31"/>
-      <c r="HU31" s="31"/>
-      <c r="HV31" s="31"/>
-      <c r="HW31" s="31"/>
-      <c r="HX31" s="31"/>
-      <c r="HY31" s="31"/>
-      <c r="HZ31" s="31"/>
-      <c r="IA31" s="31"/>
-      <c r="IB31" s="31"/>
-      <c r="IC31" s="31"/>
-      <c r="ID31" s="31"/>
-      <c r="IE31" s="31"/>
-      <c r="IF31" s="31"/>
-      <c r="IG31" s="31"/>
-      <c r="IH31" s="31"/>
       <c r="II31" s="8"/>
       <c r="IJ31" s="8"/>
       <c r="IK31" s="8"/>
@@ -3004,34 +3386,8 @@
       <c r="JJ31" s="8"/>
     </row>
     <row r="32" spans="1:270" x14ac:dyDescent="0.45">
-      <c r="HM32" s="31"/>
-      <c r="HN32" s="31"/>
-      <c r="HO32" s="31"/>
-      <c r="HP32" s="31"/>
-      <c r="HQ32" s="31"/>
-      <c r="HR32" s="31"/>
-      <c r="HS32" s="31"/>
-      <c r="HT32" s="31"/>
-      <c r="HU32" s="31"/>
-      <c r="HV32" s="31"/>
-      <c r="HW32" s="31"/>
-      <c r="HX32" s="31"/>
-      <c r="HY32" s="31"/>
-      <c r="HZ32" s="31"/>
-      <c r="IA32" s="31"/>
-      <c r="IB32" s="31"/>
-      <c r="IC32" s="31"/>
-      <c r="ID32" s="31"/>
-      <c r="IE32" s="31"/>
-      <c r="IF32" s="31"/>
-      <c r="IG32" s="31"/>
-      <c r="IH32" s="31"/>
-      <c r="II32" s="31"/>
-      <c r="IJ32" s="31"/>
       <c r="IK32" s="8"/>
       <c r="IL32" s="8"/>
-      <c r="IM32" s="31"/>
-      <c r="IN32" s="31"/>
       <c r="IV32" s="17"/>
       <c r="JA32" s="9"/>
       <c r="JB32" s="8"/>
@@ -3039,40 +3395,7 @@
       <c r="JI32" s="8"/>
       <c r="JJ32" s="8"/>
     </row>
-    <row r="33" spans="1:301" x14ac:dyDescent="0.45">
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="HM33" s="31"/>
-      <c r="HN33" s="31"/>
-      <c r="HO33" s="31"/>
-      <c r="HP33" s="31"/>
-      <c r="HQ33" s="31"/>
-      <c r="HR33" s="31"/>
-      <c r="HS33" s="31"/>
-      <c r="HT33" s="31"/>
-      <c r="HU33" s="31"/>
-      <c r="HV33" s="31"/>
-      <c r="HW33" s="31"/>
-      <c r="HX33" s="31"/>
-      <c r="HY33" s="31"/>
-      <c r="HZ33" s="31"/>
-      <c r="IA33" s="31"/>
-      <c r="IB33" s="31"/>
-      <c r="IC33" s="31"/>
-      <c r="ID33" s="31"/>
-      <c r="IE33" s="31"/>
-      <c r="IF33" s="31"/>
-      <c r="IG33" s="31"/>
-      <c r="IH33" s="31"/>
+    <row r="33" spans="1:284" x14ac:dyDescent="0.45">
       <c r="II33" s="3"/>
       <c r="IJ33" s="3"/>
       <c r="IK33" s="8"/>
@@ -3111,53 +3434,14 @@
       <c r="JR33" s="3"/>
       <c r="JS33" s="3"/>
       <c r="JT33" s="3"/>
-      <c r="JU33" s="34" t="s">
+      <c r="JU33" s="33" t="s">
         <v>45</v>
       </c>
       <c r="JV33" s="3"/>
       <c r="JW33" s="3"/>
       <c r="JX33" s="3"/>
-      <c r="JY33" s="31"/>
-      <c r="JZ33" s="31"/>
-      <c r="KA33" s="31"/>
-      <c r="KB33" s="31"/>
-      <c r="KC33" s="31"/>
-      <c r="KD33" s="31"/>
-      <c r="KE33" s="31"/>
-      <c r="KF33" s="31"/>
-      <c r="KG33" s="31"/>
-      <c r="KH33" s="31"/>
-      <c r="KI33" s="31"/>
-      <c r="KJ33" s="31"/>
-      <c r="KK33" s="31"/>
-      <c r="KL33" s="31"/>
-      <c r="KM33" s="31"/>
-      <c r="KN33" s="31"/>
-      <c r="KO33" s="31"/>
-    </row>
-    <row r="34" spans="1:301" x14ac:dyDescent="0.45">
-      <c r="HM34" s="31"/>
-      <c r="HN34" s="31"/>
-      <c r="HO34" s="31"/>
-      <c r="HP34" s="31"/>
-      <c r="HQ34" s="31"/>
-      <c r="HR34" s="31"/>
-      <c r="HS34" s="31"/>
-      <c r="HT34" s="31"/>
-      <c r="HU34" s="31"/>
-      <c r="HV34" s="31"/>
-      <c r="HW34" s="31"/>
-      <c r="HX34" s="31"/>
-      <c r="HY34" s="31"/>
-      <c r="HZ34" s="31"/>
-      <c r="IA34" s="31"/>
-      <c r="IB34" s="31"/>
-      <c r="IC34" s="31"/>
-      <c r="ID34" s="31"/>
-      <c r="IE34" s="31"/>
-      <c r="IF34" s="31"/>
-      <c r="IG34" s="31"/>
-      <c r="IH34" s="31"/>
+    </row>
+    <row r="34" spans="1:284" x14ac:dyDescent="0.45">
       <c r="II34" s="3"/>
       <c r="IJ34" s="3"/>
       <c r="IK34" s="8"/>
@@ -3166,7 +3450,7 @@
       <c r="IN34" s="3"/>
       <c r="IO34" s="3"/>
       <c r="IP34" s="3"/>
-      <c r="IQ34" s="32" t="s">
+      <c r="IQ34" s="31" t="s">
         <v>40</v>
       </c>
       <c r="IR34" s="8"/>
@@ -3198,53 +3482,14 @@
       <c r="JR34" s="3"/>
       <c r="JS34" s="3"/>
       <c r="JT34" s="3"/>
-      <c r="JU34" s="34" t="s">
+      <c r="JU34" s="33" t="s">
         <v>46</v>
       </c>
       <c r="JV34" s="3"/>
       <c r="JW34" s="3"/>
       <c r="JX34" s="3"/>
-      <c r="JY34" s="31"/>
-      <c r="JZ34" s="31"/>
-      <c r="KA34" s="31"/>
-      <c r="KB34" s="31"/>
-      <c r="KC34" s="31"/>
-      <c r="KD34" s="31"/>
-      <c r="KE34" s="31"/>
-      <c r="KF34" s="31"/>
-      <c r="KG34" s="31"/>
-      <c r="KH34" s="31"/>
-      <c r="KI34" s="31"/>
-      <c r="KJ34" s="31"/>
-      <c r="KK34" s="31"/>
-      <c r="KL34" s="31"/>
-      <c r="KM34" s="31"/>
-      <c r="KN34" s="31"/>
-      <c r="KO34" s="31"/>
-    </row>
-    <row r="35" spans="1:301" x14ac:dyDescent="0.45">
-      <c r="HM35" s="31"/>
-      <c r="HN35" s="31"/>
-      <c r="HO35" s="31"/>
-      <c r="HP35" s="31"/>
-      <c r="HQ35" s="31"/>
-      <c r="HR35" s="31"/>
-      <c r="HS35" s="31"/>
-      <c r="HT35" s="31"/>
-      <c r="HU35" s="31"/>
-      <c r="HV35" s="31"/>
-      <c r="HW35" s="31"/>
-      <c r="HX35" s="31"/>
-      <c r="HY35" s="31"/>
-      <c r="HZ35" s="31"/>
-      <c r="IA35" s="31"/>
-      <c r="IB35" s="31"/>
-      <c r="IC35" s="31"/>
-      <c r="ID35" s="31"/>
-      <c r="IE35" s="31"/>
-      <c r="IF35" s="31"/>
-      <c r="IG35" s="31"/>
-      <c r="IH35" s="31"/>
+    </row>
+    <row r="35" spans="1:284" x14ac:dyDescent="0.45">
       <c r="II35" s="3"/>
       <c r="IJ35" s="3"/>
       <c r="IK35" s="8"/>
@@ -3285,111 +3530,15 @@
       <c r="JR35" s="3"/>
       <c r="JS35" s="3"/>
       <c r="JT35" s="3"/>
-      <c r="JU35" s="34" t="s">
+      <c r="JU35" s="33" t="s">
         <v>47</v>
       </c>
       <c r="JV35" s="3"/>
       <c r="JW35" s="3"/>
       <c r="JX35" s="3"/>
-      <c r="JY35" s="31"/>
-      <c r="JZ35" s="31"/>
-      <c r="KA35" s="31"/>
-      <c r="KB35" s="31"/>
-      <c r="KC35" s="31"/>
-      <c r="KD35" s="31"/>
-      <c r="KE35" s="31"/>
-      <c r="KF35" s="31"/>
-      <c r="KG35" s="31"/>
-      <c r="KH35" s="31"/>
-      <c r="KI35" s="31"/>
-      <c r="KJ35" s="31"/>
-      <c r="KK35" s="31"/>
-      <c r="KL35" s="31"/>
-      <c r="KM35" s="31"/>
-      <c r="KN35" s="31"/>
-      <c r="KO35" s="31"/>
-    </row>
-    <row r="36" spans="1:301" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:284" x14ac:dyDescent="0.45">
       <c r="A36" s="18"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="GI36" s="31"/>
-      <c r="GJ36" s="31"/>
-      <c r="GK36" s="31"/>
-      <c r="GL36" s="31"/>
-      <c r="GM36" s="31"/>
-      <c r="GN36" s="31"/>
-      <c r="GO36" s="31"/>
-      <c r="GP36" s="31"/>
-      <c r="GQ36" s="31"/>
-      <c r="GR36" s="31"/>
-      <c r="GS36" s="31"/>
-      <c r="GT36" s="31"/>
-      <c r="GU36" s="31"/>
-      <c r="GV36" s="31"/>
-      <c r="GW36" s="31"/>
-      <c r="GX36" s="31"/>
-      <c r="GY36" s="31"/>
-      <c r="GZ36" s="31"/>
-      <c r="HA36" s="31"/>
-      <c r="HB36" s="31"/>
-      <c r="HC36" s="31"/>
-      <c r="HD36" s="31"/>
-      <c r="HE36" s="31"/>
-      <c r="HF36" s="31"/>
-      <c r="HG36" s="31"/>
-      <c r="HH36" s="31"/>
-      <c r="HI36" s="31"/>
-      <c r="HJ36" s="31"/>
-      <c r="HK36" s="31"/>
-      <c r="HL36" s="31"/>
-      <c r="HM36" s="31"/>
-      <c r="HN36" s="31"/>
-      <c r="HO36" s="31"/>
-      <c r="HP36" s="31"/>
-      <c r="HQ36" s="31"/>
-      <c r="HR36" s="31"/>
-      <c r="HS36" s="31"/>
-      <c r="HT36" s="31"/>
-      <c r="HU36" s="31"/>
-      <c r="HV36" s="31"/>
-      <c r="HW36" s="31"/>
-      <c r="HX36" s="31"/>
-      <c r="HY36" s="31"/>
-      <c r="HZ36" s="31"/>
-      <c r="IA36" s="31"/>
-      <c r="IB36" s="31"/>
-      <c r="IC36" s="31"/>
-      <c r="ID36" s="31"/>
-      <c r="IE36" s="31"/>
-      <c r="IF36" s="31"/>
-      <c r="IG36" s="31"/>
-      <c r="IH36" s="31"/>
       <c r="II36" s="3"/>
       <c r="IJ36" s="3"/>
       <c r="IK36" s="3"/>
@@ -3428,44 +3577,2660 @@
       <c r="JR36" s="3"/>
       <c r="JS36" s="3"/>
       <c r="JT36" s="3"/>
-      <c r="JU36" s="34"/>
+      <c r="JU36" s="33"/>
       <c r="JV36" s="3"/>
       <c r="JW36" s="3"/>
       <c r="JX36" s="3"/>
-      <c r="JY36" s="31"/>
-      <c r="JZ36" s="31"/>
-      <c r="KA36" s="31"/>
-      <c r="KB36" s="31"/>
-      <c r="KC36" s="31"/>
-      <c r="KD36" s="31"/>
-      <c r="KE36" s="31"/>
-      <c r="KF36" s="31"/>
-      <c r="KG36" s="31"/>
-      <c r="KH36" s="31"/>
-      <c r="KI36" s="31"/>
-      <c r="KJ36" s="31"/>
-      <c r="KK36" s="31"/>
-      <c r="KL36" s="31"/>
-      <c r="KM36" s="31"/>
-      <c r="KN36" s="31"/>
-      <c r="KO36" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3D41D-10E2-49F9-9670-6032AB04FD08}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:GA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A1" s="19"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="DQ6" s="17"/>
+    </row>
+    <row r="7" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BY7" t="s">
+        <v>52</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ7" s="17"/>
+    </row>
+    <row r="8" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BP8" s="17"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="7"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36"/>
+      <c r="CF8" s="36"/>
+      <c r="CG8" s="36"/>
+      <c r="CH8" s="36"/>
+      <c r="CI8" s="36"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="36"/>
+      <c r="CL8" s="36"/>
+      <c r="CM8" s="36"/>
+      <c r="CN8" s="36"/>
+      <c r="CO8" s="36"/>
+      <c r="CP8" s="36"/>
+      <c r="CQ8" s="36"/>
+      <c r="CR8" s="36"/>
+      <c r="CS8" s="36"/>
+      <c r="CT8" s="36"/>
+      <c r="CU8" s="36"/>
+      <c r="CV8" s="36"/>
+      <c r="CW8" s="36"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="36"/>
+      <c r="CZ8" s="36"/>
+      <c r="DA8" s="36"/>
+      <c r="DB8" s="7"/>
+      <c r="DQ8" s="17"/>
+      <c r="EL8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BP9" s="17"/>
+      <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="38"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="36"/>
+      <c r="CZ9" s="36"/>
+      <c r="DA9" s="36"/>
+      <c r="DB9" s="7"/>
+      <c r="DM9" s="7"/>
+      <c r="DN9" s="39"/>
+      <c r="DO9" s="39"/>
+      <c r="DP9" s="39"/>
+      <c r="DQ9" s="39"/>
+      <c r="DR9" s="39"/>
+      <c r="DS9" s="39"/>
+      <c r="DT9" s="39"/>
+      <c r="DU9" s="39"/>
+      <c r="EA9" s="39"/>
+      <c r="EB9" s="39"/>
+      <c r="EC9" s="39"/>
+      <c r="ED9" s="39"/>
+      <c r="EE9" s="39"/>
+      <c r="EF9" s="39"/>
+      <c r="EG9" s="39"/>
+      <c r="EH9" s="39"/>
+      <c r="EI9" s="9"/>
+      <c r="EJ9" s="9"/>
+      <c r="EK9" s="9"/>
+      <c r="EL9" s="9"/>
+      <c r="EM9" s="9"/>
+      <c r="EN9" s="9"/>
+      <c r="EO9" s="9"/>
+      <c r="EP9" s="9"/>
+      <c r="EQ9" s="9"/>
+      <c r="ER9" s="39"/>
+      <c r="ES9" s="39"/>
+      <c r="ET9" s="39"/>
+      <c r="EU9" s="39"/>
+      <c r="EV9" s="39"/>
+      <c r="EW9" s="39"/>
+      <c r="EX9" s="39"/>
+      <c r="EY9" s="39"/>
+      <c r="EZ9" s="39"/>
+      <c r="FA9" s="39"/>
+    </row>
+    <row r="10" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BP10" s="17"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
+      <c r="CA10" s="36"/>
+      <c r="CB10" s="36"/>
+      <c r="CC10" s="36"/>
+      <c r="CD10" s="38"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="38"/>
+      <c r="CG10" s="38"/>
+      <c r="CH10" s="38"/>
+      <c r="CI10" s="38"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="38"/>
+      <c r="CL10" s="38"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="38"/>
+      <c r="CO10" s="38"/>
+      <c r="CP10" s="38"/>
+      <c r="CQ10" s="38"/>
+      <c r="CR10" s="38"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="38"/>
+      <c r="CU10" s="38"/>
+      <c r="CV10" s="38"/>
+      <c r="CW10" s="38"/>
+      <c r="CX10" s="38"/>
+      <c r="CY10" s="36"/>
+      <c r="CZ10" s="36"/>
+      <c r="DA10" s="36"/>
+      <c r="DB10" s="7"/>
+      <c r="DM10" s="7"/>
+      <c r="DN10" s="39"/>
+      <c r="DO10" s="39"/>
+      <c r="DP10" s="39"/>
+      <c r="DQ10" s="39"/>
+      <c r="DR10" s="39"/>
+      <c r="DS10" s="39"/>
+      <c r="DT10" s="39"/>
+      <c r="DU10" s="39"/>
+      <c r="EA10" s="39"/>
+      <c r="EB10" s="39"/>
+      <c r="EC10" s="39"/>
+      <c r="ED10" s="39"/>
+      <c r="EE10" s="39"/>
+      <c r="EF10" s="39"/>
+      <c r="EG10" s="39"/>
+      <c r="EH10" s="39"/>
+      <c r="EQ10" s="7"/>
+      <c r="ER10" s="39"/>
+      <c r="ES10" s="39"/>
+      <c r="ET10" s="39"/>
+      <c r="EU10" s="39"/>
+      <c r="EV10" s="39"/>
+      <c r="EW10" s="39"/>
+      <c r="EX10" s="39"/>
+      <c r="EY10" s="39"/>
+      <c r="EZ10" s="39"/>
+      <c r="FA10" s="39"/>
+    </row>
+    <row r="11" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+      <c r="BQ11" s="8"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="9"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="38"/>
+      <c r="CF11" s="38"/>
+      <c r="CG11" s="38"/>
+      <c r="CH11" s="38"/>
+      <c r="CI11" s="38"/>
+      <c r="CJ11" s="38"/>
+      <c r="CK11" s="38"/>
+      <c r="CL11" s="38"/>
+      <c r="CM11" s="38"/>
+      <c r="CN11" s="38"/>
+      <c r="CO11" s="38"/>
+      <c r="CP11" s="38"/>
+      <c r="CQ11" s="38"/>
+      <c r="CR11" s="38"/>
+      <c r="CS11" s="38"/>
+      <c r="CT11" s="38"/>
+      <c r="CU11" s="38"/>
+      <c r="CV11" s="38"/>
+      <c r="CW11" s="38"/>
+      <c r="CX11" s="38"/>
+      <c r="CY11" s="36"/>
+      <c r="CZ11" s="36"/>
+      <c r="DA11" s="36"/>
+      <c r="DB11" s="7"/>
+      <c r="DM11" s="7"/>
+      <c r="DN11" s="39"/>
+      <c r="DO11" s="39"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
+      <c r="DU11" s="39"/>
+      <c r="EA11" s="39"/>
+      <c r="EB11" s="39"/>
+      <c r="EC11" s="39"/>
+      <c r="ED11" s="39"/>
+      <c r="EE11" s="39"/>
+      <c r="EF11" s="39"/>
+      <c r="EG11" s="39"/>
+      <c r="EH11" s="39"/>
+      <c r="EL11" t="s">
+        <v>54</v>
+      </c>
+      <c r="EQ11" s="7"/>
+      <c r="ER11" s="39"/>
+      <c r="ES11" s="39"/>
+      <c r="ET11" s="39"/>
+      <c r="EU11" s="39"/>
+      <c r="EV11" s="39"/>
+      <c r="EW11" s="39"/>
+      <c r="EX11" s="39"/>
+      <c r="EY11" s="39"/>
+      <c r="EZ11" s="39"/>
+      <c r="FA11" s="39"/>
+    </row>
+    <row r="12" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="9"/>
+      <c r="CA12" s="36"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="38"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="38"/>
+      <c r="CH12" s="38"/>
+      <c r="CI12" s="38"/>
+      <c r="CJ12" s="38"/>
+      <c r="CK12" s="38"/>
+      <c r="CL12" s="38"/>
+      <c r="CM12" s="38"/>
+      <c r="CN12" s="38"/>
+      <c r="CO12" s="38"/>
+      <c r="CP12" s="38"/>
+      <c r="CQ12" s="38"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="38"/>
+      <c r="CT12" s="38"/>
+      <c r="CU12" s="38"/>
+      <c r="CV12" s="38"/>
+      <c r="CW12" s="38"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="36"/>
+      <c r="CZ12" s="36"/>
+      <c r="DA12" s="36"/>
+      <c r="DB12" s="7"/>
+      <c r="DK12" t="s">
+        <v>55</v>
+      </c>
+      <c r="DM12" s="7"/>
+      <c r="DN12" s="39"/>
+      <c r="DO12" s="39"/>
+      <c r="DP12" s="39"/>
+      <c r="DQ12" s="39"/>
+      <c r="DR12" s="39"/>
+      <c r="DS12" s="39"/>
+      <c r="DT12" s="39"/>
+      <c r="DU12" s="39"/>
+      <c r="EA12" s="39"/>
+      <c r="EB12" s="39"/>
+      <c r="EC12" s="39"/>
+      <c r="ED12" s="39"/>
+      <c r="EE12" s="39"/>
+      <c r="EF12" s="39"/>
+      <c r="EG12" s="39"/>
+      <c r="EH12" s="39"/>
+      <c r="EQ12" s="7"/>
+      <c r="ER12" s="39"/>
+      <c r="ES12" s="39"/>
+      <c r="ET12" s="39"/>
+      <c r="EU12" s="39"/>
+      <c r="EV12" s="39"/>
+      <c r="EW12" s="39"/>
+      <c r="EX12" s="39"/>
+      <c r="EY12" s="39"/>
+      <c r="EZ12" s="39"/>
+      <c r="FA12" s="39"/>
+    </row>
+    <row r="13" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+      <c r="BQ13" s="8"/>
+      <c r="BR13" s="8"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="9"/>
+      <c r="CA13" s="36"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG13" s="36"/>
+      <c r="CH13" s="40"/>
+      <c r="CI13" s="36"/>
+      <c r="CJ13" s="36"/>
+      <c r="CK13" s="36"/>
+      <c r="CL13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="CM13" s="36"/>
+      <c r="CN13" s="36"/>
+      <c r="CO13" s="36"/>
+      <c r="CP13" s="36"/>
+      <c r="CQ13" s="36"/>
+      <c r="CR13" s="36"/>
+      <c r="CS13" s="36"/>
+      <c r="CT13" s="40"/>
+      <c r="CU13" s="36"/>
+      <c r="CV13" s="36"/>
+      <c r="CW13" s="36"/>
+      <c r="CX13" s="36"/>
+      <c r="CY13" s="36"/>
+      <c r="CZ13" s="36"/>
+      <c r="DA13" s="36"/>
+      <c r="DB13" s="9"/>
+      <c r="DC13" s="9"/>
+      <c r="DD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL13" s="9"/>
+      <c r="DM13" s="7"/>
+      <c r="DN13" s="39"/>
+      <c r="DO13" s="39"/>
+      <c r="DP13" s="39"/>
+      <c r="DQ13" s="39"/>
+      <c r="DR13" s="39"/>
+      <c r="DS13" s="39"/>
+      <c r="DT13" s="39"/>
+      <c r="DU13" s="39"/>
+      <c r="EA13" s="39"/>
+      <c r="EB13" s="39"/>
+      <c r="EC13" s="39"/>
+      <c r="ED13" s="39"/>
+      <c r="EE13" s="39"/>
+      <c r="EF13" s="39"/>
+      <c r="EG13" s="39"/>
+      <c r="EH13" s="39"/>
+      <c r="EQ13" s="7"/>
+      <c r="ER13" s="39"/>
+      <c r="ES13" s="39"/>
+      <c r="ET13" s="39"/>
+      <c r="EU13" s="39"/>
+      <c r="EV13" s="39"/>
+      <c r="EW13" s="39"/>
+      <c r="EX13" s="39"/>
+      <c r="EY13" s="39"/>
+      <c r="EZ13" s="39"/>
+      <c r="FA13" s="39"/>
+      <c r="FB13" s="7"/>
+      <c r="FC13" s="7"/>
+      <c r="FD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="FI13" s="4"/>
+      <c r="FM13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="3"/>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3"/>
+      <c r="CV14" s="3"/>
+      <c r="CW14" s="3"/>
+      <c r="CX14" s="3"/>
+      <c r="CY14" s="3"/>
+      <c r="CZ14" s="3"/>
+      <c r="DA14" s="3"/>
+      <c r="DB14" s="3"/>
+      <c r="DC14" s="3"/>
+      <c r="DD14" s="3"/>
+      <c r="DE14" s="3"/>
+      <c r="DF14" s="3"/>
+      <c r="DG14" s="3"/>
+      <c r="DH14" s="3"/>
+      <c r="DI14" s="3"/>
+      <c r="DJ14" s="3"/>
+      <c r="DK14" s="3"/>
+      <c r="DL14" s="3"/>
+      <c r="DM14" s="3"/>
+      <c r="DN14" s="3"/>
+      <c r="DO14" s="3"/>
+      <c r="DP14" s="3"/>
+      <c r="DQ14" s="3"/>
+      <c r="DR14" s="3"/>
+      <c r="DS14" s="3"/>
+      <c r="DT14" s="3"/>
+      <c r="DU14" s="3"/>
+      <c r="DV14" s="3"/>
+      <c r="DW14" s="3"/>
+      <c r="DX14" s="3"/>
+      <c r="DY14" s="3"/>
+      <c r="DZ14" s="3"/>
+      <c r="EA14" s="3"/>
+      <c r="EB14" s="3"/>
+      <c r="EC14" s="3"/>
+      <c r="ED14" s="3"/>
+      <c r="EE14" s="3"/>
+      <c r="EF14" s="3"/>
+      <c r="EG14" s="3"/>
+      <c r="EH14" s="3"/>
+      <c r="EI14" s="3"/>
+      <c r="EJ14" s="3"/>
+      <c r="EK14" s="3"/>
+      <c r="EL14" s="3"/>
+      <c r="EM14" s="3"/>
+      <c r="EN14" s="3"/>
+      <c r="EO14" s="3"/>
+      <c r="EP14" s="3"/>
+      <c r="EQ14" s="3"/>
+      <c r="ER14" s="3"/>
+      <c r="ES14" s="3"/>
+      <c r="ET14" s="3"/>
+      <c r="EU14" s="3"/>
+      <c r="EV14" s="3"/>
+      <c r="EW14" s="3"/>
+      <c r="EX14" s="3"/>
+      <c r="EY14" s="3"/>
+      <c r="EZ14" s="3"/>
+      <c r="FA14" s="3"/>
+      <c r="FB14" s="3"/>
+      <c r="FC14" s="3"/>
+      <c r="FD14" s="3"/>
+      <c r="FE14" s="3"/>
+      <c r="FF14" s="3"/>
+      <c r="FG14" s="3"/>
+      <c r="FH14" s="3"/>
+      <c r="FI14" s="3"/>
+      <c r="FJ14" s="3"/>
+      <c r="FK14" s="3"/>
+      <c r="FL14" s="3"/>
+      <c r="FM14" s="9"/>
+      <c r="FN14" s="3"/>
+    </row>
+    <row r="15" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="BU15" s="9"/>
+      <c r="FM15" s="9"/>
+    </row>
+    <row r="16" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="BU16" s="9"/>
+      <c r="FM16" s="9"/>
+    </row>
+    <row r="17" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="L17" s="49"/>
+      <c r="M17" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV17" s="9"/>
+      <c r="EV17" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN17" s="9"/>
+    </row>
+    <row r="18" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M18" s="7"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="CH18" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>63</v>
+      </c>
+      <c r="EP18" s="7"/>
+      <c r="EQ18" s="39"/>
+      <c r="ER18" s="39"/>
+      <c r="ES18" s="39"/>
+      <c r="ET18" s="39"/>
+      <c r="EU18" s="39"/>
+      <c r="EV18" s="39"/>
+      <c r="EW18" s="39"/>
+      <c r="EX18" s="39"/>
+      <c r="EY18" s="39"/>
+      <c r="EZ18" s="39"/>
+      <c r="FA18" s="39"/>
+      <c r="FB18" s="39"/>
+      <c r="FC18" s="39"/>
+      <c r="FN18" s="9"/>
+    </row>
+    <row r="19" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M19" s="7"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AT19" s="17"/>
+      <c r="BW19" s="9"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="39"/>
+      <c r="CK19" s="39"/>
+      <c r="CL19" s="39"/>
+      <c r="CM19" s="39"/>
+      <c r="CN19" s="39"/>
+      <c r="CO19" s="39"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="39"/>
+      <c r="CR19" s="39"/>
+      <c r="CS19" s="39"/>
+      <c r="CT19" s="39"/>
+      <c r="CU19" s="9"/>
+      <c r="EO19" s="7"/>
+      <c r="EQ19" s="39"/>
+      <c r="ER19" s="39"/>
+      <c r="ES19" s="39"/>
+      <c r="ET19" s="39"/>
+      <c r="EU19" s="39"/>
+      <c r="EV19" s="39"/>
+      <c r="EW19" s="39"/>
+      <c r="EX19" s="39"/>
+      <c r="EY19" s="39"/>
+      <c r="EZ19" s="39"/>
+      <c r="FA19" s="39"/>
+      <c r="FB19" s="39"/>
+      <c r="FC19" s="39"/>
+      <c r="FN19" s="9"/>
+    </row>
+    <row r="20" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M20" s="7"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AT20" s="17"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" t="s">
+        <v>28</v>
+      </c>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="39"/>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="9"/>
+      <c r="EN20" s="7"/>
+      <c r="EQ20" s="39"/>
+      <c r="ER20" s="39"/>
+      <c r="ES20" s="39"/>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="39"/>
+      <c r="EV20" s="39"/>
+      <c r="EW20" s="39"/>
+      <c r="EX20" s="39"/>
+      <c r="EY20" s="39"/>
+      <c r="EZ20" s="39"/>
+      <c r="FA20" s="39"/>
+      <c r="FB20" s="39"/>
+      <c r="FC20" s="39"/>
+      <c r="FO20" s="9"/>
+    </row>
+    <row r="21" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M21" s="7"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AT21" s="17"/>
+      <c r="BC21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX21" s="9"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="39"/>
+      <c r="CJ21" s="39"/>
+      <c r="CK21" s="39"/>
+      <c r="CL21" s="39"/>
+      <c r="CM21" s="39"/>
+      <c r="CN21" s="39"/>
+      <c r="CO21" s="39"/>
+      <c r="CP21" s="39"/>
+      <c r="CQ21" s="39"/>
+      <c r="CR21" s="39"/>
+      <c r="CS21" s="39"/>
+      <c r="CT21" s="39"/>
+      <c r="CU21" s="9"/>
+      <c r="DQ21" s="17"/>
+      <c r="EE21" t="s">
+        <v>64</v>
+      </c>
+      <c r="EM21" s="7"/>
+      <c r="EQ21" s="39"/>
+      <c r="ER21" s="39"/>
+      <c r="ES21" s="39"/>
+      <c r="ET21" s="39"/>
+      <c r="EU21" s="39"/>
+      <c r="EV21" s="39"/>
+      <c r="EW21" s="39"/>
+      <c r="EX21" s="39"/>
+      <c r="EY21" s="39"/>
+      <c r="EZ21" s="39"/>
+      <c r="FA21" s="39"/>
+      <c r="FB21" s="39"/>
+      <c r="FC21" s="39"/>
+      <c r="FO21" s="9"/>
+    </row>
+    <row r="22" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M22" s="7"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="9"/>
+      <c r="W22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="8"/>
+      <c r="BZ22" s="8"/>
+      <c r="CA22" s="8"/>
+      <c r="CB22" s="8"/>
+      <c r="CC22" s="8"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="9"/>
+      <c r="DQ22" s="17"/>
+      <c r="EA22" s="3"/>
+      <c r="EB22" s="3"/>
+      <c r="EC22" s="3"/>
+      <c r="ED22" s="7"/>
+      <c r="EE22" s="7"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="7"/>
+      <c r="EH22" s="7"/>
+      <c r="EI22" s="3"/>
+      <c r="EJ22" s="3"/>
+      <c r="EK22" s="3"/>
+      <c r="EL22" s="7"/>
+      <c r="EQ22" s="39"/>
+      <c r="ER22" s="39"/>
+      <c r="ES22" s="39"/>
+      <c r="ET22" s="39"/>
+      <c r="EU22" s="39"/>
+      <c r="EV22" s="39"/>
+      <c r="EW22" s="39"/>
+      <c r="EX22" s="39"/>
+      <c r="EY22" s="39"/>
+      <c r="EZ22" s="39"/>
+      <c r="FA22" s="39"/>
+      <c r="FB22" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="FC22" s="39"/>
+      <c r="FO22" s="9"/>
+      <c r="FS22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M23" s="7"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="9"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="9"/>
+      <c r="BY23" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD23" s="7"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="39"/>
+      <c r="CJ23" s="39"/>
+      <c r="CK23" s="39"/>
+      <c r="CL23" s="39"/>
+      <c r="CM23" s="39"/>
+      <c r="CN23" s="39"/>
+      <c r="CO23" s="39"/>
+      <c r="CP23" s="39"/>
+      <c r="CQ23" s="39"/>
+      <c r="CR23" s="39"/>
+      <c r="CS23" s="39"/>
+      <c r="CT23" s="39"/>
+      <c r="CU23" s="9"/>
+      <c r="DQ23" s="17"/>
+      <c r="EA23" s="3"/>
+      <c r="EB23" s="3"/>
+      <c r="EC23" s="3"/>
+      <c r="EI23" s="3"/>
+      <c r="EJ23" s="3"/>
+      <c r="EK23" s="3"/>
+      <c r="EL23" t="s">
+        <v>31</v>
+      </c>
+      <c r="EQ23" s="39"/>
+      <c r="ER23" s="39"/>
+      <c r="ES23" s="39"/>
+      <c r="ET23" s="39"/>
+      <c r="EU23" s="39"/>
+      <c r="EV23" s="39"/>
+      <c r="EW23" s="39"/>
+      <c r="EX23" s="39"/>
+      <c r="EY23" s="39"/>
+      <c r="EZ23" s="8"/>
+      <c r="FA23" s="8"/>
+      <c r="FB23" s="7"/>
+      <c r="FC23" s="39"/>
+      <c r="FL23" s="3"/>
+      <c r="FM23" s="3"/>
+      <c r="FN23" s="3"/>
+      <c r="FO23" s="3"/>
+      <c r="FP23" s="3"/>
+      <c r="FQ23" s="3"/>
+      <c r="FR23" s="3"/>
+      <c r="FS23" s="7"/>
+    </row>
+    <row r="24" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="M24" s="7"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="9"/>
+      <c r="AL24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="9"/>
+      <c r="BY24" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="39"/>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV24" s="9"/>
+      <c r="DI24" t="s">
+        <v>71</v>
+      </c>
+      <c r="DL24" s="8"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" s="8"/>
+      <c r="DO24" s="8"/>
+      <c r="DP24" s="8"/>
+      <c r="DQ24" s="8"/>
+      <c r="DR24" s="8"/>
+      <c r="DS24" s="8"/>
+      <c r="DT24" s="8"/>
+      <c r="DW24" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA24" s="3"/>
+      <c r="EB24" s="3"/>
+      <c r="EC24" s="3"/>
+      <c r="EI24" s="3"/>
+      <c r="EJ24" s="3"/>
+      <c r="EK24" s="3"/>
+      <c r="EM24" t="s">
+        <v>70</v>
+      </c>
+      <c r="EQ24" s="39"/>
+      <c r="ER24" s="39"/>
+      <c r="ES24" s="39"/>
+      <c r="ET24" s="39"/>
+      <c r="EU24" s="39"/>
+      <c r="EV24" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="EW24" s="39"/>
+      <c r="EX24" s="39"/>
+      <c r="EY24" s="39"/>
+      <c r="EZ24" s="8"/>
+      <c r="FA24" s="8"/>
+      <c r="FB24" s="7"/>
+      <c r="FC24" s="39"/>
+      <c r="FH24" t="s">
+        <v>72</v>
+      </c>
+      <c r="FL24" s="3"/>
+      <c r="FM24" s="3"/>
+      <c r="FN24" s="3"/>
+      <c r="FO24" s="3"/>
+      <c r="FP24" s="3"/>
+      <c r="FQ24" s="3"/>
+      <c r="FR24" s="3"/>
+      <c r="FS24" s="7"/>
+    </row>
+    <row r="25" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="F25" s="2"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="9"/>
+      <c r="BF25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BR25" s="4"/>
+      <c r="CD25" s="7"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
+      <c r="CK25" s="39"/>
+      <c r="CL25" s="39"/>
+      <c r="CM25" s="39"/>
+      <c r="CN25" s="39"/>
+      <c r="CO25" s="39"/>
+      <c r="CP25" s="39"/>
+      <c r="CQ25" s="39"/>
+      <c r="CR25" s="39"/>
+      <c r="CS25" s="39"/>
+      <c r="CT25" s="39"/>
+      <c r="CU25" s="7"/>
+      <c r="CV25" s="9"/>
+      <c r="CZ25" s="4"/>
+      <c r="DG25" s="4"/>
+      <c r="DK25" s="7"/>
+      <c r="DL25" s="8"/>
+      <c r="DM25" s="9"/>
+      <c r="DN25" s="8"/>
+      <c r="DO25" s="8"/>
+      <c r="DP25" s="8"/>
+      <c r="DQ25" s="8"/>
+      <c r="DR25" s="8"/>
+      <c r="DS25" s="8"/>
+      <c r="DT25" s="8"/>
+      <c r="DX25" s="4"/>
+      <c r="DZ25" s="7"/>
+      <c r="EA25" s="3"/>
+      <c r="EB25" s="3"/>
+      <c r="EC25" s="3"/>
+      <c r="EE25" t="s">
+        <v>59</v>
+      </c>
+      <c r="EH25" s="7"/>
+      <c r="EI25" s="3"/>
+      <c r="EJ25" s="3"/>
+      <c r="EK25" s="3"/>
+      <c r="EL25" s="9"/>
+      <c r="EM25" s="9"/>
+      <c r="EQ25" s="39"/>
+      <c r="ER25" s="4"/>
+      <c r="ES25" s="39"/>
+      <c r="ET25" s="39"/>
+      <c r="EU25" s="39"/>
+      <c r="EV25" s="39"/>
+      <c r="EW25" s="39"/>
+      <c r="EX25" s="39"/>
+      <c r="EY25" s="7"/>
+      <c r="EZ25" s="8"/>
+      <c r="FA25" s="8"/>
+      <c r="FB25" s="7"/>
+      <c r="FC25" s="39"/>
+      <c r="FG25" s="4"/>
+      <c r="FK25" s="9"/>
+      <c r="FL25" s="3"/>
+      <c r="FM25" s="3"/>
+      <c r="FN25" s="3"/>
+      <c r="FO25" s="3"/>
+      <c r="FP25" s="3"/>
+      <c r="FQ25" s="3"/>
+      <c r="FR25" s="3"/>
+      <c r="FS25" s="7"/>
+    </row>
+    <row r="26" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="9"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3"/>
+      <c r="CZ26" s="3"/>
+      <c r="DA26" s="3"/>
+      <c r="DB26" s="3"/>
+      <c r="DC26" s="3"/>
+      <c r="DD26" s="3"/>
+      <c r="DE26" s="3"/>
+      <c r="DF26" s="3"/>
+      <c r="DG26" s="3"/>
+      <c r="DH26" s="3"/>
+      <c r="DI26" s="3"/>
+      <c r="DJ26" s="3"/>
+      <c r="DK26" s="3"/>
+      <c r="DL26" s="3"/>
+      <c r="DM26" s="9"/>
+      <c r="DN26" s="3"/>
+      <c r="DO26" s="3"/>
+      <c r="DP26" s="3"/>
+      <c r="DQ26" s="3"/>
+      <c r="DR26" s="3"/>
+      <c r="DS26" s="3"/>
+      <c r="DT26" s="3"/>
+      <c r="DU26" s="3"/>
+      <c r="DV26" s="3"/>
+      <c r="DW26" s="3"/>
+      <c r="DX26" s="3"/>
+      <c r="DY26" s="3"/>
+      <c r="DZ26" s="3"/>
+      <c r="EA26" s="3"/>
+      <c r="EB26" s="3"/>
+      <c r="EC26" s="3"/>
+      <c r="ED26" s="3"/>
+      <c r="EE26" s="3"/>
+      <c r="EF26" s="3"/>
+      <c r="EG26" s="3"/>
+      <c r="EH26" s="3"/>
+      <c r="EI26" s="3"/>
+      <c r="EJ26" s="3"/>
+      <c r="EK26" s="3"/>
+      <c r="EL26" s="3"/>
+      <c r="EM26" s="3"/>
+      <c r="EN26" s="3"/>
+      <c r="EO26" s="3"/>
+      <c r="EP26" s="3"/>
+      <c r="EQ26" s="3"/>
+      <c r="ER26" s="3"/>
+      <c r="ES26" s="3"/>
+      <c r="ET26" s="3"/>
+      <c r="EU26" s="3"/>
+      <c r="EV26" s="3"/>
+      <c r="EW26" s="3"/>
+      <c r="EX26" s="3"/>
+      <c r="EY26" s="3"/>
+      <c r="EZ26" s="3"/>
+      <c r="FA26" s="3"/>
+      <c r="FB26" s="7"/>
+      <c r="FC26" s="3"/>
+      <c r="FD26" s="3"/>
+      <c r="FE26" s="3"/>
+      <c r="FF26" s="3"/>
+      <c r="FG26" s="3"/>
+      <c r="FH26" s="3"/>
+      <c r="FI26" s="3"/>
+      <c r="FJ26" s="3"/>
+      <c r="FK26" s="3"/>
+      <c r="FL26" s="3"/>
+      <c r="FM26" s="3"/>
+      <c r="FN26" s="3"/>
+      <c r="FO26" s="3"/>
+      <c r="FP26" s="3"/>
+      <c r="FQ26" s="3"/>
+      <c r="FR26" s="3"/>
+      <c r="FS26" s="3"/>
+      <c r="FT26" s="7"/>
+    </row>
+    <row r="27" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="W27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="CV27" s="9"/>
+      <c r="DM27" s="9"/>
+      <c r="FB27" s="7"/>
+      <c r="FT27" s="7"/>
+    </row>
+    <row r="28" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="W28" s="9"/>
+      <c r="AB28" s="17"/>
+      <c r="AJ28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="8"/>
+      <c r="BD28" s="9"/>
+      <c r="CV28" s="9"/>
+      <c r="DJ28" t="s">
+        <v>74</v>
+      </c>
+      <c r="DL28" s="9"/>
+      <c r="FC28" s="7"/>
+      <c r="FT28" s="7"/>
+    </row>
+    <row r="29" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="W29" s="9"/>
+      <c r="AB29" s="17"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="8"/>
+      <c r="AU29" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD29" s="9"/>
+      <c r="BH29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>52</v>
+      </c>
+      <c r="CA29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CE29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CK29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CM29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CQ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW29" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="CZ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DA29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DB29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DC29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DD29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DE29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DF29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DG29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DH29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DI29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DJ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DK29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL29" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="DM29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DN29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DO29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DP29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DQ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DR29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DS29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DT29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DU29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DV29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DW29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DX29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DY29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="DZ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EA29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EC29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="ED29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EE29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EF29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EG29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EH29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EI29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EJ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EK29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EL29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EM29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EN29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EO29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EP29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EQ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="ER29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="ES29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="ET29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EU29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EV29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EW29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EX29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EY29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="EZ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FA29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FB29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FC29" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="FD29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FE29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FF29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FG29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FH29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FI29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FJ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FL29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FM29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FN29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FO29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FP29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FQ29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FR29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FS29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FT29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="FU29" s="7"/>
+    </row>
+    <row r="30" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="W30" s="9"/>
+      <c r="AB30" s="17"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="8"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="39"/>
+      <c r="AX30" s="39"/>
+      <c r="AY30" s="39"/>
+      <c r="AZ30" s="39"/>
+      <c r="BA30" s="39"/>
+      <c r="BB30" s="39"/>
+      <c r="BC30" s="39"/>
+      <c r="BD30" s="39"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="39"/>
+      <c r="BK30" s="39"/>
+      <c r="BL30" s="39"/>
+      <c r="BM30" s="39"/>
+      <c r="BN30" s="39"/>
+      <c r="BO30" s="39"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="39"/>
+      <c r="BR30" s="39"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="CA30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CC30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CE30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CG30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CI30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CK30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CL30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CT30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CU30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CV30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW30" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="CZ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DB30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DD30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DE30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DF30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DG30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DH30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DI30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DJ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DK30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DL30" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="DM30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DN30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DP30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DQ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DR30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DS30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DT30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DU30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DV30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DW30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DX30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DY30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="DZ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EA30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EB30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EC30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="ED30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EE30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EF30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EG30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EH30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EI30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EJ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EK30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EL30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EM30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EN30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EO30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EP30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="ER30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="ES30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="ET30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EU30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EV30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EW30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EX30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EY30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="EZ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FA30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FB30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FC30" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="FD30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FE30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FF30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FG30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FH30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FI30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FJ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FK30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FL30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FM30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FN30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FO30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FP30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FQ30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FR30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FS30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FT30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="FU30" s="7"/>
+    </row>
+    <row r="31" spans="1:183" x14ac:dyDescent="0.45">
+      <c r="T31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="7"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="8"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BG31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
+      <c r="BM31" s="39"/>
+      <c r="BN31" s="39"/>
+      <c r="BO31" s="39"/>
+      <c r="BP31" s="39"/>
+      <c r="BQ31" s="39"/>
+      <c r="BR31" s="39"/>
+      <c r="BU31" s="9"/>
+      <c r="BV31" s="9"/>
+      <c r="CU31" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW31" s="9"/>
+      <c r="DJ31" t="s">
+        <v>78</v>
+      </c>
+      <c r="DL31" s="9"/>
+      <c r="FC31" s="7"/>
+      <c r="FM31" t="s">
+        <v>78</v>
+      </c>
+      <c r="FU31" s="7"/>
+      <c r="FV31" s="39"/>
+      <c r="FW31" s="39"/>
+      <c r="FX31" s="39"/>
+      <c r="FY31" s="39"/>
+      <c r="FZ31" s="39"/>
+      <c r="GA31" s="39"/>
+    </row>
+    <row r="32" spans="1:183" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V32" s="7"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="8"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
+      <c r="BM32" s="39"/>
+      <c r="BN32" s="39"/>
+      <c r="BO32" s="39"/>
+      <c r="BP32" s="39"/>
+      <c r="BQ32" s="39"/>
+      <c r="BR32" s="39"/>
+      <c r="BW32" s="9"/>
+      <c r="BX32" s="9"/>
+      <c r="CE32" s="53"/>
+      <c r="CU32" s="4"/>
+      <c r="CW32" s="9"/>
+      <c r="CZ32" s="7"/>
+      <c r="DA32" s="7"/>
+      <c r="DB32" s="7"/>
+      <c r="DC32" s="7"/>
+      <c r="DD32" s="7"/>
+      <c r="DE32" s="7"/>
+      <c r="DF32" s="8"/>
+      <c r="DG32" s="8"/>
+      <c r="DH32" s="8"/>
+      <c r="DI32" s="8"/>
+      <c r="DJ32" s="8"/>
+      <c r="DK32" s="8"/>
+      <c r="EX32" s="53"/>
+      <c r="FC32" s="7"/>
+      <c r="FH32" s="7"/>
+      <c r="FI32" s="7"/>
+      <c r="FJ32" s="7"/>
+      <c r="FK32" s="7"/>
+      <c r="FL32" s="8"/>
+      <c r="FM32" s="8"/>
+      <c r="FN32" s="8"/>
+      <c r="FO32" s="8"/>
+      <c r="FP32" s="8"/>
+      <c r="FQ32" s="8"/>
+      <c r="FR32" s="8"/>
+      <c r="FS32" s="8"/>
+      <c r="FT32" s="8"/>
+      <c r="FU32" s="8"/>
+      <c r="FV32" s="39"/>
+      <c r="FW32" s="39"/>
+      <c r="FX32" s="39"/>
+      <c r="FY32" s="39"/>
+      <c r="FZ32" s="39"/>
+      <c r="GA32" s="39"/>
+    </row>
+    <row r="33" spans="1:183" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V33" s="7"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="8"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="39"/>
+      <c r="AW33" s="39"/>
+      <c r="AX33" s="39"/>
+      <c r="AY33" s="39"/>
+      <c r="AZ33" s="39"/>
+      <c r="BA33" s="39"/>
+      <c r="BB33" s="39"/>
+      <c r="BC33" s="39"/>
+      <c r="BD33" s="39"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="39"/>
+      <c r="BK33" s="39"/>
+      <c r="BL33" s="39"/>
+      <c r="BM33" s="39"/>
+      <c r="BN33" s="39"/>
+      <c r="BO33" s="39"/>
+      <c r="BP33" s="39"/>
+      <c r="BQ33" s="39"/>
+      <c r="BR33" s="39"/>
+      <c r="BY33" s="9"/>
+      <c r="BZ33" s="9"/>
+      <c r="CA33" s="54"/>
+      <c r="CB33" s="54"/>
+      <c r="CC33" s="54"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="54"/>
+      <c r="CJ33" s="54"/>
+      <c r="CQ33" s="8"/>
+      <c r="CR33" s="8"/>
+      <c r="CS33" s="8"/>
+      <c r="CT33" s="8"/>
+      <c r="CU33" s="8"/>
+      <c r="CV33" s="8"/>
+      <c r="CW33" s="8"/>
+      <c r="CX33" s="8"/>
+      <c r="CY33" s="8"/>
+      <c r="CZ33" s="8"/>
+      <c r="DC33" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF33" s="8"/>
+      <c r="DG33" s="8"/>
+      <c r="DH33" s="8"/>
+      <c r="DI33" s="8"/>
+      <c r="DJ33" s="8"/>
+      <c r="DK33" s="8"/>
+      <c r="ET33" s="54"/>
+      <c r="EU33" s="54"/>
+      <c r="EV33" s="54"/>
+      <c r="EW33" s="54"/>
+      <c r="EX33" s="54"/>
+      <c r="EY33" s="54"/>
+      <c r="EZ33" s="54"/>
+      <c r="FA33" s="54"/>
+      <c r="FB33" s="54"/>
+      <c r="FC33" s="54"/>
+      <c r="FD33" s="7"/>
+      <c r="FE33" s="7"/>
+      <c r="FF33" s="7"/>
+      <c r="FG33" s="7"/>
+      <c r="FL33" s="8"/>
+      <c r="FM33" s="8"/>
+      <c r="FN33" s="8"/>
+      <c r="FO33" s="8"/>
+      <c r="FP33" s="8"/>
+      <c r="FQ33" s="8"/>
+      <c r="FR33" s="8"/>
+      <c r="FS33" s="8"/>
+      <c r="FT33" s="8"/>
+      <c r="FU33" s="8"/>
+      <c r="FV33" s="39"/>
+      <c r="FW33" s="39"/>
+      <c r="FX33" s="39"/>
+      <c r="FY33" s="39"/>
+      <c r="FZ33" s="39"/>
+      <c r="GA33" s="39"/>
+    </row>
+    <row r="34" spans="1:183" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V34" s="7"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="8"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="39"/>
+      <c r="AX34" s="39"/>
+      <c r="AY34" s="39"/>
+      <c r="AZ34" s="39"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="39"/>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="39"/>
+      <c r="BL34" s="39"/>
+      <c r="BM34" s="39"/>
+      <c r="BN34" s="39"/>
+      <c r="BO34" s="39"/>
+      <c r="BP34" s="39"/>
+      <c r="BQ34" s="39"/>
+      <c r="BR34" s="39"/>
+      <c r="CA34" s="54"/>
+      <c r="CB34" s="54"/>
+      <c r="CC34" s="54"/>
+      <c r="CD34" s="54"/>
+      <c r="CE34" s="54"/>
+      <c r="CF34" s="54"/>
+      <c r="CG34" s="54"/>
+      <c r="CH34" s="54"/>
+      <c r="CI34" s="54"/>
+      <c r="CJ34" s="54"/>
+      <c r="CN34" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ34" s="8"/>
+      <c r="CR34" s="8"/>
+      <c r="CS34" s="8"/>
+      <c r="CT34" s="8"/>
+      <c r="CU34" s="8"/>
+      <c r="CV34" s="8"/>
+      <c r="CW34" s="8"/>
+      <c r="CX34" s="8"/>
+      <c r="CY34" s="8"/>
+      <c r="CZ34" s="8"/>
+      <c r="DF34" s="8"/>
+      <c r="DG34" s="8"/>
+      <c r="DH34" s="8"/>
+      <c r="DI34" s="8"/>
+      <c r="DJ34" s="8"/>
+      <c r="DK34" s="8"/>
+      <c r="ET34" s="54"/>
+      <c r="EU34" s="54"/>
+      <c r="EV34" s="54"/>
+      <c r="EW34" s="54"/>
+      <c r="EX34" s="54"/>
+      <c r="EY34" s="54"/>
+      <c r="EZ34" s="54"/>
+      <c r="FA34" s="54"/>
+      <c r="FB34" s="54"/>
+      <c r="FC34" s="54"/>
+      <c r="FG34" t="s">
+        <v>31</v>
+      </c>
+      <c r="FL34" s="8"/>
+      <c r="FM34" s="8"/>
+      <c r="FN34" s="8"/>
+      <c r="FO34" s="8"/>
+      <c r="FP34" s="8"/>
+      <c r="FQ34" s="8"/>
+      <c r="FR34" s="8"/>
+      <c r="FS34" s="8"/>
+      <c r="FT34" s="8"/>
+      <c r="FU34" s="8"/>
+      <c r="FV34" s="39"/>
+      <c r="FW34" s="39"/>
+      <c r="FX34" s="39"/>
+      <c r="FY34" s="39"/>
+      <c r="FZ34" s="39"/>
+      <c r="GA34" s="39"/>
+    </row>
+    <row r="35" spans="1:183" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V35" s="7"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="8"/>
+      <c r="AQ35" s="4"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
+      <c r="BA35" s="39"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="39"/>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="39"/>
+      <c r="BL35" s="39"/>
+      <c r="BM35" s="39"/>
+      <c r="BN35" s="39"/>
+      <c r="BO35" s="39"/>
+      <c r="BP35" s="39"/>
+      <c r="BQ35" s="39"/>
+      <c r="BR35" s="39"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="54"/>
+      <c r="CC35" s="54"/>
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="54"/>
+      <c r="CQ35" s="8"/>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="8"/>
+      <c r="CT35" s="8"/>
+      <c r="CU35" s="8"/>
+      <c r="CV35" s="8"/>
+      <c r="CW35" s="8"/>
+      <c r="CX35" s="8"/>
+      <c r="CY35" s="8"/>
+      <c r="CZ35" s="8"/>
+      <c r="DF35" s="8"/>
+      <c r="DG35" s="8"/>
+      <c r="DH35" s="8"/>
+      <c r="DI35" s="8"/>
+      <c r="DJ35" s="8"/>
+      <c r="DK35" s="8"/>
+      <c r="ET35" s="54"/>
+      <c r="EU35" s="54"/>
+      <c r="EV35" s="54"/>
+      <c r="EW35" s="54"/>
+      <c r="EX35" s="54"/>
+      <c r="EY35" s="54"/>
+      <c r="EZ35" s="54"/>
+      <c r="FA35" s="54"/>
+      <c r="FB35" s="54"/>
+      <c r="FC35" s="54"/>
+      <c r="FL35" s="8"/>
+      <c r="FM35" s="8"/>
+      <c r="FN35" s="8"/>
+      <c r="FO35" s="8"/>
+      <c r="FP35" s="8"/>
+      <c r="FQ35" s="8"/>
+      <c r="FR35" s="8"/>
+      <c r="FS35" s="8"/>
+      <c r="FT35" s="8"/>
+      <c r="FU35" s="8"/>
+      <c r="FV35" s="39"/>
+      <c r="FW35" s="39"/>
+      <c r="FX35" s="39"/>
+      <c r="FY35" s="39"/>
+      <c r="FZ35" s="39"/>
+      <c r="GA35" s="39"/>
+    </row>
+    <row r="36" spans="1:183" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="35"/>
+      <c r="CB36" s="35"/>
+      <c r="CC36" s="35"/>
+      <c r="CD36" s="35"/>
+      <c r="CE36" s="35"/>
+      <c r="CF36" s="35"/>
+      <c r="CG36" s="35"/>
+      <c r="CH36" s="35"/>
+      <c r="CI36" s="35"/>
+      <c r="CJ36" s="35"/>
+      <c r="CK36" s="35"/>
+      <c r="CL36" s="35"/>
+      <c r="CM36" s="35"/>
+      <c r="CN36" s="35"/>
+      <c r="CO36" s="35"/>
+      <c r="CP36" s="35"/>
+      <c r="CQ36" s="35"/>
+      <c r="CR36" s="35"/>
+      <c r="CS36" s="35"/>
+      <c r="CT36" s="35"/>
+      <c r="CU36" s="35"/>
+      <c r="CV36" s="35"/>
+      <c r="CW36" s="35"/>
+      <c r="CX36" s="35"/>
+      <c r="CY36" s="35"/>
+      <c r="CZ36" s="35"/>
+      <c r="DA36" s="35"/>
+      <c r="DB36" s="35"/>
+      <c r="DC36" s="35"/>
+      <c r="DD36" s="35"/>
+      <c r="DE36" s="35"/>
+      <c r="DF36" s="35"/>
+      <c r="DG36" s="35"/>
+      <c r="DH36" s="35"/>
+      <c r="DI36" s="35"/>
+      <c r="DJ36" s="35"/>
+      <c r="DK36" s="35"/>
+      <c r="DL36" s="35"/>
+      <c r="DM36" s="35"/>
+      <c r="DN36" s="35"/>
+      <c r="DO36" s="35"/>
+      <c r="DP36" s="35"/>
+      <c r="DQ36" s="35"/>
+      <c r="DR36" s="35"/>
+      <c r="DS36" s="35"/>
+      <c r="DT36" s="35"/>
+      <c r="DU36" s="35"/>
+      <c r="DV36" s="35"/>
+      <c r="DW36" s="35"/>
+      <c r="DX36" s="35"/>
+      <c r="DY36" s="35"/>
+      <c r="DZ36" s="35"/>
+      <c r="EA36" s="35"/>
+      <c r="EB36" s="35"/>
+      <c r="EC36" s="35"/>
+      <c r="ED36" s="35"/>
+      <c r="EE36" s="35"/>
+      <c r="EF36" s="35"/>
+      <c r="EG36" s="35"/>
+      <c r="EH36" s="35"/>
+      <c r="EI36" s="35"/>
+      <c r="EJ36" s="35"/>
+      <c r="EK36" s="35"/>
+      <c r="EL36" s="35"/>
+      <c r="EM36" s="35"/>
+      <c r="EN36" s="35"/>
+      <c r="EO36" s="35"/>
+      <c r="EP36" s="35"/>
+      <c r="EQ36" s="35"/>
+      <c r="ER36" s="35"/>
+      <c r="ES36" s="35"/>
+      <c r="ET36" s="35"/>
+      <c r="EU36" s="35"/>
+      <c r="EV36" s="35"/>
+      <c r="EW36" s="35"/>
+      <c r="EX36" s="35"/>
+      <c r="EY36" s="35"/>
+      <c r="EZ36" s="35"/>
+      <c r="FA36" s="35"/>
+      <c r="FB36" s="35"/>
+      <c r="FC36" s="35"/>
+      <c r="FD36" s="35"/>
+      <c r="FE36" s="35"/>
+      <c r="FF36" s="35"/>
+      <c r="FG36" s="35"/>
+      <c r="FH36" s="35"/>
+      <c r="FI36" s="35"/>
+      <c r="FJ36" s="35"/>
+      <c r="FK36" s="35"/>
+      <c r="FL36" s="35"/>
+      <c r="FM36" s="35"/>
+      <c r="FN36" s="35"/>
+      <c r="FO36" s="35"/>
+      <c r="FP36" s="35"/>
+      <c r="FQ36" s="35"/>
+      <c r="FR36" s="35"/>
+      <c r="FS36" s="35"/>
+      <c r="FT36" s="35"/>
+      <c r="FU36" s="3"/>
+      <c r="FV36" s="3"/>
+      <c r="FW36" s="3"/>
+      <c r="FX36" s="3"/>
+      <c r="FY36" s="3"/>
+      <c r="FZ36" s="3"/>
+      <c r="GA36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="CD9:CX12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3473,15 +6238,920 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C13F81-CF03-4D85-A20B-8F2756E63EA0}">
+  <dimension ref="A1:CA46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A1" s="19"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="M10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="BC10" s="8"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="M11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="BC11" s="8"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="M12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="BC12" s="8"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="M13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="BC13" s="8"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="56"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+      <c r="BL14" s="18"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="D15" s="18"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BL15" s="18"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="D16" s="18"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BL16" s="18"/>
+    </row>
+    <row r="17" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D17" s="18"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BL17" s="18"/>
+    </row>
+    <row r="18" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D18" s="18"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="58"/>
+      <c r="BJ18" s="58"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="18"/>
+    </row>
+    <row r="19" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D19" s="18"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="18"/>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D20" s="18"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF20" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="18"/>
+    </row>
+    <row r="21" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D21" s="18"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="BG21" s="56"/>
+      <c r="BH21" s="56"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="56"/>
+      <c r="BK21" s="56"/>
+      <c r="BL21" s="18"/>
+    </row>
+    <row r="22" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D22" s="18"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="56"/>
+      <c r="BK22" s="56"/>
+      <c r="BL22" s="18"/>
+    </row>
+    <row r="23" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D23" s="18"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BF23" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG23" s="56"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="56"/>
+      <c r="BK23" s="56"/>
+      <c r="BL23" s="18"/>
+    </row>
+    <row r="24" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="A24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="56"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="56"/>
+      <c r="AZ24" s="56"/>
+      <c r="BA24" s="56"/>
+      <c r="BB24" s="56"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="56"/>
+      <c r="BE24" s="56"/>
+      <c r="BF24" s="56"/>
+      <c r="BL24" s="18"/>
+    </row>
+    <row r="25" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D25" s="18"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="56"/>
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BL25" s="18"/>
+    </row>
+    <row r="26" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="B26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="56"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BL26" s="18"/>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D27" s="18"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="8"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BL27" s="18"/>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D28" s="18"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BL28" s="18"/>
+      <c r="BX28" s="58"/>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D29" s="18"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BL29" s="18"/>
+      <c r="BX29" s="58"/>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.45">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="18"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="18"/>
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+    </row>
+    <row r="34" spans="1:79" x14ac:dyDescent="0.45">
+      <c r="A34" s="18"/>
+    </row>
+    <row r="46" spans="1:79" x14ac:dyDescent="0.45">
+      <c r="BX46" s="58"/>
+      <c r="BY46" s="58"/>
+      <c r="BZ46" s="58"/>
+      <c r="CA46" s="58"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D04DCC8-1E00-492E-9CBE-879F6063881E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C5B745-5964-42D2-888D-5A1B365B392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23220624-08B7-4EA7-9CC9-8E27CF824B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="139">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
@@ -840,20 +840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>塗りたてペンキ</t>
-    <rPh sb="0" eb="1">
-      <t>ヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塗りたて</t>
-    <rPh sb="0" eb="1">
-      <t>ヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>木登りの代わりの何か</t>
     <rPh sb="0" eb="2">
       <t>キノボ</t>
@@ -1053,13 +1039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひっくり返る</t>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>穴空いてる</t>
     <rPh sb="0" eb="1">
       <t>アナ</t>
@@ -1094,10 +1073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひっくり返る→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑掛け軸</t>
     <rPh sb="1" eb="2">
       <t>カ</t>
@@ -1202,6 +1177,76 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓出口</t>
+    <rPh sb="1" eb="3">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転扉</t>
+    <rPh sb="0" eb="3">
+      <t>カイテントビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転扉→</t>
+    <rPh sb="0" eb="3">
+      <t>カイテントビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンキ→泥</t>
+    <rPh sb="4" eb="5">
+      <t>ドロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泥</t>
+    <rPh sb="0" eb="1">
+      <t>ドロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑土台&amp;ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>ドダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓朽ちた床</t>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1360,7 +1405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,8 +1556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1761,13 +1812,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,83 +2176,137 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2635,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F6CC9-498D-453D-A44F-43A51BBA67CF}">
   <dimension ref="A1:JX36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="GR4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="IW42" sqref="IW42"/>
     </sheetView>
   </sheetViews>
@@ -4510,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3D41D-10E2-49F9-9670-6032AB04FD08}">
   <dimension ref="A1:GA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -4626,29 +4740,29 @@
       <c r="CA9" s="36"/>
       <c r="CB9" s="36"/>
       <c r="CC9" s="36"/>
-      <c r="CD9" s="116" t="s">
+      <c r="CD9" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="CE9" s="117"/>
-      <c r="CF9" s="117"/>
-      <c r="CG9" s="117"/>
-      <c r="CH9" s="117"/>
-      <c r="CI9" s="117"/>
-      <c r="CJ9" s="117"/>
-      <c r="CK9" s="117"/>
-      <c r="CL9" s="117"/>
-      <c r="CM9" s="117"/>
-      <c r="CN9" s="117"/>
-      <c r="CO9" s="117"/>
-      <c r="CP9" s="117"/>
-      <c r="CQ9" s="117"/>
-      <c r="CR9" s="117"/>
-      <c r="CS9" s="117"/>
-      <c r="CT9" s="117"/>
-      <c r="CU9" s="117"/>
-      <c r="CV9" s="117"/>
-      <c r="CW9" s="117"/>
-      <c r="CX9" s="117"/>
+      <c r="CE9" s="138"/>
+      <c r="CF9" s="138"/>
+      <c r="CG9" s="138"/>
+      <c r="CH9" s="138"/>
+      <c r="CI9" s="138"/>
+      <c r="CJ9" s="138"/>
+      <c r="CK9" s="138"/>
+      <c r="CL9" s="138"/>
+      <c r="CM9" s="138"/>
+      <c r="CN9" s="138"/>
+      <c r="CO9" s="138"/>
+      <c r="CP9" s="138"/>
+      <c r="CQ9" s="138"/>
+      <c r="CR9" s="138"/>
+      <c r="CS9" s="138"/>
+      <c r="CT9" s="138"/>
+      <c r="CU9" s="138"/>
+      <c r="CV9" s="138"/>
+      <c r="CW9" s="138"/>
+      <c r="CX9" s="138"/>
       <c r="CY9" s="36"/>
       <c r="CZ9" s="36"/>
       <c r="DA9" s="36"/>
@@ -4698,27 +4812,27 @@
       <c r="CA10" s="36"/>
       <c r="CB10" s="36"/>
       <c r="CC10" s="36"/>
-      <c r="CD10" s="117"/>
-      <c r="CE10" s="117"/>
-      <c r="CF10" s="117"/>
-      <c r="CG10" s="117"/>
-      <c r="CH10" s="117"/>
-      <c r="CI10" s="117"/>
-      <c r="CJ10" s="117"/>
-      <c r="CK10" s="117"/>
-      <c r="CL10" s="117"/>
-      <c r="CM10" s="117"/>
-      <c r="CN10" s="117"/>
-      <c r="CO10" s="117"/>
-      <c r="CP10" s="117"/>
-      <c r="CQ10" s="117"/>
-      <c r="CR10" s="117"/>
-      <c r="CS10" s="117"/>
-      <c r="CT10" s="117"/>
-      <c r="CU10" s="117"/>
-      <c r="CV10" s="117"/>
-      <c r="CW10" s="117"/>
-      <c r="CX10" s="117"/>
+      <c r="CD10" s="138"/>
+      <c r="CE10" s="138"/>
+      <c r="CF10" s="138"/>
+      <c r="CG10" s="138"/>
+      <c r="CH10" s="138"/>
+      <c r="CI10" s="138"/>
+      <c r="CJ10" s="138"/>
+      <c r="CK10" s="138"/>
+      <c r="CL10" s="138"/>
+      <c r="CM10" s="138"/>
+      <c r="CN10" s="138"/>
+      <c r="CO10" s="138"/>
+      <c r="CP10" s="138"/>
+      <c r="CQ10" s="138"/>
+      <c r="CR10" s="138"/>
+      <c r="CS10" s="138"/>
+      <c r="CT10" s="138"/>
+      <c r="CU10" s="138"/>
+      <c r="CV10" s="138"/>
+      <c r="CW10" s="138"/>
+      <c r="CX10" s="138"/>
       <c r="CY10" s="36"/>
       <c r="CZ10" s="36"/>
       <c r="DA10" s="36"/>
@@ -4767,27 +4881,27 @@
       <c r="CA11" s="36"/>
       <c r="CB11" s="36"/>
       <c r="CC11" s="36"/>
-      <c r="CD11" s="117"/>
-      <c r="CE11" s="117"/>
-      <c r="CF11" s="117"/>
-      <c r="CG11" s="117"/>
-      <c r="CH11" s="117"/>
-      <c r="CI11" s="117"/>
-      <c r="CJ11" s="117"/>
-      <c r="CK11" s="117"/>
-      <c r="CL11" s="117"/>
-      <c r="CM11" s="117"/>
-      <c r="CN11" s="117"/>
-      <c r="CO11" s="117"/>
-      <c r="CP11" s="117"/>
-      <c r="CQ11" s="117"/>
-      <c r="CR11" s="117"/>
-      <c r="CS11" s="117"/>
-      <c r="CT11" s="117"/>
-      <c r="CU11" s="117"/>
-      <c r="CV11" s="117"/>
-      <c r="CW11" s="117"/>
-      <c r="CX11" s="117"/>
+      <c r="CD11" s="138"/>
+      <c r="CE11" s="138"/>
+      <c r="CF11" s="138"/>
+      <c r="CG11" s="138"/>
+      <c r="CH11" s="138"/>
+      <c r="CI11" s="138"/>
+      <c r="CJ11" s="138"/>
+      <c r="CK11" s="138"/>
+      <c r="CL11" s="138"/>
+      <c r="CM11" s="138"/>
+      <c r="CN11" s="138"/>
+      <c r="CO11" s="138"/>
+      <c r="CP11" s="138"/>
+      <c r="CQ11" s="138"/>
+      <c r="CR11" s="138"/>
+      <c r="CS11" s="138"/>
+      <c r="CT11" s="138"/>
+      <c r="CU11" s="138"/>
+      <c r="CV11" s="138"/>
+      <c r="CW11" s="138"/>
+      <c r="CX11" s="138"/>
       <c r="CY11" s="36"/>
       <c r="CZ11" s="36"/>
       <c r="DA11" s="36"/>
@@ -4839,27 +4953,27 @@
       <c r="CA12" s="36"/>
       <c r="CB12" s="36"/>
       <c r="CC12" s="36"/>
-      <c r="CD12" s="117"/>
-      <c r="CE12" s="117"/>
-      <c r="CF12" s="117"/>
-      <c r="CG12" s="117"/>
-      <c r="CH12" s="117"/>
-      <c r="CI12" s="117"/>
-      <c r="CJ12" s="117"/>
-      <c r="CK12" s="117"/>
-      <c r="CL12" s="117"/>
-      <c r="CM12" s="117"/>
-      <c r="CN12" s="117"/>
-      <c r="CO12" s="117"/>
-      <c r="CP12" s="117"/>
-      <c r="CQ12" s="117"/>
-      <c r="CR12" s="117"/>
-      <c r="CS12" s="117"/>
-      <c r="CT12" s="117"/>
-      <c r="CU12" s="117"/>
-      <c r="CV12" s="117"/>
-      <c r="CW12" s="117"/>
-      <c r="CX12" s="117"/>
+      <c r="CD12" s="138"/>
+      <c r="CE12" s="138"/>
+      <c r="CF12" s="138"/>
+      <c r="CG12" s="138"/>
+      <c r="CH12" s="138"/>
+      <c r="CI12" s="138"/>
+      <c r="CJ12" s="138"/>
+      <c r="CK12" s="138"/>
+      <c r="CL12" s="138"/>
+      <c r="CM12" s="138"/>
+      <c r="CN12" s="138"/>
+      <c r="CO12" s="138"/>
+      <c r="CP12" s="138"/>
+      <c r="CQ12" s="138"/>
+      <c r="CR12" s="138"/>
+      <c r="CS12" s="138"/>
+      <c r="CT12" s="138"/>
+      <c r="CU12" s="138"/>
+      <c r="CV12" s="138"/>
+      <c r="CW12" s="138"/>
+      <c r="CX12" s="138"/>
       <c r="CY12" s="36"/>
       <c r="CZ12" s="36"/>
       <c r="DA12" s="36"/>
@@ -7157,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C13F81-CF03-4D85-A20B-8F2756E63EA0}">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7228,18 +7342,20 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD9" s="155"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
@@ -7286,24 +7402,48 @@
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+      <c r="N10" s="149"/>
       <c r="O10" s="112"/>
       <c r="P10" s="112"/>
       <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE10" s="119"/>
       <c r="AF10" s="112"/>
       <c r="AG10" s="115"/>
       <c r="AH10" s="112"/>
@@ -7322,7 +7462,7 @@
       <c r="AU10" s="112"/>
       <c r="AV10" s="112"/>
       <c r="AW10" s="112"/>
-      <c r="AX10" s="124" t="s">
+      <c r="AX10" s="120" t="s">
         <v>82</v>
       </c>
       <c r="AY10" s="112"/>
@@ -7332,7 +7472,7 @@
       <c r="BC10" s="112"/>
       <c r="BD10" s="112"/>
       <c r="BE10" s="112"/>
-      <c r="BF10" s="123"/>
+      <c r="BF10" s="119"/>
       <c r="BG10" s="18"/>
       <c r="BH10" s="18"/>
       <c r="BI10" s="18"/>
@@ -7345,21 +7485,23 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="107" t="s">
+        <v>137</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="54"/>
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="R11" s="61"/>
       <c r="S11" s="54"/>
       <c r="T11" s="54"/>
       <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="V11" s="61"/>
       <c r="W11" s="54"/>
       <c r="X11" s="54"/>
       <c r="Y11" s="54"/>
@@ -7367,7 +7509,9 @@
       <c r="AA11" s="54"/>
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
+      <c r="AD11" s="151" t="s">
+        <v>135</v>
+      </c>
       <c r="AE11" s="54"/>
       <c r="AF11" s="54"/>
       <c r="AG11" s="61"/>
@@ -7375,7 +7519,7 @@
       <c r="AI11" s="54"/>
       <c r="AJ11" s="54"/>
       <c r="AK11" s="114" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AL11" s="54"/>
       <c r="AM11" s="54"/>
@@ -7416,23 +7560,27 @@
       <c r="K12" s="54"/>
       <c r="L12" s="54"/>
       <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="54"/>
       <c r="P12" s="54"/>
       <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="R12" s="61"/>
       <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="4"/>
       <c r="X12" s="54"/>
       <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
+      <c r="Z12" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA12" s="61"/>
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
+      <c r="AD12" s="123" t="s">
+        <v>135</v>
+      </c>
       <c r="AE12" s="54"/>
       <c r="AF12" s="54"/>
       <c r="AG12" s="61"/>
@@ -7449,7 +7597,7 @@
       <c r="AR12" s="54"/>
       <c r="AS12" s="54"/>
       <c r="AT12" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AU12" s="72"/>
       <c r="AV12" s="35"/>
@@ -7487,21 +7635,25 @@
       <c r="O13" s="54"/>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="54"/>
       <c r="T13" s="54"/>
       <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
+      <c r="V13" s="61"/>
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="54"/>
       <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="4"/>
       <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
+      <c r="AD13" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE13" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF13" s="4"/>
       <c r="AG13" s="61"/>
       <c r="AH13" s="54"/>
       <c r="AI13" s="54"/>
@@ -7513,7 +7665,7 @@
       <c r="AO13" s="54"/>
       <c r="AP13" s="61"/>
       <c r="AQ13" s="113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AR13" s="54"/>
       <c r="AS13" s="54"/>
@@ -7529,7 +7681,7 @@
       <c r="BC13" s="54"/>
       <c r="BD13" s="54"/>
       <c r="BE13" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BF13" s="54"/>
       <c r="BG13" s="18"/>
@@ -7566,7 +7718,9 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
+      <c r="AD14" s="152" t="s">
+        <v>135</v>
+      </c>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
       <c r="AG14" s="18"/>
@@ -7629,7 +7783,9 @@
       <c r="AA15" s="61"/>
       <c r="AB15" s="61"/>
       <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
+      <c r="AD15" s="153" t="s">
+        <v>135</v>
+      </c>
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
       <c r="AG15" s="61"/>
@@ -7692,16 +7848,20 @@
       <c r="AA16" s="61"/>
       <c r="AB16" s="61"/>
       <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
+      <c r="AD16" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE16" s="154" t="s">
+        <v>126</v>
+      </c>
       <c r="AF16" s="18"/>
       <c r="AG16" s="61"/>
       <c r="AH16" s="61"/>
       <c r="AI16" s="61"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="129"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
       <c r="AN16" s="61"/>
       <c r="AO16" s="61"/>
       <c r="AP16" s="61"/>
@@ -7719,8 +7879,8 @@
       <c r="BB16" s="61"/>
       <c r="BC16" s="61"/>
       <c r="BD16" s="61"/>
-      <c r="BE16" s="125" t="s">
-        <v>130</v>
+      <c r="BE16" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="BF16" s="61"/>
       <c r="BG16" s="18"/>
@@ -7737,52 +7897,54 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="118"/>
+      <c r="J17" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="118"/>
       <c r="R17" s="61"/>
       <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
       <c r="V17" s="61"/>
-      <c r="W17" s="118"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="61"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="61"/>
       <c r="AB17" s="61"/>
       <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="118"/>
+      <c r="AD17" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17" s="58" t="s">
+        <v>95</v>
+      </c>
       <c r="AF17" s="18"/>
       <c r="AG17" s="61"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="61"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="129"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="124"/>
       <c r="AN17" s="61"/>
       <c r="AO17" s="61"/>
       <c r="AP17" s="61"/>
       <c r="AQ17" s="93"/>
       <c r="AR17" s="61"/>
       <c r="AS17" s="61"/>
-      <c r="AT17" s="118"/>
       <c r="AU17" s="61"/>
       <c r="AV17" s="61"/>
       <c r="AW17" s="61"/>
       <c r="AX17" s="61"/>
       <c r="AY17" s="61"/>
       <c r="AZ17" s="61"/>
-      <c r="BA17" s="118"/>
       <c r="BB17" s="61"/>
       <c r="BC17" s="61"/>
       <c r="BD17" s="61"/>
@@ -7802,20 +7964,18 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="118"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="118"/>
       <c r="R18" s="61"/>
       <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="61"/>
       <c r="V18" s="61"/>
-      <c r="W18" s="118"/>
       <c r="X18" s="61"/>
       <c r="Y18" s="61"/>
       <c r="Z18" s="61"/>
@@ -7823,29 +7983,27 @@
       <c r="AB18" s="61"/>
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
-      <c r="AE18" s="118"/>
+      <c r="AE18" s="8"/>
       <c r="AF18" s="18"/>
       <c r="AG18" s="63"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="131"/>
-      <c r="AM18" s="129"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="126"/>
+      <c r="AM18" s="124"/>
       <c r="AN18" s="61"/>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="61"/>
       <c r="AS18" s="61"/>
-      <c r="AT18" s="118"/>
       <c r="AU18" s="61"/>
       <c r="AV18" s="61"/>
       <c r="AW18" s="61"/>
       <c r="AX18" s="61"/>
       <c r="AY18" s="61"/>
       <c r="AZ18" s="61"/>
-      <c r="BA18" s="118"/>
       <c r="BB18" s="61"/>
       <c r="BC18" s="61"/>
       <c r="BD18" s="61"/>
@@ -7866,14 +8024,18 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="146">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="146">
+        <v>4</v>
+      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="61"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="54"/>
       <c r="T19" s="54"/>
       <c r="U19" s="54"/>
@@ -7893,7 +8055,7 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AL19" s="54"/>
       <c r="AM19" s="4"/>
@@ -7902,7 +8064,7 @@
       <c r="AP19" s="54"/>
       <c r="AQ19" s="17"/>
       <c r="AR19" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AS19" s="57"/>
       <c r="AT19" s="54"/>
@@ -7932,20 +8094,24 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="J20" s="146">
+        <v>8</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="61"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="54"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="58" t="s">
+        <v>82</v>
+      </c>
       <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="57"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="62"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="54"/>
       <c r="Z20" s="54"/>
@@ -7997,17 +8163,21 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="146">
+        <v>3</v>
+      </c>
+      <c r="O21" s="8"/>
       <c r="P21" s="61"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="54"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="140"/>
       <c r="U21" s="54"/>
       <c r="V21" s="54"/>
       <c r="W21" s="54"/>
@@ -8019,11 +8189,11 @@
         <v>12</v>
       </c>
       <c r="AC21" s="54"/>
-      <c r="AD21" s="125" t="s">
-        <v>130</v>
+      <c r="AD21" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="AE21" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF21" s="54"/>
       <c r="AG21" s="54"/>
@@ -8064,19 +8234,25 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="107" t="s">
+        <v>138</v>
+      </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="J22" s="146">
+        <v>7</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="146">
+        <v>6</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="61"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="T22" s="8"/>
       <c r="U22" s="99"/>
       <c r="V22" s="54"/>
       <c r="W22" s="54"/>
@@ -8089,20 +8265,22 @@
       <c r="AD22" s="61"/>
       <c r="AE22" s="54"/>
       <c r="AF22" s="113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AG22" s="54"/>
       <c r="AH22" s="54"/>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="54"/>
-      <c r="AK22" s="54"/>
+      <c r="AK22" s="143" t="s">
+        <v>129</v>
+      </c>
       <c r="AL22" s="18"/>
       <c r="AM22" s="54"/>
       <c r="AN22" s="78"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="100" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
@@ -8133,34 +8311,38 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
+      <c r="R23" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
       <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
+      <c r="V23" s="113" t="s">
+        <v>111</v>
+      </c>
       <c r="W23" s="54"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
       <c r="AL23" s="61"/>
       <c r="AM23" s="61"/>
       <c r="AN23" s="61"/>
@@ -8196,23 +8378,27 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="146">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="146">
+        <v>2</v>
+      </c>
+      <c r="O24" s="8"/>
       <c r="P24" s="61"/>
-      <c r="Q24" s="54"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="87"/>
       <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="57"/>
       <c r="V24" s="54"/>
       <c r="W24" s="54"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="57"/>
-      <c r="Z24" s="54"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="54"/>
       <c r="AB24" s="54"/>
       <c r="AC24" s="54"/>
@@ -8225,7 +8411,7 @@
       <c r="AJ24" s="60"/>
       <c r="AK24" s="61"/>
       <c r="AL24" s="85" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AM24" s="54"/>
       <c r="AN24" s="61"/>
@@ -8246,7 +8432,7 @@
       <c r="BC24" s="54"/>
       <c r="BD24" s="54"/>
       <c r="BE24" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BF24" s="54"/>
       <c r="BG24" s="18"/>
@@ -8263,23 +8449,25 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="148"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="61"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="54"/>
       <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="54"/>
       <c r="V25" s="54"/>
       <c r="W25" s="54"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="54"/>
       <c r="AB25" s="54"/>
       <c r="AC25" s="54"/>
@@ -8289,7 +8477,7 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ25" s="54"/>
       <c r="AK25" s="61"/>
@@ -8339,14 +8527,16 @@
       <c r="P26" s="86"/>
       <c r="Q26" s="86"/>
       <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
+      <c r="S26" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="142"/>
       <c r="AA26" s="86"/>
       <c r="AB26" s="86"/>
       <c r="AC26" s="84" t="s">
@@ -8364,14 +8554,14 @@
       <c r="AM26" s="54"/>
       <c r="AN26" s="61"/>
       <c r="AO26" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AP26" s="61"/>
       <c r="AQ26" s="61"/>
       <c r="AR26" s="61"/>
       <c r="AS26" s="61"/>
-      <c r="AT26" s="132"/>
-      <c r="AU26" s="133"/>
+      <c r="AT26" s="127"/>
+      <c r="AU26" s="128"/>
       <c r="AV26" s="8"/>
       <c r="AW26" s="78"/>
       <c r="AX26" s="79"/>
@@ -8381,8 +8571,8 @@
       <c r="BB26" s="78"/>
       <c r="BC26" s="78"/>
       <c r="BD26" s="79"/>
-      <c r="BE26" s="125" t="s">
-        <v>130</v>
+      <c r="BE26" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="BF26" s="78"/>
       <c r="BG26" s="18"/>
@@ -8402,7 +8592,7 @@
       <c r="J27" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="141"/>
+      <c r="K27" s="136"/>
       <c r="L27" s="86"/>
       <c r="M27" s="86"/>
       <c r="N27" s="86"/>
@@ -8411,7 +8601,7 @@
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
       <c r="S27" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T27" s="86"/>
       <c r="U27" s="86"/>
@@ -8435,31 +8625,31 @@
       <c r="AM27" s="54"/>
       <c r="AN27" s="61"/>
       <c r="AO27" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AP27" s="61"/>
       <c r="AQ27" s="61"/>
       <c r="AR27" s="61"/>
       <c r="AS27" s="61"/>
-      <c r="AT27" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU27" s="135"/>
+      <c r="AT27" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU27" s="130"/>
       <c r="AV27" s="8"/>
       <c r="AW27" s="78"/>
       <c r="AX27" s="78"/>
       <c r="AY27" s="58" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AZ27" s="78"/>
       <c r="BA27" s="78"/>
       <c r="BB27" s="78"/>
       <c r="BC27" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BD27" s="78"/>
-      <c r="BE27" s="126"/>
-      <c r="BF27" s="126"/>
+      <c r="BE27" s="121"/>
+      <c r="BF27" s="121"/>
       <c r="BG27" s="18"/>
       <c r="BH27" s="18"/>
       <c r="BI27" s="109"/>
@@ -8475,7 +8665,7 @@
       <c r="H28" s="110"/>
       <c r="I28" s="110"/>
       <c r="J28" s="91"/>
-      <c r="K28" s="141"/>
+      <c r="K28" s="136"/>
       <c r="L28" s="86"/>
       <c r="M28" s="86"/>
       <c r="N28" s="86"/>
@@ -8512,8 +8702,8 @@
       <c r="AQ28" s="61"/>
       <c r="AR28" s="61"/>
       <c r="AS28" s="61"/>
-      <c r="AT28" s="136"/>
-      <c r="AU28" s="137"/>
+      <c r="AT28" s="131"/>
+      <c r="AU28" s="132"/>
       <c r="AV28" s="8"/>
       <c r="AW28" s="78"/>
       <c r="AX28" s="78"/>
@@ -8521,12 +8711,12 @@
       <c r="AZ28" s="78"/>
       <c r="BA28" s="78"/>
       <c r="BB28" s="78"/>
-      <c r="BC28" s="138" t="s">
-        <v>108</v>
+      <c r="BC28" s="133" t="s">
+        <v>106</v>
       </c>
       <c r="BD28" s="78"/>
       <c r="BE28" s="78"/>
-      <c r="BF28" s="126"/>
+      <c r="BF28" s="121"/>
       <c r="BG28" s="18"/>
       <c r="BH28" s="18"/>
       <c r="BI28" s="18"/>
@@ -8559,7 +8749,9 @@
       <c r="W29" s="54"/>
       <c r="X29" s="54"/>
       <c r="Y29" s="57"/>
-      <c r="Z29" s="61"/>
+      <c r="Z29" s="58" t="s">
+        <v>130</v>
+      </c>
       <c r="AA29" s="54"/>
       <c r="AB29" s="54"/>
       <c r="AC29" s="57"/>
@@ -8590,8 +8782,8 @@
       <c r="AZ29" s="54"/>
       <c r="BA29" s="54"/>
       <c r="BB29" s="54"/>
-      <c r="BC29" s="128" t="s">
-        <v>108</v>
+      <c r="BC29" s="123" t="s">
+        <v>106</v>
       </c>
       <c r="BD29" s="54"/>
       <c r="BE29" s="54"/>
@@ -8620,19 +8812,35 @@
       <c r="Q30" s="54"/>
       <c r="R30" s="54"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="54"/>
+      <c r="T30" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="X30" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA30" s="91" t="s">
+        <v>103</v>
+      </c>
       <c r="AB30" s="54"/>
       <c r="AC30" s="54"/>
       <c r="AD30" s="61"/>
       <c r="AE30" s="85" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AF30" s="54"/>
       <c r="AG30" s="54"/>
@@ -8652,15 +8860,15 @@
       <c r="AU30" s="8"/>
       <c r="AV30" s="57"/>
       <c r="AW30" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX30" s="54"/>
       <c r="AY30" s="54"/>
       <c r="AZ30" s="54"/>
       <c r="BA30" s="57"/>
       <c r="BB30" s="54"/>
-      <c r="BC30" s="128" t="s">
-        <v>108</v>
+      <c r="BC30" s="123" t="s">
+        <v>106</v>
       </c>
       <c r="BD30" s="54"/>
       <c r="BE30" s="85" t="s">
@@ -8721,30 +8929,30 @@
       <c r="AS31" s="54"/>
       <c r="AT31" s="54"/>
       <c r="AU31" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV31" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV31" s="123" t="s">
         <v>46</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX31" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="AY31" s="128" t="s">
+      <c r="AY31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="AZ31" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA31" s="128" t="s">
+      <c r="AZ31" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="BB31" s="128" t="s">
+      <c r="BB31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="BC31" s="128" t="s">
+      <c r="BC31" s="123" t="s">
         <v>46</v>
       </c>
       <c r="BD31" s="54"/>
@@ -8773,8 +8981,8 @@
       <c r="O32" s="54"/>
       <c r="P32" s="54"/>
       <c r="Q32" s="78"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
       <c r="V32" s="54"/>
@@ -8805,12 +9013,12 @@
       <c r="AU32" s="8"/>
       <c r="AV32" s="54"/>
       <c r="AW32" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AX32" s="60"/>
       <c r="AY32" s="60"/>
       <c r="AZ32" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA32" s="54"/>
       <c r="BB32" s="54"/>
@@ -8833,15 +9041,17 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="79"/>
-      <c r="K33" s="140"/>
+      <c r="K33" s="135"/>
       <c r="L33" s="78"/>
       <c r="M33" s="78"/>
       <c r="N33" s="78"/>
       <c r="O33" s="78"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="78"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
+      <c r="R33" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="3"/>
       <c r="T33" s="54"/>
       <c r="U33" s="57"/>
       <c r="V33" s="54"/>
@@ -8881,7 +9091,7 @@
       <c r="BD33" s="54"/>
       <c r="BE33" s="54"/>
       <c r="BF33" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BG33" s="18"/>
       <c r="BH33" s="18"/>
@@ -8892,7 +9102,7 @@
     </row>
     <row r="34" spans="1:64" s="108" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -8933,7 +9143,7 @@
       <c r="AJ34" s="54"/>
       <c r="AK34" s="54"/>
       <c r="AL34" s="113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AM34" s="54"/>
       <c r="AN34" s="54"/>
@@ -8946,8 +9156,8 @@
       <c r="AU34" s="72"/>
       <c r="AV34" s="35"/>
       <c r="AW34" s="35"/>
-      <c r="AX34" s="127" t="s">
-        <v>91</v>
+      <c r="AX34" s="122" t="s">
+        <v>89</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -8973,7 +9183,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="83"/>
       <c r="K35" s="60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L35" s="54"/>
       <c r="M35" s="54"/>
@@ -8994,7 +9204,7 @@
       <c r="AB35" s="54"/>
       <c r="AC35" s="54"/>
       <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
+      <c r="AE35" s="4"/>
       <c r="AF35" s="54"/>
       <c r="AG35" s="60"/>
       <c r="AH35" s="57"/>
@@ -9202,7 +9412,7 @@
       <c r="AP39" s="61"/>
       <c r="AQ39" s="61"/>
       <c r="AR39" s="96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AS39" s="61"/>
       <c r="AT39" s="61"/>
@@ -9390,7 +9600,7 @@
       <c r="AG42" s="61"/>
       <c r="AH42" s="63"/>
       <c r="AI42" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ42" s="61"/>
       <c r="AK42" s="61"/>
@@ -9452,7 +9662,7 @@
       <c r="Z43" s="61"/>
       <c r="AA43" s="54"/>
       <c r="AB43" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC43" s="72"/>
       <c r="AD43" s="54"/>
@@ -9536,7 +9746,7 @@
       <c r="AQ44" s="54"/>
       <c r="AR44" s="37"/>
       <c r="AS44" s="60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AT44" s="54"/>
       <c r="AU44" s="54"/>
@@ -9570,7 +9780,7 @@
       <c r="J45" s="54"/>
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="54"/>
       <c r="O45" s="54"/>
       <c r="P45" s="61"/>
@@ -9682,7 +9892,7 @@
       <c r="BG46" s="54"/>
       <c r="BH46" s="54"/>
       <c r="BI46" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BJ46" s="18"/>
       <c r="BK46" s="18"/>
@@ -9736,7 +9946,7 @@
       <c r="AV47" s="54"/>
       <c r="AW47" s="54"/>
       <c r="AX47" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AY47" s="54"/>
       <c r="AZ47" s="54"/>
@@ -9772,7 +9982,7 @@
       <c r="Q48" s="54"/>
       <c r="R48" s="15"/>
       <c r="S48" s="58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="T48" s="58"/>
       <c r="U48" s="62"/>
@@ -9787,13 +9997,13 @@
       <c r="AD48" s="37"/>
       <c r="AE48" s="37"/>
       <c r="AF48" s="103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AG48" s="54"/>
       <c r="AH48" s="61"/>
       <c r="AI48" s="61"/>
       <c r="AJ48" s="58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AK48" s="61"/>
       <c r="AL48" s="61"/>
@@ -9857,7 +10067,7 @@
       <c r="AG49" s="88"/>
       <c r="AH49" s="61"/>
       <c r="AI49" s="61"/>
-      <c r="AJ49" s="121"/>
+      <c r="AJ49" s="117"/>
       <c r="AK49" s="61"/>
       <c r="AL49" s="78"/>
       <c r="AM49" s="54"/>
@@ -9867,7 +10077,7 @@
       <c r="AQ49" s="54"/>
       <c r="AR49" s="37"/>
       <c r="AS49" s="54"/>
-      <c r="AT49" s="61"/>
+      <c r="AT49" s="78"/>
       <c r="AU49" s="54"/>
       <c r="AV49" s="54"/>
       <c r="AW49" s="54"/>
@@ -9923,7 +10133,7 @@
       <c r="AH50" s="61"/>
       <c r="AI50" s="61"/>
       <c r="AJ50" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AK50" s="61"/>
       <c r="AL50" s="78"/>
@@ -9932,22 +10142,22 @@
       <c r="AO50" s="54"/>
       <c r="AP50" s="54"/>
       <c r="AQ50" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AR50" s="37"/>
       <c r="AS50" s="54"/>
       <c r="AT50" s="58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AU50" s="4"/>
       <c r="AV50" s="54"/>
       <c r="AW50" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AX50" s="54"/>
       <c r="AY50" s="54"/>
       <c r="AZ50" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA50" s="61"/>
       <c r="BI50" s="9"/>
@@ -9993,7 +10203,7 @@
       <c r="AH51" s="61"/>
       <c r="AI51" s="61"/>
       <c r="AJ51" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AK51" s="61"/>
       <c r="AL51" s="78"/>
@@ -10004,7 +10214,7 @@
       <c r="AQ51" s="54"/>
       <c r="AR51" s="37"/>
       <c r="AS51" s="54"/>
-      <c r="AT51" s="61"/>
+      <c r="AT51" s="78"/>
       <c r="AU51" s="54"/>
       <c r="AV51" s="54"/>
       <c r="AW51" s="54"/>
@@ -10034,9 +10244,9 @@
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
       <c r="Q52" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="R52" s="120"/>
+        <v>107</v>
+      </c>
+      <c r="R52" s="116"/>
       <c r="S52" s="37"/>
       <c r="T52" s="95"/>
       <c r="U52" s="37"/>
@@ -10050,7 +10260,7 @@
       <c r="AC52" s="37"/>
       <c r="AD52" s="37"/>
       <c r="AE52" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF52" s="37"/>
       <c r="AG52" s="37"/>
@@ -10087,7 +10297,7 @@
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
       <c r="J53" s="104" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K53" s="90"/>
       <c r="L53" s="57"/>
@@ -10097,7 +10307,7 @@
       <c r="P53" s="54"/>
       <c r="Q53" s="54"/>
       <c r="R53" s="57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S53" s="54"/>
       <c r="T53" s="54"/>
@@ -10110,7 +10320,7 @@
       <c r="AA53" s="54"/>
       <c r="AB53" s="37"/>
       <c r="AC53" s="80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD53" s="54"/>
       <c r="AE53" s="54"/>
@@ -10186,18 +10396,18 @@
       <c r="AL54" s="88"/>
       <c r="AM54" s="54"/>
       <c r="AN54" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO54" s="72"/>
       <c r="AP54" s="72"/>
       <c r="AQ54" s="54"/>
       <c r="AR54" s="98"/>
       <c r="AS54" s="104" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AT54" s="58"/>
       <c r="AU54" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AV54" s="72"/>
       <c r="AW54" s="35"/>
@@ -10222,7 +10432,7 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
@@ -10248,7 +10458,7 @@
       <c r="AC55" s="54"/>
       <c r="AD55" s="54"/>
       <c r="AE55" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF55" s="54"/>
       <c r="AG55" s="54"/>
@@ -10295,7 +10505,7 @@
       <c r="K56" s="90"/>
       <c r="L56" s="54"/>
       <c r="M56" s="89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N56" s="54"/>
       <c r="O56" s="54"/>
@@ -10357,7 +10567,7 @@
       <c r="H57" s="54"/>
       <c r="I57" s="54"/>
       <c r="J57" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K57" s="90"/>
       <c r="L57" s="54"/>
@@ -10401,18 +10611,18 @@
       <c r="AX57" s="54"/>
       <c r="AY57" s="54"/>
       <c r="AZ57" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA57" s="61"/>
       <c r="BB57" s="54"/>
       <c r="BC57" s="54"/>
       <c r="BD57" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BE57" s="54"/>
       <c r="BF57" s="85"/>
       <c r="BG57" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BH57" s="61"/>
       <c r="BI57" s="61"/>
@@ -10428,7 +10638,7 @@
       <c r="H58" s="54"/>
       <c r="I58" s="54"/>
       <c r="J58" s="83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K58" s="90"/>
       <c r="L58" s="54"/>
@@ -10436,7 +10646,7 @@
       <c r="N58" s="54"/>
       <c r="O58" s="54"/>
       <c r="P58" s="113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q58" s="54"/>
       <c r="R58" s="3"/>
@@ -10446,7 +10656,7 @@
       <c r="V58" s="54"/>
       <c r="W58" s="54"/>
       <c r="X58" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y58" s="78"/>
       <c r="Z58" s="54"/>
@@ -10454,13 +10664,13 @@
       <c r="AB58" s="54"/>
       <c r="AC58" s="54"/>
       <c r="AD58" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE58" s="35"/>
       <c r="AF58" s="35"/>
       <c r="AG58" s="15"/>
       <c r="AH58" s="58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AI58" s="15"/>
       <c r="AJ58" s="54"/>
@@ -10473,7 +10683,9 @@
       <c r="AQ58" s="54"/>
       <c r="AR58" s="54"/>
       <c r="AS58" s="54"/>
-      <c r="AT58" s="61"/>
+      <c r="AT58" s="58" t="s">
+        <v>130</v>
+      </c>
       <c r="AU58" s="54"/>
       <c r="AV58" s="54"/>
       <c r="AW58" s="54"/>
@@ -10481,16 +10693,16 @@
       <c r="AY58" s="54"/>
       <c r="AZ58" s="54"/>
       <c r="BA58" s="58" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="BB58" s="54"/>
       <c r="BC58" s="54"/>
       <c r="BD58" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE58" s="54"/>
       <c r="BF58" s="85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG58" s="61"/>
       <c r="BH58" s="61"/>
@@ -10507,10 +10719,10 @@
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
       <c r="J59" s="83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K59" s="58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L59" s="54"/>
       <c r="M59" s="78"/>
@@ -10519,7 +10731,7 @@
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="70" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
@@ -10536,10 +10748,10 @@
       <c r="AE59" s="54"/>
       <c r="AF59" s="54"/>
       <c r="AG59" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AH59" s="91" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="54"/>
@@ -10563,11 +10775,11 @@
       <c r="BB59" s="54"/>
       <c r="BC59" s="54"/>
       <c r="BD59" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BE59" s="54"/>
       <c r="BF59" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BG59" s="61"/>
       <c r="BH59" s="61"/>
@@ -10867,7 +11079,7 @@
       <c r="AJ65" s="61"/>
       <c r="AK65" s="61"/>
       <c r="AL65" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AM65" s="18"/>
       <c r="AN65" s="61"/>
@@ -10932,7 +11144,7 @@
       <c r="AJ66" s="61"/>
       <c r="AK66" s="61"/>
       <c r="AL66" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM66" s="18"/>
       <c r="AN66" s="61"/>
@@ -10969,7 +11181,7 @@
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
       <c r="J67" s="58" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K67" s="54"/>
       <c r="L67" s="54"/>
@@ -11045,13 +11257,13 @@
       <c r="Q68" s="54"/>
       <c r="R68" s="54"/>
       <c r="S68" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T68" s="7"/>
       <c r="U68" s="54"/>
       <c r="V68" s="54"/>
       <c r="W68" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X68" s="54"/>
       <c r="Y68" s="54"/>
@@ -11064,7 +11276,7 @@
       <c r="AF68" s="54"/>
       <c r="AG68" s="8"/>
       <c r="AH68" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI68" s="8"/>
       <c r="AJ68" s="54"/>
@@ -11106,7 +11318,7 @@
       <c r="E69" s="54"/>
       <c r="F69" s="54"/>
       <c r="G69" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
@@ -11121,7 +11333,7 @@
       <c r="R69" s="54"/>
       <c r="S69" s="63"/>
       <c r="T69" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
@@ -11248,7 +11460,7 @@
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
       <c r="S71" s="58" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="T71" s="54"/>
       <c r="U71" s="54"/>
@@ -11304,13 +11516,13 @@
       <c r="H72" s="54"/>
       <c r="I72" s="54"/>
       <c r="J72" s="61"/>
-      <c r="K72" s="139" t="s">
-        <v>93</v>
+      <c r="K72" s="134" t="s">
+        <v>91</v>
       </c>
       <c r="L72" s="88"/>
       <c r="M72" s="78"/>
       <c r="N72" s="79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O72" s="78"/>
       <c r="P72" s="78"/>
@@ -11322,8 +11534,8 @@
       <c r="V72" s="61"/>
       <c r="W72" s="61"/>
       <c r="X72" s="61"/>
-      <c r="Y72" s="139" t="s">
-        <v>93</v>
+      <c r="Y72" s="134" t="s">
+        <v>91</v>
       </c>
       <c r="Z72" s="88"/>
       <c r="AA72" s="61"/>
@@ -11456,11 +11668,11 @@
       <c r="Y74" s="61"/>
       <c r="Z74" s="61"/>
       <c r="AA74" s="61"/>
-      <c r="AB74" s="122" t="s">
-        <v>128</v>
+      <c r="AB74" s="118" t="s">
+        <v>124</v>
       </c>
       <c r="AC74" s="61"/>
-      <c r="AD74" s="122"/>
+      <c r="AD74" s="118"/>
       <c r="AE74" s="61"/>
       <c r="AF74" s="61"/>
       <c r="AG74" s="61"/>
@@ -11519,11 +11731,11 @@
       <c r="Y75" s="61"/>
       <c r="Z75" s="61"/>
       <c r="AA75" s="61"/>
-      <c r="AB75" s="122" t="s">
-        <v>129</v>
+      <c r="AB75" s="118" t="s">
+        <v>125</v>
       </c>
       <c r="AC75" s="61"/>
-      <c r="AD75" s="122"/>
+      <c r="AD75" s="118"/>
       <c r="AE75" s="61"/>
       <c r="AF75" s="61"/>
       <c r="AG75" s="61"/>
@@ -11553,16 +11765,14 @@
     </row>
     <row r="76" spans="4:64" x14ac:dyDescent="0.45">
       <c r="D76" s="18"/>
-      <c r="E76" s="118"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="118"/>
       <c r="H76" s="61"/>
       <c r="I76" s="61"/>
       <c r="J76" s="61"/>
       <c r="K76" s="61"/>
       <c r="L76" s="61"/>
       <c r="M76" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N76" s="61"/>
       <c r="O76" s="61"/>
@@ -11571,7 +11781,7 @@
       <c r="R76" s="61"/>
       <c r="S76" s="61"/>
       <c r="T76" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U76" s="61"/>
       <c r="V76" s="61"/>
@@ -11581,7 +11791,7 @@
       <c r="Z76" s="61"/>
       <c r="AA76" s="61"/>
       <c r="AB76" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AC76" s="61"/>
       <c r="AD76" s="61"/>
@@ -11592,29 +11802,11 @@
       <c r="AI76" s="81"/>
       <c r="AJ76" s="61"/>
       <c r="AK76" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL76" s="61"/>
       <c r="AM76" s="61"/>
-      <c r="AN76" s="118"/>
-      <c r="AO76" s="118"/>
-      <c r="AP76" s="118"/>
-      <c r="AQ76" s="118"/>
-      <c r="AR76" s="118"/>
-      <c r="AS76" s="118"/>
-      <c r="AT76" s="118"/>
-      <c r="AU76" s="118"/>
-      <c r="AV76" s="118"/>
-      <c r="AW76" s="118"/>
-      <c r="AX76" s="118"/>
-      <c r="AY76" s="119"/>
-      <c r="AZ76" s="118"/>
-      <c r="BA76" s="118"/>
-      <c r="BB76" s="118"/>
-      <c r="BC76" s="118"/>
-      <c r="BD76" s="118"/>
-      <c r="BE76" s="118"/>
-      <c r="BF76" s="118"/>
+      <c r="AY76" s="59"/>
       <c r="BG76" s="18"/>
       <c r="BH76" s="18"/>
       <c r="BI76" s="18"/>
@@ -11738,7 +11930,7 @@
       <c r="AY78" s="8"/>
       <c r="AZ78" s="8"/>
       <c r="BA78" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BB78" s="35"/>
       <c r="BC78" s="35"/>
@@ -11758,7 +11950,7 @@
       <c r="F79" s="61"/>
       <c r="G79" s="85"/>
       <c r="H79" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I79" s="61"/>
       <c r="J79" s="61"/>
@@ -11795,7 +11987,7 @@
       <c r="AO79" s="54"/>
       <c r="AP79" s="3"/>
       <c r="AQ79" s="70" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
@@ -11804,7 +11996,7 @@
       <c r="AV79" s="54"/>
       <c r="AW79" s="8"/>
       <c r="AX79" s="58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AY79" s="8"/>
       <c r="AZ79" s="8"/>
@@ -11826,13 +12018,13 @@
       <c r="E80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H80" s="54"/>
       <c r="I80" s="54"/>
       <c r="J80" s="8"/>
       <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="61"/>
       <c r="N80" s="54"/>
       <c r="O80" s="54"/>
@@ -11897,15 +12089,15 @@
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H81" s="54"/>
       <c r="I81" s="54"/>
       <c r="J81" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
+      <c r="L81" s="106"/>
       <c r="M81" s="61"/>
       <c r="N81" s="54"/>
       <c r="O81" s="54"/>
@@ -11964,19 +12156,19 @@
     <row r="82" spans="3:64" x14ac:dyDescent="0.45">
       <c r="D82" s="18"/>
       <c r="E82" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
       <c r="I82" s="54"/>
       <c r="J82" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="58" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N82" s="54"/>
       <c r="O82" s="54"/>
@@ -12038,13 +12230,13 @@
       <c r="H83" s="54"/>
       <c r="I83" s="54"/>
       <c r="J83" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
+      <c r="L83" s="18"/>
       <c r="M83" s="61"/>
       <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
+      <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="54"/>
@@ -13245,7 +13437,7 @@
       <c r="Z104" s="54"/>
       <c r="AA104" s="3"/>
       <c r="AB104" s="70" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
@@ -13302,7 +13494,7 @@
       <c r="N105" s="54"/>
       <c r="O105" s="54"/>
       <c r="P105" s="70" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -13324,7 +13516,7 @@
       <c r="AF105" s="54"/>
       <c r="AG105" s="54"/>
       <c r="AH105" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI105" s="54"/>
       <c r="AJ105" s="54"/>
@@ -13468,7 +13660,7 @@
       <c r="AV107" s="54"/>
       <c r="AW107" s="35"/>
       <c r="AX107" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
@@ -13561,14 +13753,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D04DCC8-1E00-492E-9CBE-879F6063881E}">
-  <dimension ref="A1"/>
+  <dimension ref="A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="144" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23220624-08B7-4EA7-9CC9-8E27CF824B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E190310-CB57-4AC0-BE5C-877361EC7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
   <sheets>
     <sheet name="森" sheetId="1" r:id="rId1"/>
-    <sheet name="城下町" sheetId="2" r:id="rId2"/>
-    <sheet name="城内" sheetId="4" r:id="rId3"/>
-    <sheet name="城ギミック" sheetId="5" r:id="rId4"/>
+    <sheet name="森(修正ver.)" sheetId="6" r:id="rId2"/>
+    <sheet name="城下町" sheetId="2" r:id="rId3"/>
+    <sheet name="城内" sheetId="4" r:id="rId4"/>
+    <sheet name="城ギミック" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="139">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
@@ -1827,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2239,73 +2240,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F6CC9-498D-453D-A44F-43A51BBA67CF}">
   <dimension ref="A1:JX36"/>
   <sheetViews>
-    <sheetView topLeftCell="GR4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="IW42" sqref="IW42"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4621,6 +4625,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56882BED-9781-4BA9-ABE1-B76AD7D0FCF8}">
+  <dimension ref="A1:HG36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="A1" s="19"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="Z2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+    </row>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+    </row>
+    <row r="6" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="CJ6" s="8"/>
+      <c r="CK6" s="8"/>
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AI7" s="160"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="CJ7" s="8"/>
+      <c r="CK7" s="8"/>
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AI8" s="160"/>
+      <c r="AP8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AI9" s="160"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="8"/>
+      <c r="CJ10" s="8"/>
+      <c r="CK10" s="8"/>
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="8"/>
+      <c r="BW11" s="8"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="8"/>
+      <c r="CK11" s="8"/>
+      <c r="CL11" s="3"/>
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="8"/>
+      <c r="BW12" s="8"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="8"/>
+      <c r="CK12" s="8"/>
+      <c r="CL12" s="3"/>
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA13" s="29"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="8"/>
+      <c r="CK13" s="8"/>
+      <c r="CL13" s="3"/>
+    </row>
+    <row r="14" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+    </row>
+    <row r="15" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BL15" s="8"/>
+      <c r="BM15" s="8"/>
+    </row>
+    <row r="16" spans="1:90" x14ac:dyDescent="0.45">
+      <c r="AJ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BL16" s="8"/>
+      <c r="BM16" s="8"/>
+      <c r="BU16" s="8"/>
+      <c r="BV16" s="8"/>
+    </row>
+    <row r="17" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BL17" s="8"/>
+      <c r="BM17" s="8"/>
+      <c r="BU17" s="8"/>
+      <c r="BV17" s="8"/>
+      <c r="HC17" s="160"/>
+      <c r="HD17" s="160"/>
+      <c r="HE17" s="160"/>
+      <c r="HF17" s="160"/>
+      <c r="HG17" s="160"/>
+    </row>
+    <row r="18" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BL18" s="8"/>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="8"/>
+      <c r="BO18" s="8"/>
+      <c r="BU18" s="8"/>
+      <c r="BV18" s="8"/>
+      <c r="HC18" s="160"/>
+      <c r="HD18" s="160"/>
+      <c r="HE18" s="160"/>
+      <c r="HF18" s="160"/>
+      <c r="HG18" s="160"/>
+    </row>
+    <row r="19" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="AA19" s="9"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BL19" s="8"/>
+      <c r="BM19" s="8"/>
+      <c r="BU19" s="8"/>
+      <c r="BV19" s="8"/>
+      <c r="CJ19" s="8"/>
+      <c r="CK19" s="8"/>
+      <c r="HC19" s="160"/>
+      <c r="HD19" s="160"/>
+      <c r="HE19" s="160"/>
+      <c r="HF19" s="160"/>
+      <c r="HG19" s="160"/>
+    </row>
+    <row r="20" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="Z20" s="9"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="28"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BL20" s="8"/>
+      <c r="BM20" s="8"/>
+      <c r="BU20" s="8"/>
+      <c r="BV20" s="8"/>
+      <c r="CJ20" s="8"/>
+      <c r="CK20" s="8"/>
+      <c r="HC20" s="160"/>
+      <c r="HD20" s="160"/>
+      <c r="HE20" s="160"/>
+      <c r="HF20" s="160"/>
+      <c r="HG20" s="160"/>
+    </row>
+    <row r="21" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="R21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AH21" s="7"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="28"/>
+      <c r="AN21" s="17"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BU21" s="8"/>
+      <c r="BV21" s="8"/>
+      <c r="BZ21" s="8"/>
+      <c r="CA21" s="8"/>
+      <c r="CI21" s="8"/>
+      <c r="CJ21" s="8"/>
+      <c r="CK21" s="8"/>
+      <c r="HC21" s="160"/>
+      <c r="HD21" s="160"/>
+      <c r="HE21" s="160"/>
+      <c r="HF21" s="160"/>
+      <c r="HG21" s="160"/>
+    </row>
+    <row r="22" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="D22" s="1"/>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AH22" s="7"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="28"/>
+      <c r="AN22" s="17"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AZ22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BK22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="8"/>
+      <c r="BQ22" s="8"/>
+      <c r="BR22" s="8"/>
+      <c r="BU22" s="8"/>
+      <c r="BV22" s="8"/>
+      <c r="BZ22" s="8"/>
+      <c r="CA22" s="8"/>
+      <c r="CB22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ22" s="8"/>
+      <c r="CK22" s="8"/>
+      <c r="HC22" s="160"/>
+      <c r="HD22" s="160"/>
+      <c r="HE22" s="160"/>
+      <c r="HF22" s="160"/>
+      <c r="HG22" s="160"/>
+    </row>
+    <row r="23" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="L23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="7"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="28"/>
+      <c r="AM23" s="160"/>
+      <c r="AN23" s="17"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="29"/>
+      <c r="BE23" s="29"/>
+      <c r="BF23" s="29"/>
+      <c r="BG23" s="28"/>
+      <c r="BH23" s="29"/>
+      <c r="BI23" s="29"/>
+      <c r="BJ23" s="29"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="29"/>
+      <c r="BM23" s="29"/>
+      <c r="BN23" s="29"/>
+      <c r="BO23" s="29"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="29"/>
+      <c r="BR23" s="29"/>
+      <c r="BS23" s="29"/>
+      <c r="BT23" s="8"/>
+      <c r="BU23" s="8"/>
+      <c r="BV23" s="29"/>
+      <c r="BW23" s="28"/>
+      <c r="BX23" s="29"/>
+      <c r="BY23" s="29"/>
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="29"/>
+      <c r="CB23" s="29"/>
+      <c r="CC23" s="29"/>
+      <c r="CD23" s="29"/>
+      <c r="CE23" s="28"/>
+      <c r="CF23" s="29"/>
+      <c r="CG23" s="29"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="8"/>
+      <c r="CK23" s="8"/>
+      <c r="HC23" s="160"/>
+      <c r="HD23" s="160"/>
+      <c r="HE23" s="160"/>
+      <c r="HF23" s="160"/>
+      <c r="HG23" s="160"/>
+    </row>
+    <row r="24" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="4"/>
+      <c r="BU24" s="8"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="30"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="28"/>
+      <c r="CF24" s="29"/>
+      <c r="CG24" s="30"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="8"/>
+      <c r="CK24" s="8"/>
+      <c r="HC24" s="160"/>
+      <c r="HD24" s="160"/>
+      <c r="HE24" s="160"/>
+      <c r="HF24" s="160"/>
+      <c r="HG24" s="160"/>
+    </row>
+    <row r="25" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="C25" s="2"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="30"/>
+      <c r="BD25" s="29"/>
+      <c r="BE25" s="29"/>
+      <c r="BF25" s="29"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="29"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="29"/>
+      <c r="BN25" s="29"/>
+      <c r="BO25" s="30"/>
+      <c r="BP25" s="29"/>
+      <c r="BQ25" s="29"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="29"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="29"/>
+      <c r="BW25" s="28"/>
+      <c r="BX25" s="29"/>
+      <c r="BY25" s="29"/>
+      <c r="BZ25" s="29"/>
+      <c r="CA25" s="29"/>
+      <c r="CB25" s="28"/>
+      <c r="CC25" s="29"/>
+      <c r="CD25" s="29"/>
+      <c r="CE25" s="28"/>
+      <c r="CF25" s="29"/>
+      <c r="CG25" s="30"/>
+      <c r="CH25" s="3"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
+      <c r="HC25" s="160"/>
+      <c r="HD25" s="160"/>
+      <c r="HE25" s="160"/>
+      <c r="HF25" s="160"/>
+      <c r="HG25" s="160"/>
+    </row>
+    <row r="26" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
+      <c r="BD26" s="29"/>
+      <c r="BE26" s="29"/>
+      <c r="BF26" s="29"/>
+      <c r="BG26" s="29"/>
+      <c r="BH26" s="29"/>
+      <c r="BI26" s="29"/>
+      <c r="BJ26" s="29"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="29"/>
+      <c r="BN26" s="29"/>
+      <c r="BO26" s="29"/>
+      <c r="BP26" s="29"/>
+      <c r="BQ26" s="29"/>
+      <c r="BR26" s="28"/>
+      <c r="BS26" s="29"/>
+      <c r="BT26" s="29"/>
+      <c r="BU26" s="29"/>
+      <c r="BV26" s="29"/>
+      <c r="BW26" s="29"/>
+      <c r="BX26" s="29"/>
+      <c r="BY26" s="29"/>
+      <c r="BZ26" s="29"/>
+      <c r="CA26" s="29"/>
+      <c r="CB26" s="28"/>
+      <c r="CC26" s="29"/>
+      <c r="CD26" s="29"/>
+      <c r="CE26" s="29"/>
+      <c r="CF26" s="29"/>
+      <c r="CG26" s="29"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="HC26" s="160"/>
+      <c r="HD26" s="160"/>
+      <c r="HE26" s="160"/>
+      <c r="HF26" s="160"/>
+      <c r="HG26" s="160"/>
+    </row>
+    <row r="28" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="BO28" s="8"/>
+      <c r="BP28" s="8"/>
+    </row>
+    <row r="29" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="CM29" s="8"/>
+      <c r="CN29" s="8"/>
+    </row>
+    <row r="30" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="BO30" s="32"/>
+      <c r="BP30" s="32"/>
+      <c r="CE30" s="9"/>
+      <c r="CF30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+    </row>
+    <row r="31" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="CE31" s="9"/>
+      <c r="CF31" s="8"/>
+      <c r="CG31" s="8"/>
+      <c r="CM31" s="8"/>
+      <c r="CN31" s="8"/>
+    </row>
+    <row r="32" spans="1:215" x14ac:dyDescent="0.45">
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="8"/>
+      <c r="BZ32" s="17"/>
+      <c r="CE32" s="9"/>
+      <c r="CF32" s="8"/>
+      <c r="CG32" s="8"/>
+      <c r="CM32" s="8"/>
+      <c r="CN32" s="8"/>
+    </row>
+    <row r="33" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="8"/>
+      <c r="BQ33" s="3"/>
+      <c r="BR33" s="3"/>
+      <c r="BS33" s="3"/>
+      <c r="BT33" s="3"/>
+      <c r="BU33" s="3"/>
+      <c r="BV33" s="8"/>
+      <c r="BW33" s="8"/>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3"/>
+      <c r="BZ33" s="17"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="9"/>
+      <c r="CF33" s="8"/>
+      <c r="CG33" s="8"/>
+      <c r="CH33" s="3"/>
+      <c r="CI33" s="3"/>
+      <c r="CJ33" s="3"/>
+      <c r="CK33" s="3"/>
+      <c r="CL33" s="3"/>
+      <c r="CM33" s="8"/>
+      <c r="CN33" s="8"/>
+      <c r="CO33" s="3"/>
+      <c r="CP33" s="3"/>
+      <c r="CQ33" s="3"/>
+      <c r="CR33" s="3"/>
+      <c r="CS33" s="3"/>
+      <c r="CT33" s="3"/>
+      <c r="CU33" s="3"/>
+      <c r="CV33" s="3"/>
+      <c r="CW33" s="3"/>
+      <c r="CX33" s="3"/>
+      <c r="CY33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CZ33" s="3"/>
+      <c r="DA33" s="3"/>
+      <c r="DB33" s="3"/>
+    </row>
+    <row r="34" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="8"/>
+      <c r="BP34" s="8"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV34" s="8"/>
+      <c r="BW34" s="8"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="17"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="8"/>
+      <c r="CN34" s="8"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="3"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="3"/>
+      <c r="CT34" s="3"/>
+      <c r="CU34" s="3"/>
+      <c r="CV34" s="3"/>
+      <c r="CW34" s="3"/>
+      <c r="CX34" s="3"/>
+      <c r="CY34" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="CZ34" s="3"/>
+      <c r="DA34" s="3"/>
+      <c r="DB34" s="3"/>
+    </row>
+    <row r="35" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="8"/>
+      <c r="BP35" s="8"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC35" s="28"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="8"/>
+      <c r="CJ35" s="8"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="4"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="3"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="4"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="3"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="3"/>
+    </row>
+    <row r="36" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="28"/>
+      <c r="CC36" s="28"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="3"/>
+      <c r="CF36" s="3"/>
+      <c r="CG36" s="3"/>
+      <c r="CH36" s="3"/>
+      <c r="CI36" s="8"/>
+      <c r="CJ36" s="8"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="33"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="3"/>
+      <c r="DB36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3D41D-10E2-49F9-9670-6032AB04FD08}">
   <dimension ref="A1:GA36"/>
   <sheetViews>
@@ -4740,29 +5905,29 @@
       <c r="CA9" s="36"/>
       <c r="CB9" s="36"/>
       <c r="CC9" s="36"/>
-      <c r="CD9" s="137" t="s">
+      <c r="CD9" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="CE9" s="138"/>
-      <c r="CF9" s="138"/>
-      <c r="CG9" s="138"/>
-      <c r="CH9" s="138"/>
-      <c r="CI9" s="138"/>
-      <c r="CJ9" s="138"/>
-      <c r="CK9" s="138"/>
-      <c r="CL9" s="138"/>
-      <c r="CM9" s="138"/>
-      <c r="CN9" s="138"/>
-      <c r="CO9" s="138"/>
-      <c r="CP9" s="138"/>
-      <c r="CQ9" s="138"/>
-      <c r="CR9" s="138"/>
-      <c r="CS9" s="138"/>
-      <c r="CT9" s="138"/>
-      <c r="CU9" s="138"/>
-      <c r="CV9" s="138"/>
-      <c r="CW9" s="138"/>
-      <c r="CX9" s="138"/>
+      <c r="CE9" s="159"/>
+      <c r="CF9" s="159"/>
+      <c r="CG9" s="159"/>
+      <c r="CH9" s="159"/>
+      <c r="CI9" s="159"/>
+      <c r="CJ9" s="159"/>
+      <c r="CK9" s="159"/>
+      <c r="CL9" s="159"/>
+      <c r="CM9" s="159"/>
+      <c r="CN9" s="159"/>
+      <c r="CO9" s="159"/>
+      <c r="CP9" s="159"/>
+      <c r="CQ9" s="159"/>
+      <c r="CR9" s="159"/>
+      <c r="CS9" s="159"/>
+      <c r="CT9" s="159"/>
+      <c r="CU9" s="159"/>
+      <c r="CV9" s="159"/>
+      <c r="CW9" s="159"/>
+      <c r="CX9" s="159"/>
       <c r="CY9" s="36"/>
       <c r="CZ9" s="36"/>
       <c r="DA9" s="36"/>
@@ -4812,27 +5977,27 @@
       <c r="CA10" s="36"/>
       <c r="CB10" s="36"/>
       <c r="CC10" s="36"/>
-      <c r="CD10" s="138"/>
-      <c r="CE10" s="138"/>
-      <c r="CF10" s="138"/>
-      <c r="CG10" s="138"/>
-      <c r="CH10" s="138"/>
-      <c r="CI10" s="138"/>
-      <c r="CJ10" s="138"/>
-      <c r="CK10" s="138"/>
-      <c r="CL10" s="138"/>
-      <c r="CM10" s="138"/>
-      <c r="CN10" s="138"/>
-      <c r="CO10" s="138"/>
-      <c r="CP10" s="138"/>
-      <c r="CQ10" s="138"/>
-      <c r="CR10" s="138"/>
-      <c r="CS10" s="138"/>
-      <c r="CT10" s="138"/>
-      <c r="CU10" s="138"/>
-      <c r="CV10" s="138"/>
-      <c r="CW10" s="138"/>
-      <c r="CX10" s="138"/>
+      <c r="CD10" s="159"/>
+      <c r="CE10" s="159"/>
+      <c r="CF10" s="159"/>
+      <c r="CG10" s="159"/>
+      <c r="CH10" s="159"/>
+      <c r="CI10" s="159"/>
+      <c r="CJ10" s="159"/>
+      <c r="CK10" s="159"/>
+      <c r="CL10" s="159"/>
+      <c r="CM10" s="159"/>
+      <c r="CN10" s="159"/>
+      <c r="CO10" s="159"/>
+      <c r="CP10" s="159"/>
+      <c r="CQ10" s="159"/>
+      <c r="CR10" s="159"/>
+      <c r="CS10" s="159"/>
+      <c r="CT10" s="159"/>
+      <c r="CU10" s="159"/>
+      <c r="CV10" s="159"/>
+      <c r="CW10" s="159"/>
+      <c r="CX10" s="159"/>
       <c r="CY10" s="36"/>
       <c r="CZ10" s="36"/>
       <c r="DA10" s="36"/>
@@ -4881,27 +6046,27 @@
       <c r="CA11" s="36"/>
       <c r="CB11" s="36"/>
       <c r="CC11" s="36"/>
-      <c r="CD11" s="138"/>
-      <c r="CE11" s="138"/>
-      <c r="CF11" s="138"/>
-      <c r="CG11" s="138"/>
-      <c r="CH11" s="138"/>
-      <c r="CI11" s="138"/>
-      <c r="CJ11" s="138"/>
-      <c r="CK11" s="138"/>
-      <c r="CL11" s="138"/>
-      <c r="CM11" s="138"/>
-      <c r="CN11" s="138"/>
-      <c r="CO11" s="138"/>
-      <c r="CP11" s="138"/>
-      <c r="CQ11" s="138"/>
-      <c r="CR11" s="138"/>
-      <c r="CS11" s="138"/>
-      <c r="CT11" s="138"/>
-      <c r="CU11" s="138"/>
-      <c r="CV11" s="138"/>
-      <c r="CW11" s="138"/>
-      <c r="CX11" s="138"/>
+      <c r="CD11" s="159"/>
+      <c r="CE11" s="159"/>
+      <c r="CF11" s="159"/>
+      <c r="CG11" s="159"/>
+      <c r="CH11" s="159"/>
+      <c r="CI11" s="159"/>
+      <c r="CJ11" s="159"/>
+      <c r="CK11" s="159"/>
+      <c r="CL11" s="159"/>
+      <c r="CM11" s="159"/>
+      <c r="CN11" s="159"/>
+      <c r="CO11" s="159"/>
+      <c r="CP11" s="159"/>
+      <c r="CQ11" s="159"/>
+      <c r="CR11" s="159"/>
+      <c r="CS11" s="159"/>
+      <c r="CT11" s="159"/>
+      <c r="CU11" s="159"/>
+      <c r="CV11" s="159"/>
+      <c r="CW11" s="159"/>
+      <c r="CX11" s="159"/>
       <c r="CY11" s="36"/>
       <c r="CZ11" s="36"/>
       <c r="DA11" s="36"/>
@@ -4953,27 +6118,27 @@
       <c r="CA12" s="36"/>
       <c r="CB12" s="36"/>
       <c r="CC12" s="36"/>
-      <c r="CD12" s="138"/>
-      <c r="CE12" s="138"/>
-      <c r="CF12" s="138"/>
-      <c r="CG12" s="138"/>
-      <c r="CH12" s="138"/>
-      <c r="CI12" s="138"/>
-      <c r="CJ12" s="138"/>
-      <c r="CK12" s="138"/>
-      <c r="CL12" s="138"/>
-      <c r="CM12" s="138"/>
-      <c r="CN12" s="138"/>
-      <c r="CO12" s="138"/>
-      <c r="CP12" s="138"/>
-      <c r="CQ12" s="138"/>
-      <c r="CR12" s="138"/>
-      <c r="CS12" s="138"/>
-      <c r="CT12" s="138"/>
-      <c r="CU12" s="138"/>
-      <c r="CV12" s="138"/>
-      <c r="CW12" s="138"/>
-      <c r="CX12" s="138"/>
+      <c r="CD12" s="159"/>
+      <c r="CE12" s="159"/>
+      <c r="CF12" s="159"/>
+      <c r="CG12" s="159"/>
+      <c r="CH12" s="159"/>
+      <c r="CI12" s="159"/>
+      <c r="CJ12" s="159"/>
+      <c r="CK12" s="159"/>
+      <c r="CL12" s="159"/>
+      <c r="CM12" s="159"/>
+      <c r="CN12" s="159"/>
+      <c r="CO12" s="159"/>
+      <c r="CP12" s="159"/>
+      <c r="CQ12" s="159"/>
+      <c r="CR12" s="159"/>
+      <c r="CS12" s="159"/>
+      <c r="CT12" s="159"/>
+      <c r="CU12" s="159"/>
+      <c r="CV12" s="159"/>
+      <c r="CW12" s="159"/>
+      <c r="CX12" s="159"/>
       <c r="CY12" s="36"/>
       <c r="CZ12" s="36"/>
       <c r="DA12" s="36"/>
@@ -7267,11 +8432,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C13F81-CF03-4D85-A20B-8F2756E63EA0}">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
@@ -7342,20 +8507,20 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="156" t="s">
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="AD9" s="155"/>
+      <c r="AD9" s="153"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
@@ -7402,45 +8567,45 @@
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="149"/>
+      <c r="N10" s="147"/>
       <c r="O10" s="112"/>
       <c r="P10" s="112"/>
       <c r="Q10" s="112"/>
       <c r="R10" s="115"/>
-      <c r="S10" s="157" t="s">
+      <c r="S10" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="158" t="s">
+      <c r="T10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="158" t="s">
+      <c r="U10" s="156" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="W10" s="158" t="s">
+      <c r="W10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="158" t="s">
+      <c r="X10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="158" t="s">
+      <c r="Y10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="Z10" s="158" t="s">
+      <c r="Z10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="158" t="s">
+      <c r="AA10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="AB10" s="158" t="s">
+      <c r="AB10" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="159" t="s">
+      <c r="AC10" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="AD10" s="159" t="s">
+      <c r="AD10" s="157" t="s">
         <v>46</v>
       </c>
       <c r="AE10" s="119"/>
@@ -7509,7 +8674,7 @@
       <c r="AA11" s="54"/>
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
-      <c r="AD11" s="151" t="s">
+      <c r="AD11" s="149" t="s">
         <v>135</v>
       </c>
       <c r="AE11" s="54"/>
@@ -7718,7 +8883,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="152" t="s">
+      <c r="AD14" s="150" t="s">
         <v>135</v>
       </c>
       <c r="AE14" s="18"/>
@@ -7783,7 +8948,7 @@
       <c r="AA15" s="61"/>
       <c r="AB15" s="61"/>
       <c r="AC15" s="61"/>
-      <c r="AD15" s="153" t="s">
+      <c r="AD15" s="151" t="s">
         <v>135</v>
       </c>
       <c r="AE15" s="61"/>
@@ -7848,10 +9013,10 @@
       <c r="AA16" s="61"/>
       <c r="AB16" s="61"/>
       <c r="AC16" s="61"/>
-      <c r="AD16" s="153" t="s">
+      <c r="AD16" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="AE16" s="154" t="s">
+      <c r="AE16" s="152" t="s">
         <v>126</v>
       </c>
       <c r="AF16" s="18"/>
@@ -7917,7 +9082,7 @@
       <c r="AA17" s="61"/>
       <c r="AB17" s="61"/>
       <c r="AC17" s="61"/>
-      <c r="AD17" s="153" t="s">
+      <c r="AD17" s="151" t="s">
         <v>46</v>
       </c>
       <c r="AE17" s="58" t="s">
@@ -8025,11 +9190,11 @@
       <c r="I19" s="18"/>
       <c r="J19" s="54"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="146">
+      <c r="L19" s="144">
         <v>5</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="146">
+      <c r="N19" s="144">
         <v>4</v>
       </c>
       <c r="O19" s="8"/>
@@ -8094,7 +9259,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="146">
+      <c r="J20" s="144">
         <v>8</v>
       </c>
       <c r="K20" s="8"/>
@@ -8169,7 +9334,7 @@
         <v>128</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="N21" s="146">
+      <c r="N21" s="144">
         <v>3</v>
       </c>
       <c r="O21" s="8"/>
@@ -8177,7 +9342,7 @@
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="140"/>
+      <c r="T21" s="138"/>
       <c r="U21" s="54"/>
       <c r="V21" s="54"/>
       <c r="W21" s="54"/>
@@ -8238,11 +9403,11 @@
         <v>138</v>
       </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="146">
+      <c r="J22" s="144">
         <v>7</v>
       </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="146">
+      <c r="L22" s="144">
         <v>6</v>
       </c>
       <c r="M22" s="8"/>
@@ -8271,7 +9436,7 @@
       <c r="AH22" s="54"/>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="54"/>
-      <c r="AK22" s="143" t="s">
+      <c r="AK22" s="141" t="s">
         <v>129</v>
       </c>
       <c r="AL22" s="18"/>
@@ -8319,7 +9484,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="150" t="s">
+      <c r="R23" s="148" t="s">
         <v>89</v>
       </c>
       <c r="S23" s="35"/>
@@ -8379,12 +9544,12 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="146">
+      <c r="K24" s="144">
         <v>1</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="146">
+      <c r="N24" s="144">
         <v>2</v>
       </c>
       <c r="O24" s="8"/>
@@ -8449,11 +9614,11 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="139" t="s">
+      <c r="J25" s="145"/>
+      <c r="K25" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="148"/>
+      <c r="L25" s="146"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -8530,13 +9695,13 @@
       <c r="S26" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="T26" s="142"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="142"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="142"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
       <c r="AA26" s="86"/>
       <c r="AB26" s="86"/>
       <c r="AC26" s="84" t="s">
@@ -8812,25 +9977,25 @@
       <c r="Q30" s="54"/>
       <c r="R30" s="54"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="139" t="s">
+      <c r="T30" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="U30" s="140" t="s">
+      <c r="U30" s="138" t="s">
         <v>46</v>
       </c>
       <c r="V30" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="W30" s="139" t="s">
+      <c r="W30" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="X30" s="139" t="s">
+      <c r="X30" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="Y30" s="139" t="s">
+      <c r="Y30" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="Z30" s="141" t="s">
+      <c r="Z30" s="139" t="s">
         <v>46</v>
       </c>
       <c r="AA30" s="91" t="s">
@@ -9048,7 +10213,7 @@
       <c r="O33" s="78"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="78"/>
-      <c r="R33" s="145" t="s">
+      <c r="R33" s="143" t="s">
         <v>133</v>
       </c>
       <c r="S33" s="3"/>
@@ -13751,7 +14916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D04DCC8-1E00-492E-9CBE-879F6063881E}">
   <dimension ref="A17"/>
   <sheetViews>
@@ -13762,7 +14927,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="142" t="s">
         <v>132</v>
       </c>
     </row>

--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E190310-CB57-4AC0-BE5C-877361EC7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70166026-BDF5-4475-BA13-953522BFC607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
   <sheets>
     <sheet name="森" sheetId="1" r:id="rId1"/>
-    <sheet name="森(修正ver.)" sheetId="6" r:id="rId2"/>
-    <sheet name="城下町" sheetId="2" r:id="rId3"/>
-    <sheet name="城内" sheetId="4" r:id="rId4"/>
-    <sheet name="城ギミック" sheetId="5" r:id="rId5"/>
+    <sheet name="森0(チュートリアル)" sheetId="7" r:id="rId2"/>
+    <sheet name="森2(修正ver.)" sheetId="6" r:id="rId3"/>
+    <sheet name="城下町" sheetId="2" r:id="rId4"/>
+    <sheet name="城内" sheetId="4" r:id="rId5"/>
+    <sheet name="城ギミック" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1828,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2308,9 +2309,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2330,6 +2328,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>527880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4889756C-F9DA-7AE5-B397-24FD2BA17469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="426720"/>
+          <a:ext cx="13740960" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4625,10 +4678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF701A45-2C08-4477-A0D8-1A953C98EEA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56882BED-9781-4BA9-ABE1-B76AD7D0FCF8}">
-  <dimension ref="A1:HG36"/>
+  <dimension ref="A1:DB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -4702,7 +4769,6 @@
       <c r="CK6" s="8"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AI7" s="160"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
       <c r="BE7" s="32"/>
@@ -4717,7 +4783,6 @@
       <c r="CK7" s="8"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AI8" s="160"/>
       <c r="AP8" t="s">
         <v>43</v>
       </c>
@@ -4743,7 +4808,6 @@
       <c r="CK8" s="8"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AI9" s="160"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8"/>
       <c r="BE9" s="8"/>
@@ -4997,7 +5061,7 @@
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
     </row>
-    <row r="17" spans="1:215" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.45">
       <c r="AC17" s="9"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
@@ -5014,13 +5078,8 @@
       <c r="BM17" s="8"/>
       <c r="BU17" s="8"/>
       <c r="BV17" s="8"/>
-      <c r="HC17" s="160"/>
-      <c r="HD17" s="160"/>
-      <c r="HE17" s="160"/>
-      <c r="HF17" s="160"/>
-      <c r="HG17" s="160"/>
-    </row>
-    <row r="18" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:92" x14ac:dyDescent="0.45">
       <c r="AB18" s="9"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="8"/>
@@ -5040,13 +5099,8 @@
       <c r="BO18" s="8"/>
       <c r="BU18" s="8"/>
       <c r="BV18" s="8"/>
-      <c r="HC18" s="160"/>
-      <c r="HD18" s="160"/>
-      <c r="HE18" s="160"/>
-      <c r="HF18" s="160"/>
-      <c r="HG18" s="160"/>
-    </row>
-    <row r="19" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:92" x14ac:dyDescent="0.45">
       <c r="AA19" s="9"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="8"/>
@@ -5066,13 +5120,8 @@
       <c r="BV19" s="8"/>
       <c r="CJ19" s="8"/>
       <c r="CK19" s="8"/>
-      <c r="HC19" s="160"/>
-      <c r="HD19" s="160"/>
-      <c r="HE19" s="160"/>
-      <c r="HF19" s="160"/>
-      <c r="HG19" s="160"/>
-    </row>
-    <row r="20" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:92" x14ac:dyDescent="0.45">
       <c r="Z20" s="9"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="8"/>
@@ -5092,13 +5141,8 @@
       <c r="BV20" s="8"/>
       <c r="CJ20" s="8"/>
       <c r="CK20" s="8"/>
-      <c r="HC20" s="160"/>
-      <c r="HD20" s="160"/>
-      <c r="HE20" s="160"/>
-      <c r="HF20" s="160"/>
-      <c r="HG20" s="160"/>
-    </row>
-    <row r="21" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:92" x14ac:dyDescent="0.45">
       <c r="R21" s="6" t="s">
         <v>6</v>
       </c>
@@ -5130,13 +5174,8 @@
       <c r="CI21" s="8"/>
       <c r="CJ21" s="8"/>
       <c r="CK21" s="8"/>
-      <c r="HC21" s="160"/>
-      <c r="HD21" s="160"/>
-      <c r="HE21" s="160"/>
-      <c r="HF21" s="160"/>
-      <c r="HG21" s="160"/>
-    </row>
-    <row r="22" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:92" x14ac:dyDescent="0.45">
       <c r="D22" s="1"/>
       <c r="R22" t="s">
         <v>1</v>
@@ -5182,13 +5221,8 @@
       </c>
       <c r="CJ22" s="8"/>
       <c r="CK22" s="8"/>
-      <c r="HC22" s="160"/>
-      <c r="HD22" s="160"/>
-      <c r="HE22" s="160"/>
-      <c r="HF22" s="160"/>
-      <c r="HG22" s="160"/>
-    </row>
-    <row r="23" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:92" x14ac:dyDescent="0.45">
       <c r="L23" s="6" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5245,6 @@
       <c r="AH23" s="7"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="28"/>
-      <c r="AM23" s="160"/>
       <c r="AN23" s="17"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
@@ -5260,13 +5293,8 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="8"/>
       <c r="CK23" s="8"/>
-      <c r="HC23" s="160"/>
-      <c r="HD23" s="160"/>
-      <c r="HE23" s="160"/>
-      <c r="HF23" s="160"/>
-      <c r="HG23" s="160"/>
-    </row>
-    <row r="24" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:92" x14ac:dyDescent="0.45">
       <c r="L24" t="s">
         <v>1</v>
       </c>
@@ -5351,13 +5379,8 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="8"/>
       <c r="CK24" s="8"/>
-      <c r="HC24" s="160"/>
-      <c r="HD24" s="160"/>
-      <c r="HE24" s="160"/>
-      <c r="HF24" s="160"/>
-      <c r="HG24" s="160"/>
-    </row>
-    <row r="25" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:92" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
@@ -5441,13 +5464,8 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
-      <c r="HC25" s="160"/>
-      <c r="HD25" s="160"/>
-      <c r="HE25" s="160"/>
-      <c r="HF25" s="160"/>
-      <c r="HG25" s="160"/>
-    </row>
-    <row r="26" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
         <v>17</v>
@@ -5539,23 +5557,18 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
-      <c r="HC26" s="160"/>
-      <c r="HD26" s="160"/>
-      <c r="HE26" s="160"/>
-      <c r="HF26" s="160"/>
-      <c r="HG26" s="160"/>
-    </row>
-    <row r="28" spans="1:215" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:92" x14ac:dyDescent="0.45">
       <c r="BO28" s="8"/>
       <c r="BP28" s="8"/>
     </row>
-    <row r="29" spans="1:215" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.45">
       <c r="BO29" s="32"/>
       <c r="BP29" s="32"/>
       <c r="CM29" s="8"/>
       <c r="CN29" s="8"/>
     </row>
-    <row r="30" spans="1:215" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.45">
       <c r="BO30" s="32"/>
       <c r="BP30" s="32"/>
       <c r="CE30" s="9"/>
@@ -5568,7 +5581,7 @@
       <c r="CM30" s="8"/>
       <c r="CN30" s="8"/>
     </row>
-    <row r="31" spans="1:215" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.45">
       <c r="BM31" s="8"/>
       <c r="BN31" s="8"/>
       <c r="BO31" s="8"/>
@@ -5581,7 +5594,7 @@
       <c r="CM31" s="8"/>
       <c r="CN31" s="8"/>
     </row>
-    <row r="32" spans="1:215" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.45">
       <c r="BO32" s="8"/>
       <c r="BP32" s="8"/>
       <c r="BZ32" s="17"/>
@@ -5785,7 +5798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3D41D-10E2-49F9-9670-6032AB04FD08}">
   <dimension ref="A1:GA36"/>
   <sheetViews>
@@ -8432,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C13F81-CF03-4D85-A20B-8F2756E63EA0}">
   <dimension ref="A1:BL108"/>
   <sheetViews>
@@ -14916,7 +14929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D04DCC8-1E00-492E-9CBE-879F6063881E}">
   <dimension ref="A17"/>
   <sheetViews>

--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70166026-BDF5-4475-BA13-953522BFC607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370E34A-6AD1-4DC3-9101-F0455C0D571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="139">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
@@ -1829,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,6 +2310,15 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2377,6 +2386,1276 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フリーフォーム: 図形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA420E16-11A5-49E8-7D56-6E62D6623217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7414260" y="2255520"/>
+          <a:ext cx="45719" cy="1546860"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 178271 w 704982"/>
+            <a:gd name="connsiteY0" fmla="*/ 270758 h 2411978"/>
+            <a:gd name="connsiteX1" fmla="*/ 223991 w 704982"/>
+            <a:gd name="connsiteY1" fmla="*/ 407918 h 2411978"/>
+            <a:gd name="connsiteX2" fmla="*/ 208751 w 704982"/>
+            <a:gd name="connsiteY2" fmla="*/ 1200398 h 2411978"/>
+            <a:gd name="connsiteX3" fmla="*/ 323051 w 704982"/>
+            <a:gd name="connsiteY3" fmla="*/ 1566158 h 2411978"/>
+            <a:gd name="connsiteX4" fmla="*/ 406871 w 704982"/>
+            <a:gd name="connsiteY4" fmla="*/ 1230878 h 2411978"/>
+            <a:gd name="connsiteX5" fmla="*/ 414491 w 704982"/>
+            <a:gd name="connsiteY5" fmla="*/ 1086098 h 2411978"/>
+            <a:gd name="connsiteX6" fmla="*/ 414491 w 704982"/>
+            <a:gd name="connsiteY6" fmla="*/ 1185158 h 2411978"/>
+            <a:gd name="connsiteX7" fmla="*/ 498311 w 704982"/>
+            <a:gd name="connsiteY7" fmla="*/ 628898 h 2411978"/>
+            <a:gd name="connsiteX8" fmla="*/ 505931 w 704982"/>
+            <a:gd name="connsiteY8" fmla="*/ 263138 h 2411978"/>
+            <a:gd name="connsiteX9" fmla="*/ 155411 w 704982"/>
+            <a:gd name="connsiteY9" fmla="*/ 1642358 h 2411978"/>
+            <a:gd name="connsiteX10" fmla="*/ 254471 w 704982"/>
+            <a:gd name="connsiteY10" fmla="*/ 1078478 h 2411978"/>
+            <a:gd name="connsiteX11" fmla="*/ 338291 w 704982"/>
+            <a:gd name="connsiteY11" fmla="*/ 415538 h 2411978"/>
+            <a:gd name="connsiteX12" fmla="*/ 63971 w 704982"/>
+            <a:gd name="connsiteY12" fmla="*/ 1489958 h 2411978"/>
+            <a:gd name="connsiteX13" fmla="*/ 25871 w 704982"/>
+            <a:gd name="connsiteY13" fmla="*/ 1870958 h 2411978"/>
+            <a:gd name="connsiteX14" fmla="*/ 163031 w 704982"/>
+            <a:gd name="connsiteY14" fmla="*/ 1185158 h 2411978"/>
+            <a:gd name="connsiteX15" fmla="*/ 185891 w 704982"/>
+            <a:gd name="connsiteY15" fmla="*/ 666998 h 2411978"/>
+            <a:gd name="connsiteX16" fmla="*/ 3011 w 704982"/>
+            <a:gd name="connsiteY16" fmla="*/ 2076698 h 2411978"/>
+            <a:gd name="connsiteX17" fmla="*/ 18251 w 704982"/>
+            <a:gd name="connsiteY17" fmla="*/ 2411978 h 2411978"/>
+            <a:gd name="connsiteX18" fmla="*/ 391631 w 704982"/>
+            <a:gd name="connsiteY18" fmla="*/ 1131818 h 2411978"/>
+            <a:gd name="connsiteX19" fmla="*/ 467831 w 704982"/>
+            <a:gd name="connsiteY19" fmla="*/ 727958 h 2411978"/>
+            <a:gd name="connsiteX20" fmla="*/ 399251 w 704982"/>
+            <a:gd name="connsiteY20" fmla="*/ 1406138 h 2411978"/>
+            <a:gd name="connsiteX21" fmla="*/ 528791 w 704982"/>
+            <a:gd name="connsiteY21" fmla="*/ 834638 h 2411978"/>
+            <a:gd name="connsiteX22" fmla="*/ 696431 w 704982"/>
+            <a:gd name="connsiteY22" fmla="*/ 110738 h 2411978"/>
+            <a:gd name="connsiteX23" fmla="*/ 483071 w 704982"/>
+            <a:gd name="connsiteY23" fmla="*/ 1215638 h 2411978"/>
+            <a:gd name="connsiteX24" fmla="*/ 612611 w 704982"/>
+            <a:gd name="connsiteY24" fmla="*/ 727958 h 2411978"/>
+            <a:gd name="connsiteX25" fmla="*/ 635471 w 704982"/>
+            <a:gd name="connsiteY25" fmla="*/ 560318 h 2411978"/>
+            <a:gd name="connsiteX26" fmla="*/ 528791 w 704982"/>
+            <a:gd name="connsiteY26" fmla="*/ 1040378 h 2411978"/>
+            <a:gd name="connsiteX27" fmla="*/ 498311 w 704982"/>
+            <a:gd name="connsiteY27" fmla="*/ 1131818 h 2411978"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="704982" h="2411978">
+              <a:moveTo>
+                <a:pt x="178271" y="270758"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="255928" y="286289"/>
+                <a:pt x="225153" y="267357"/>
+                <a:pt x="223991" y="407918"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="221808" y="672118"/>
+                <a:pt x="213831" y="936238"/>
+                <a:pt x="208751" y="1200398"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="246851" y="1322318"/>
+                <a:pt x="220863" y="1489517"/>
+                <a:pt x="323051" y="1566158"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="360381" y="1594155"/>
+                <a:pt x="399151" y="1284919"/>
+                <a:pt x="406871" y="1230878"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="409411" y="1182618"/>
+                <a:pt x="406546" y="1133767"/>
+                <a:pt x="414491" y="1086098"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="419919" y="1053527"/>
+                <a:pt x="414491" y="1185158"/>
+                <a:pt x="414491" y="1185158"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="575986" y="1508148"/>
+                <a:pt x="477004" y="1358657"/>
+                <a:pt x="498311" y="628898"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="501870" y="507003"/>
+                <a:pt x="566174" y="157111"/>
+                <a:pt x="505931" y="263138"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="159044" y="873659"/>
+                <a:pt x="442875" y="1026363"/>
+                <a:pt x="155411" y="1642358"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="74708" y="1815293"/>
+                <a:pt x="226334" y="1267231"/>
+                <a:pt x="254471" y="1078478"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="287312" y="858173"/>
+                <a:pt x="310351" y="636518"/>
+                <a:pt x="338291" y="415538"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="319787" y="-324633"/>
+                <a:pt x="346195" y="-139886"/>
+                <a:pt x="63971" y="1489958"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="42194" y="1615720"/>
+                <a:pt x="-13579" y="1992342"/>
+                <a:pt x="25871" y="1870958"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="97927" y="1649246"/>
+                <a:pt x="117311" y="1413758"/>
+                <a:pt x="163031" y="1185158"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170651" y="1012438"/>
+                <a:pt x="216434" y="496829"/>
+                <a:pt x="185891" y="666998"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="102181" y="1133383"/>
+                <a:pt x="48324" y="1605032"/>
+                <a:pt x="3011" y="2076698"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-7688" y="2188061"/>
+                <a:pt x="13171" y="2300218"/>
+                <a:pt x="18251" y="2411978"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="313155" y="1689971"/>
+                <a:pt x="227267" y="1994728"/>
+                <a:pt x="391631" y="1131818"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="470680" y="716812"/>
+                <a:pt x="380063" y="859610"/>
+                <a:pt x="467831" y="727958"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="444971" y="954018"/>
+                <a:pt x="286522" y="1208862"/>
+                <a:pt x="399251" y="1406138"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="496163" y="1575734"/>
+                <a:pt x="485114" y="1025025"/>
+                <a:pt x="528791" y="834638"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="584174" y="593224"/>
+                <a:pt x="743392" y="-132455"/>
+                <a:pt x="696431" y="110738"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="625311" y="479038"/>
+                <a:pt x="386773" y="1578170"/>
+                <a:pt x="483071" y="1215638"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="526251" y="1053078"/>
+                <a:pt x="574512" y="891783"/>
+                <a:pt x="612611" y="727958"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="625386" y="673027"/>
+                <a:pt x="650085" y="505847"/>
+                <a:pt x="635471" y="560318"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="592994" y="718642"/>
+                <a:pt x="567046" y="880981"/>
+                <a:pt x="528791" y="1040378"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="521293" y="1071620"/>
+                <a:pt x="498311" y="1131818"/>
+                <a:pt x="498311" y="1131818"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>105558</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フリーフォーム: 図形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA10CF53-2C81-649B-1B91-0D9052AF2F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="2745749"/>
+          <a:ext cx="1065678" cy="654984"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1065678"/>
+            <a:gd name="connsiteY0" fmla="*/ 492751 h 654984"/>
+            <a:gd name="connsiteX1" fmla="*/ 160020 w 1065678"/>
+            <a:gd name="connsiteY1" fmla="*/ 447031 h 654984"/>
+            <a:gd name="connsiteX2" fmla="*/ 457200 w 1065678"/>
+            <a:gd name="connsiteY2" fmla="*/ 393691 h 654984"/>
+            <a:gd name="connsiteX3" fmla="*/ 533400 w 1065678"/>
+            <a:gd name="connsiteY3" fmla="*/ 370831 h 654984"/>
+            <a:gd name="connsiteX4" fmla="*/ 617220 w 1065678"/>
+            <a:gd name="connsiteY4" fmla="*/ 363211 h 654984"/>
+            <a:gd name="connsiteX5" fmla="*/ 952500 w 1065678"/>
+            <a:gd name="connsiteY5" fmla="*/ 340351 h 654984"/>
+            <a:gd name="connsiteX6" fmla="*/ 1036320 w 1065678"/>
+            <a:gd name="connsiteY6" fmla="*/ 332731 h 654984"/>
+            <a:gd name="connsiteX7" fmla="*/ 830580 w 1065678"/>
+            <a:gd name="connsiteY7" fmla="*/ 43171 h 654984"/>
+            <a:gd name="connsiteX8" fmla="*/ 762000 w 1065678"/>
+            <a:gd name="connsiteY8" fmla="*/ 5071 h 654984"/>
+            <a:gd name="connsiteX9" fmla="*/ 815340 w 1065678"/>
+            <a:gd name="connsiteY9" fmla="*/ 58411 h 654984"/>
+            <a:gd name="connsiteX10" fmla="*/ 922020 w 1065678"/>
+            <a:gd name="connsiteY10" fmla="*/ 195571 h 654984"/>
+            <a:gd name="connsiteX11" fmla="*/ 990600 w 1065678"/>
+            <a:gd name="connsiteY11" fmla="*/ 256531 h 654984"/>
+            <a:gd name="connsiteX12" fmla="*/ 1005840 w 1065678"/>
+            <a:gd name="connsiteY12" fmla="*/ 279391 h 654984"/>
+            <a:gd name="connsiteX13" fmla="*/ 899160 w 1065678"/>
+            <a:gd name="connsiteY13" fmla="*/ 424171 h 654984"/>
+            <a:gd name="connsiteX14" fmla="*/ 632460 w 1065678"/>
+            <a:gd name="connsiteY14" fmla="*/ 607051 h 654984"/>
+            <a:gd name="connsiteX15" fmla="*/ 746760 w 1065678"/>
+            <a:gd name="connsiteY15" fmla="*/ 591811 h 654984"/>
+            <a:gd name="connsiteX16" fmla="*/ 899160 w 1065678"/>
+            <a:gd name="connsiteY16" fmla="*/ 485131 h 654984"/>
+            <a:gd name="connsiteX17" fmla="*/ 960120 w 1065678"/>
+            <a:gd name="connsiteY17" fmla="*/ 439411 h 654984"/>
+            <a:gd name="connsiteX18" fmla="*/ 975360 w 1065678"/>
+            <a:gd name="connsiteY18" fmla="*/ 408931 h 654984"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1065678" h="654984">
+              <a:moveTo>
+                <a:pt x="0" y="492751"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="85069" y="450217"/>
+                <a:pt x="18531" y="478473"/>
+                <a:pt x="160020" y="447031"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="394043" y="395026"/>
+                <a:pt x="241002" y="417713"/>
+                <a:pt x="457200" y="393691"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="482600" y="386071"/>
+                <a:pt x="507350" y="375793"/>
+                <a:pt x="533400" y="370831"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="560960" y="365582"/>
+                <a:pt x="589324" y="366200"/>
+                <a:pt x="617220" y="363211"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="844539" y="338855"/>
+                <a:pt x="656556" y="351312"/>
+                <a:pt x="952500" y="340351"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="980440" y="337811"/>
+                <a:pt x="1046969" y="358687"/>
+                <a:pt x="1036320" y="332731"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="991379" y="223188"/>
+                <a:pt x="906587" y="133958"/>
+                <a:pt x="830580" y="43171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="813793" y="23120"/>
+                <a:pt x="780491" y="-13420"/>
+                <a:pt x="762000" y="5071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="744220" y="22851"/>
+                <a:pt x="799167" y="39158"/>
+                <a:pt x="815340" y="58411"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="852594" y="102761"/>
+                <a:pt x="886068" y="150158"/>
+                <a:pt x="922020" y="195571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="963637" y="248140"/>
+                <a:pt x="944526" y="233494"/>
+                <a:pt x="990600" y="256531"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="995680" y="264151"/>
+                <a:pt x="999364" y="272915"/>
+                <a:pt x="1005840" y="279391"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1063366" y="336917"/>
+                <a:pt x="1142818" y="232056"/>
+                <a:pt x="899160" y="424171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="814513" y="490912"/>
+                <a:pt x="632460" y="607051"/>
+                <a:pt x="632460" y="607051"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="601214" y="669543"/>
+                <a:pt x="588480" y="677368"/>
+                <a:pt x="746760" y="591811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="801310" y="562325"/>
+                <a:pt x="850739" y="523868"/>
+                <a:pt x="899160" y="485131"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="944411" y="448930"/>
+                <a:pt x="923728" y="463673"/>
+                <a:pt x="960120" y="439411"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="976769" y="414438"/>
+                <a:pt x="975360" y="425709"/>
+                <a:pt x="975360" y="408931"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572443</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フリーフォーム: 図形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963738F4-D342-7885-8964-D99661DD4978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8619163" y="2804159"/>
+          <a:ext cx="2467937" cy="764827"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 44777 w 4296737"/>
+            <a:gd name="connsiteY0" fmla="*/ 81713 h 1547580"/>
+            <a:gd name="connsiteX1" fmla="*/ 532457 w 4296737"/>
+            <a:gd name="connsiteY1" fmla="*/ 89333 h 1547580"/>
+            <a:gd name="connsiteX2" fmla="*/ 738197 w 4296737"/>
+            <a:gd name="connsiteY2" fmla="*/ 96953 h 1547580"/>
+            <a:gd name="connsiteX3" fmla="*/ 768677 w 4296737"/>
+            <a:gd name="connsiteY3" fmla="*/ 211253 h 1547580"/>
+            <a:gd name="connsiteX4" fmla="*/ 959177 w 4296737"/>
+            <a:gd name="connsiteY4" fmla="*/ 1247573 h 1547580"/>
+            <a:gd name="connsiteX5" fmla="*/ 6677 w 4296737"/>
+            <a:gd name="connsiteY5" fmla="*/ 1285673 h 1547580"/>
+            <a:gd name="connsiteX6" fmla="*/ 105737 w 4296737"/>
+            <a:gd name="connsiteY6" fmla="*/ 1293293 h 1547580"/>
+            <a:gd name="connsiteX7" fmla="*/ 380057 w 4296737"/>
+            <a:gd name="connsiteY7" fmla="*/ 1300913 h 1547580"/>
+            <a:gd name="connsiteX8" fmla="*/ 669617 w 4296737"/>
+            <a:gd name="connsiteY8" fmla="*/ 1354253 h 1547580"/>
+            <a:gd name="connsiteX9" fmla="*/ 768677 w 4296737"/>
+            <a:gd name="connsiteY9" fmla="*/ 1399973 h 1547580"/>
+            <a:gd name="connsiteX10" fmla="*/ 791537 w 4296737"/>
+            <a:gd name="connsiteY10" fmla="*/ 1407593 h 1547580"/>
+            <a:gd name="connsiteX11" fmla="*/ 822017 w 4296737"/>
+            <a:gd name="connsiteY11" fmla="*/ 1422833 h 1547580"/>
+            <a:gd name="connsiteX12" fmla="*/ 867737 w 4296737"/>
+            <a:gd name="connsiteY12" fmla="*/ 1430453 h 1547580"/>
+            <a:gd name="connsiteX13" fmla="*/ 905837 w 4296737"/>
+            <a:gd name="connsiteY13" fmla="*/ 1438073 h 1547580"/>
+            <a:gd name="connsiteX14" fmla="*/ 1065857 w 4296737"/>
+            <a:gd name="connsiteY14" fmla="*/ 1430453 h 1547580"/>
+            <a:gd name="connsiteX15" fmla="*/ 1081097 w 4296737"/>
+            <a:gd name="connsiteY15" fmla="*/ 1392353 h 1547580"/>
+            <a:gd name="connsiteX16" fmla="*/ 1088717 w 4296737"/>
+            <a:gd name="connsiteY16" fmla="*/ 1262813 h 1547580"/>
+            <a:gd name="connsiteX17" fmla="*/ 1042997 w 4296737"/>
+            <a:gd name="connsiteY17" fmla="*/ 546533 h 1547580"/>
+            <a:gd name="connsiteX18" fmla="*/ 1012517 w 4296737"/>
+            <a:gd name="connsiteY18" fmla="*/ 424613 h 1547580"/>
+            <a:gd name="connsiteX19" fmla="*/ 966797 w 4296737"/>
+            <a:gd name="connsiteY19" fmla="*/ 295073 h 1547580"/>
+            <a:gd name="connsiteX20" fmla="*/ 982037 w 4296737"/>
+            <a:gd name="connsiteY20" fmla="*/ 66473 h 1547580"/>
+            <a:gd name="connsiteX21" fmla="*/ 1157297 w 4296737"/>
+            <a:gd name="connsiteY21" fmla="*/ 196013 h 1547580"/>
+            <a:gd name="connsiteX22" fmla="*/ 1164917 w 4296737"/>
+            <a:gd name="connsiteY22" fmla="*/ 5513 h 1547580"/>
+            <a:gd name="connsiteX23" fmla="*/ 1431617 w 4296737"/>
+            <a:gd name="connsiteY23" fmla="*/ 470333 h 1547580"/>
+            <a:gd name="connsiteX24" fmla="*/ 1484957 w 4296737"/>
+            <a:gd name="connsiteY24" fmla="*/ 737033 h 1547580"/>
+            <a:gd name="connsiteX25" fmla="*/ 1523057 w 4296737"/>
+            <a:gd name="connsiteY25" fmla="*/ 904673 h 1547580"/>
+            <a:gd name="connsiteX26" fmla="*/ 1545917 w 4296737"/>
+            <a:gd name="connsiteY26" fmla="*/ 927533 h 1547580"/>
+            <a:gd name="connsiteX27" fmla="*/ 1888817 w 4296737"/>
+            <a:gd name="connsiteY27" fmla="*/ 935153 h 1547580"/>
+            <a:gd name="connsiteX28" fmla="*/ 2818457 w 4296737"/>
+            <a:gd name="connsiteY28" fmla="*/ 759893 h 1547580"/>
+            <a:gd name="connsiteX29" fmla="*/ 3138497 w 4296737"/>
+            <a:gd name="connsiteY29" fmla="*/ 386513 h 1547580"/>
+            <a:gd name="connsiteX30" fmla="*/ 3290897 w 4296737"/>
+            <a:gd name="connsiteY30" fmla="*/ 150293 h 1547580"/>
+            <a:gd name="connsiteX31" fmla="*/ 3229937 w 4296737"/>
+            <a:gd name="connsiteY31" fmla="*/ 1072313 h 1547580"/>
+            <a:gd name="connsiteX32" fmla="*/ 3039437 w 4296737"/>
+            <a:gd name="connsiteY32" fmla="*/ 1468553 h 1547580"/>
+            <a:gd name="connsiteX33" fmla="*/ 3008957 w 4296737"/>
+            <a:gd name="connsiteY33" fmla="*/ 1514273 h 1547580"/>
+            <a:gd name="connsiteX34" fmla="*/ 2978477 w 4296737"/>
+            <a:gd name="connsiteY34" fmla="*/ 1544753 h 1547580"/>
+            <a:gd name="connsiteX35" fmla="*/ 3085157 w 4296737"/>
+            <a:gd name="connsiteY35" fmla="*/ 1384733 h 1547580"/>
+            <a:gd name="connsiteX36" fmla="*/ 3146117 w 4296737"/>
+            <a:gd name="connsiteY36" fmla="*/ 1232333 h 1547580"/>
+            <a:gd name="connsiteX37" fmla="*/ 3153737 w 4296737"/>
+            <a:gd name="connsiteY37" fmla="*/ 1186613 h 1547580"/>
+            <a:gd name="connsiteX38" fmla="*/ 3168977 w 4296737"/>
+            <a:gd name="connsiteY38" fmla="*/ 1118033 h 1547580"/>
+            <a:gd name="connsiteX39" fmla="*/ 3199457 w 4296737"/>
+            <a:gd name="connsiteY39" fmla="*/ 1064693 h 1547580"/>
+            <a:gd name="connsiteX40" fmla="*/ 3229937 w 4296737"/>
+            <a:gd name="connsiteY40" fmla="*/ 973253 h 1547580"/>
+            <a:gd name="connsiteX41" fmla="*/ 3268037 w 4296737"/>
+            <a:gd name="connsiteY41" fmla="*/ 889433 h 1547580"/>
+            <a:gd name="connsiteX42" fmla="*/ 3313757 w 4296737"/>
+            <a:gd name="connsiteY42" fmla="*/ 737033 h 1547580"/>
+            <a:gd name="connsiteX43" fmla="*/ 3321377 w 4296737"/>
+            <a:gd name="connsiteY43" fmla="*/ 676073 h 1547580"/>
+            <a:gd name="connsiteX44" fmla="*/ 3336617 w 4296737"/>
+            <a:gd name="connsiteY44" fmla="*/ 607493 h 1547580"/>
+            <a:gd name="connsiteX45" fmla="*/ 3359477 w 4296737"/>
+            <a:gd name="connsiteY45" fmla="*/ 218873 h 1547580"/>
+            <a:gd name="connsiteX46" fmla="*/ 3405197 w 4296737"/>
+            <a:gd name="connsiteY46" fmla="*/ 279833 h 1547580"/>
+            <a:gd name="connsiteX47" fmla="*/ 3458537 w 4296737"/>
+            <a:gd name="connsiteY47" fmla="*/ 386513 h 1547580"/>
+            <a:gd name="connsiteX48" fmla="*/ 3626177 w 4296737"/>
+            <a:gd name="connsiteY48" fmla="*/ 348413 h 1547580"/>
+            <a:gd name="connsiteX49" fmla="*/ 3793817 w 4296737"/>
+            <a:gd name="connsiteY49" fmla="*/ 272213 h 1547580"/>
+            <a:gd name="connsiteX50" fmla="*/ 3847157 w 4296737"/>
+            <a:gd name="connsiteY50" fmla="*/ 249353 h 1547580"/>
+            <a:gd name="connsiteX51" fmla="*/ 3816677 w 4296737"/>
+            <a:gd name="connsiteY51" fmla="*/ 1377113 h 1547580"/>
+            <a:gd name="connsiteX52" fmla="*/ 3847157 w 4296737"/>
+            <a:gd name="connsiteY52" fmla="*/ 1415213 h 1547580"/>
+            <a:gd name="connsiteX53" fmla="*/ 3862397 w 4296737"/>
+            <a:gd name="connsiteY53" fmla="*/ 1460933 h 1547580"/>
+            <a:gd name="connsiteX54" fmla="*/ 3885257 w 4296737"/>
+            <a:gd name="connsiteY54" fmla="*/ 1476173 h 1547580"/>
+            <a:gd name="connsiteX55" fmla="*/ 4052897 w 4296737"/>
+            <a:gd name="connsiteY55" fmla="*/ 1316153 h 1547580"/>
+            <a:gd name="connsiteX56" fmla="*/ 4251017 w 4296737"/>
+            <a:gd name="connsiteY56" fmla="*/ 1186613 h 1547580"/>
+            <a:gd name="connsiteX57" fmla="*/ 4281497 w 4296737"/>
+            <a:gd name="connsiteY57" fmla="*/ 1148513 h 1547580"/>
+            <a:gd name="connsiteX58" fmla="*/ 4296737 w 4296737"/>
+            <a:gd name="connsiteY58" fmla="*/ 1125653 h 1547580"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4296737" h="1547580">
+              <a:moveTo>
+                <a:pt x="44777" y="81713"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="532457" y="89333"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="601067" y="90841"/>
+                <a:pt x="677214" y="65478"/>
+                <a:pt x="738197" y="96953"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="773237" y="115038"/>
+                <a:pt x="760944" y="172587"/>
+                <a:pt x="768677" y="211253"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="938388" y="1059808"/>
+                <a:pt x="907193" y="831699"/>
+                <a:pt x="959177" y="1247573"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="804039" y="1557849"/>
+                <a:pt x="960107" y="1268338"/>
+                <a:pt x="6677" y="1285673"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-26435" y="1286275"/>
+                <a:pt x="72647" y="1291942"/>
+                <a:pt x="105737" y="1293293"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="197136" y="1297024"/>
+                <a:pt x="288617" y="1298373"/>
+                <a:pt x="380057" y="1300913"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="454977" y="1313400"/>
+                <a:pt x="587148" y="1332551"/>
+                <a:pt x="669617" y="1354253"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="696953" y="1361447"/>
+                <a:pt x="748394" y="1390754"/>
+                <a:pt x="768677" y="1399973"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="775989" y="1403297"/>
+                <a:pt x="784154" y="1404429"/>
+                <a:pt x="791537" y="1407593"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="801978" y="1412068"/>
+                <a:pt x="811137" y="1419569"/>
+                <a:pt x="822017" y="1422833"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="836816" y="1427273"/>
+                <a:pt x="852536" y="1427689"/>
+                <a:pt x="867737" y="1430453"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="880480" y="1432770"/>
+                <a:pt x="893137" y="1435533"/>
+                <a:pt x="905837" y="1438073"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1065857" y="1430453"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1079092" y="1427000"/>
+                <a:pt x="1079249" y="1405906"/>
+                <a:pt x="1081097" y="1392353"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1086941" y="1349495"/>
+                <a:pt x="1086177" y="1305993"/>
+                <a:pt x="1088717" y="1262813"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1081109" y="1104953"/>
+                <a:pt x="1092732" y="770341"/>
+                <a:pt x="1042997" y="546533"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1033910" y="505640"/>
+                <a:pt x="1024666" y="464703"/>
+                <a:pt x="1012517" y="424613"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="999237" y="380790"/>
+                <a:pt x="982037" y="338253"/>
+                <a:pt x="966797" y="295073"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="971877" y="218873"/>
+                <a:pt x="941036" y="130903"/>
+                <a:pt x="982037" y="66473"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="989739" y="54369"/>
+                <a:pt x="1157247" y="195972"/>
+                <a:pt x="1157297" y="196013"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1159837" y="132513"/>
+                <a:pt x="1113669" y="-32069"/>
+                <a:pt x="1164917" y="5513"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1272391" y="84327"/>
+                <a:pt x="1367548" y="320838"/>
+                <a:pt x="1431617" y="470333"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1449397" y="559233"/>
+                <a:pt x="1466280" y="648317"/>
+                <a:pt x="1484957" y="737033"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1496762" y="793109"/>
+                <a:pt x="1505592" y="850094"/>
+                <a:pt x="1523057" y="904673"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1526341" y="914937"/>
+                <a:pt x="1535178" y="926638"/>
+                <a:pt x="1545917" y="927533"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1659850" y="937027"/>
+                <a:pt x="1774517" y="932613"/>
+                <a:pt x="1888817" y="935153"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2400765" y="929527"/>
+                <a:pt x="2509859" y="1060037"/>
+                <a:pt x="2818457" y="759893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2935967" y="645602"/>
+                <a:pt x="3049630" y="524257"/>
+                <a:pt x="3138497" y="386513"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3290897" y="150293"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3275841" y="534224"/>
+                <a:pt x="3310530" y="758001"/>
+                <a:pt x="3229937" y="1072313"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3181664" y="1260578"/>
+                <a:pt x="3167433" y="1276559"/>
+                <a:pt x="3039437" y="1468553"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3029277" y="1483793"/>
+                <a:pt x="3020399" y="1499970"/>
+                <a:pt x="3008957" y="1514273"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2999981" y="1525493"/>
+                <a:pt x="2971192" y="1557138"/>
+                <a:pt x="2978477" y="1544753"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3010980" y="1489497"/>
+                <a:pt x="3085157" y="1384733"/>
+                <a:pt x="3085157" y="1384733"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3145415" y="1143701"/>
+                <a:pt x="3067275" y="1416298"/>
+                <a:pt x="3146117" y="1232333"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3152203" y="1218132"/>
+                <a:pt x="3150707" y="1201763"/>
+                <a:pt x="3153737" y="1186613"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3158330" y="1163650"/>
+                <a:pt x="3160755" y="1139960"/>
+                <a:pt x="3168977" y="1118033"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3176167" y="1098859"/>
+                <a:pt x="3191510" y="1083566"/>
+                <a:pt x="3199457" y="1064693"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3211925" y="1035082"/>
+                <a:pt x="3218229" y="1003173"/>
+                <a:pt x="3229937" y="973253"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3241121" y="944672"/>
+                <a:pt x="3257774" y="918357"/>
+                <a:pt x="3268037" y="889433"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3285773" y="839450"/>
+                <a:pt x="3313757" y="737033"/>
+                <a:pt x="3313757" y="737033"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3316297" y="716713"/>
+                <a:pt x="3317818" y="696240"/>
+                <a:pt x="3321377" y="676073"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3325447" y="653012"/>
+                <a:pt x="3335364" y="630877"/>
+                <a:pt x="3336617" y="607493"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3357843" y="211267"/>
+                <a:pt x="3289565" y="358697"/>
+                <a:pt x="3359477" y="218873"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3374717" y="239193"/>
+                <a:pt x="3393367" y="257356"/>
+                <a:pt x="3405197" y="279833"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3471625" y="406045"/>
+                <a:pt x="3402960" y="330936"/>
+                <a:pt x="3458537" y="386513"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3514417" y="373813"/>
+                <a:pt x="3571937" y="366904"/>
+                <a:pt x="3626177" y="348413"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3684276" y="328607"/>
+                <a:pt x="3737805" y="297322"/>
+                <a:pt x="3793817" y="272213"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3811469" y="264300"/>
+                <a:pt x="3847157" y="249353"/>
+                <a:pt x="3847157" y="249353"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3802456" y="758949"/>
+                <a:pt x="3785833" y="784912"/>
+                <a:pt x="3816677" y="1377113"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3817523" y="1393355"/>
+                <a:pt x="3836997" y="1402513"/>
+                <a:pt x="3847157" y="1415213"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3852237" y="1430453"/>
+                <a:pt x="3853883" y="1447310"/>
+                <a:pt x="3862397" y="1460933"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3867251" y="1468699"/>
+                <a:pt x="3877966" y="1481714"/>
+                <a:pt x="3885257" y="1476173"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3946761" y="1429430"/>
+                <a:pt x="3992329" y="1364103"/>
+                <a:pt x="4052897" y="1316153"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4114761" y="1267177"/>
+                <a:pt x="4187389" y="1233274"/>
+                <a:pt x="4251017" y="1186613"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4264132" y="1176995"/>
+                <a:pt x="4271739" y="1161524"/>
+                <a:pt x="4281497" y="1148513"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4286992" y="1141187"/>
+                <a:pt x="4296737" y="1125653"/>
+                <a:pt x="4296737" y="1125653"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4679,12 +5958,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF701A45-2C08-4477-A0D8-1A953C98EEA7}">
-  <dimension ref="A1"/>
+  <dimension ref="Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q2" s="162"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4696,7 +5981,7 @@
   <dimension ref="A1:DB36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="BI24" sqref="BI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4743,304 +6028,566 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="160"/>
+      <c r="AT4" s="160"/>
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="160"/>
+      <c r="BA4" s="160"/>
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="160"/>
+      <c r="BH4" s="160"/>
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="160"/>
+      <c r="BO4" s="160"/>
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="160"/>
+      <c r="BV4" s="160"/>
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="160"/>
+      <c r="CC4" s="160"/>
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="160"/>
+      <c r="CJ4" s="160"/>
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="BW5" s="8"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="160"/>
+      <c r="BA5" s="160"/>
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="160"/>
+      <c r="BH5" s="160"/>
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="160"/>
+      <c r="BO5" s="160"/>
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="160"/>
+      <c r="BV5" s="160"/>
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="160"/>
+      <c r="CC5" s="160"/>
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="160"/>
+      <c r="CJ5" s="160"/>
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="160"/>
+      <c r="AS6" s="160"/>
+      <c r="AT6" s="160"/>
+      <c r="AU6" s="160"/>
+      <c r="AV6" s="160"/>
+      <c r="AW6" s="160"/>
+      <c r="AX6" s="160"/>
+      <c r="AY6" s="160"/>
+      <c r="AZ6" s="160"/>
+      <c r="BA6" s="160"/>
+      <c r="BB6" s="160"/>
+      <c r="BC6" s="160"/>
+      <c r="BD6" s="160"/>
+      <c r="BE6" s="160"/>
+      <c r="BF6" s="160"/>
+      <c r="BG6" s="160"/>
+      <c r="BH6" s="160"/>
+      <c r="BI6" s="160"/>
+      <c r="BJ6" s="160"/>
+      <c r="BK6" s="160"/>
+      <c r="BL6" s="160"/>
+      <c r="BM6" s="160"/>
+      <c r="BN6" s="160"/>
+      <c r="BO6" s="160"/>
+      <c r="BP6" s="160"/>
+      <c r="BQ6" s="160"/>
+      <c r="BR6" s="160"/>
+      <c r="BS6" s="160"/>
+      <c r="BT6" s="160"/>
+      <c r="BU6" s="160"/>
+      <c r="BV6" s="160"/>
+      <c r="BW6" s="160"/>
+      <c r="BX6" s="160"/>
+      <c r="BY6" s="160"/>
+      <c r="BZ6" s="160"/>
+      <c r="CA6" s="160"/>
+      <c r="CB6" s="160"/>
+      <c r="CC6" s="160"/>
+      <c r="CD6" s="160"/>
+      <c r="CE6" s="160"/>
+      <c r="CF6" s="160"/>
+      <c r="CG6" s="160"/>
+      <c r="CH6" s="160"/>
+      <c r="CI6" s="160"/>
+      <c r="CJ6" s="160"/>
+      <c r="CK6" s="160"/>
+      <c r="CL6" s="160"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="160"/>
+      <c r="AR7" s="160"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="160"/>
+      <c r="AU7" s="160"/>
+      <c r="AV7" s="160"/>
+      <c r="AW7" s="160"/>
+      <c r="AX7" s="160"/>
+      <c r="AY7" s="160"/>
+      <c r="AZ7" s="160"/>
+      <c r="BA7" s="160"/>
+      <c r="BB7" s="160"/>
+      <c r="BC7" s="160"/>
+      <c r="BD7" s="160"/>
+      <c r="BE7" s="160"/>
+      <c r="BF7" s="160"/>
+      <c r="BG7" s="160"/>
+      <c r="BH7" s="160"/>
+      <c r="BI7" s="160"/>
+      <c r="BJ7" s="160"/>
+      <c r="BK7" s="160"/>
+      <c r="BL7" s="160"/>
+      <c r="BM7" s="160"/>
+      <c r="BN7" s="160"/>
+      <c r="BO7" s="160"/>
+      <c r="BP7" s="160"/>
+      <c r="BQ7" s="160"/>
+      <c r="BR7" s="160"/>
+      <c r="BS7" s="160"/>
+      <c r="BT7" s="160"/>
+      <c r="BU7" s="160"/>
+      <c r="BV7" s="160"/>
+      <c r="BW7" s="160"/>
+      <c r="BX7" s="160"/>
+      <c r="BY7" s="160"/>
+      <c r="BZ7" s="160"/>
+      <c r="CA7" s="160"/>
+      <c r="CB7" s="160"/>
+      <c r="CC7" s="160"/>
+      <c r="CD7" s="160"/>
+      <c r="CE7" s="160"/>
+      <c r="CF7" s="160"/>
+      <c r="CG7" s="160"/>
+      <c r="CH7" s="160"/>
+      <c r="CI7" s="160"/>
+      <c r="CJ7" s="160"/>
+      <c r="CK7" s="160"/>
+      <c r="CL7" s="160"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="32"/>
-      <c r="BF8" s="32"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="8"/>
-      <c r="BV8" s="8"/>
-      <c r="BW8" s="8"/>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="CG8" s="8"/>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
+      <c r="AP8" s="160"/>
+      <c r="AQ8" s="160"/>
+      <c r="AR8" s="160"/>
+      <c r="AS8" s="160"/>
+      <c r="AT8" s="160"/>
+      <c r="AU8" s="160"/>
+      <c r="AV8" s="160"/>
+      <c r="AW8" s="160"/>
+      <c r="AX8" s="160"/>
+      <c r="AY8" s="160"/>
+      <c r="AZ8" s="160"/>
+      <c r="BA8" s="160"/>
+      <c r="BB8" s="160"/>
+      <c r="BC8" s="160"/>
+      <c r="BD8" s="160"/>
+      <c r="BE8" s="160"/>
+      <c r="BF8" s="160"/>
+      <c r="BG8" s="160"/>
+      <c r="BH8" s="160"/>
+      <c r="BI8" s="160"/>
+      <c r="BJ8" s="160"/>
+      <c r="BK8" s="160"/>
+      <c r="BL8" s="160"/>
+      <c r="BM8" s="160"/>
+      <c r="BN8" s="160"/>
+      <c r="BO8" s="160"/>
+      <c r="BP8" s="160"/>
+      <c r="BQ8" s="160"/>
+      <c r="BR8" s="160"/>
+      <c r="BS8" s="160"/>
+      <c r="BT8" s="160"/>
+      <c r="BU8" s="160"/>
+      <c r="BV8" s="160"/>
+      <c r="BW8" s="160"/>
+      <c r="BX8" s="160"/>
+      <c r="BY8" s="160"/>
+      <c r="BZ8" s="160"/>
+      <c r="CA8" s="160"/>
+      <c r="CB8" s="160"/>
+      <c r="CC8" s="160"/>
+      <c r="CD8" s="160"/>
+      <c r="CE8" s="160"/>
+      <c r="CF8" s="160"/>
+      <c r="CG8" s="160"/>
+      <c r="CH8" s="160"/>
+      <c r="CI8" s="160"/>
+      <c r="CJ8" s="160"/>
+      <c r="CK8" s="160"/>
+      <c r="CL8" s="160"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="8"/>
-      <c r="CJ9" s="8"/>
-      <c r="CK9" s="8"/>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
+      <c r="AU9" s="160"/>
+      <c r="AV9" s="160"/>
+      <c r="AW9" s="160"/>
+      <c r="AX9" s="160"/>
+      <c r="AY9" s="160"/>
+      <c r="AZ9" s="160"/>
+      <c r="BA9" s="160"/>
+      <c r="BB9" s="160"/>
+      <c r="BC9" s="160"/>
+      <c r="BD9" s="160"/>
+      <c r="BE9" s="160"/>
+      <c r="BF9" s="160"/>
+      <c r="BG9" s="160"/>
+      <c r="BH9" s="160"/>
+      <c r="BI9" s="160"/>
+      <c r="BJ9" s="160"/>
+      <c r="BK9" s="160"/>
+      <c r="BL9" s="160"/>
+      <c r="BM9" s="160"/>
+      <c r="BN9" s="160"/>
+      <c r="BO9" s="160"/>
+      <c r="BP9" s="160"/>
+      <c r="BQ9" s="160"/>
+      <c r="BR9" s="160"/>
+      <c r="BS9" s="160"/>
+      <c r="BT9" s="160"/>
+      <c r="BU9" s="160"/>
+      <c r="BV9" s="160"/>
+      <c r="BW9" s="160"/>
+      <c r="BX9" s="160"/>
+      <c r="BY9" s="160"/>
+      <c r="BZ9" s="160"/>
+      <c r="CA9" s="160"/>
+      <c r="CB9" s="160"/>
+      <c r="CC9" s="160"/>
+      <c r="CD9" s="160"/>
+      <c r="CE9" s="160"/>
+      <c r="CF9" s="160"/>
+      <c r="CG9" s="160"/>
+      <c r="CH9" s="160"/>
+      <c r="CI9" s="160"/>
+      <c r="CJ9" s="160"/>
+      <c r="CK9" s="160"/>
+      <c r="CL9" s="160"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BV10" s="8"/>
-      <c r="BW10" s="8"/>
-      <c r="CJ10" s="8"/>
-      <c r="CK10" s="8"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="160"/>
+      <c r="BA10" s="160"/>
+      <c r="BB10" s="160"/>
+      <c r="BC10" s="160"/>
+      <c r="BD10" s="160"/>
+      <c r="BE10" s="160"/>
+      <c r="BF10" s="160"/>
+      <c r="BG10" s="160"/>
+      <c r="BH10" s="160"/>
+      <c r="BI10" s="160"/>
+      <c r="BJ10" s="160"/>
+      <c r="BK10" s="160"/>
+      <c r="BL10" s="160"/>
+      <c r="BM10" s="160"/>
+      <c r="BN10" s="160"/>
+      <c r="BO10" s="160"/>
+      <c r="BP10" s="160"/>
+      <c r="BQ10" s="160"/>
+      <c r="BR10" s="160"/>
+      <c r="BS10" s="160"/>
+      <c r="BT10" s="160"/>
+      <c r="BU10" s="160"/>
+      <c r="BV10" s="160"/>
+      <c r="BW10" s="160"/>
+      <c r="BX10" s="160"/>
+      <c r="BY10" s="160"/>
+      <c r="BZ10" s="160"/>
+      <c r="CA10" s="160"/>
+      <c r="CB10" s="160"/>
+      <c r="CC10" s="160"/>
+      <c r="CD10" s="160"/>
+      <c r="CE10" s="160"/>
+      <c r="CF10" s="160"/>
+      <c r="CG10" s="160"/>
+      <c r="CH10" s="160"/>
+      <c r="CI10" s="160"/>
+      <c r="CJ10" s="160"/>
+      <c r="CK10" s="160"/>
+      <c r="CL10" s="160"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="8"/>
-      <c r="BW11" s="8"/>
-      <c r="BX11" s="3"/>
-      <c r="BY11" s="3"/>
-      <c r="BZ11" s="3"/>
-      <c r="CA11" s="3"/>
-      <c r="CB11" s="3"/>
-      <c r="CC11" s="3"/>
-      <c r="CD11" s="3"/>
-      <c r="CE11" s="3"/>
-      <c r="CF11" s="3"/>
-      <c r="CG11" s="3"/>
-      <c r="CH11" s="3"/>
-      <c r="CI11" s="3"/>
-      <c r="CJ11" s="8"/>
-      <c r="CK11" s="8"/>
-      <c r="CL11" s="3"/>
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="160"/>
+      <c r="BA11" s="160"/>
+      <c r="BB11" s="160"/>
+      <c r="BC11" s="160"/>
+      <c r="BD11" s="160"/>
+      <c r="BE11" s="160"/>
+      <c r="BF11" s="160"/>
+      <c r="BG11" s="160"/>
+      <c r="BH11" s="160"/>
+      <c r="BI11" s="160"/>
+      <c r="BJ11" s="160"/>
+      <c r="BK11" s="160"/>
+      <c r="BL11" s="161"/>
+      <c r="BM11" s="160"/>
+      <c r="BN11" s="160"/>
+      <c r="BO11" s="160"/>
+      <c r="BP11" s="160"/>
+      <c r="BQ11" s="160"/>
+      <c r="BR11" s="160"/>
+      <c r="BS11" s="160"/>
+      <c r="BT11" s="160"/>
+      <c r="BU11" s="160"/>
+      <c r="BV11" s="160"/>
+      <c r="BW11" s="160"/>
+      <c r="BX11" s="160"/>
+      <c r="BY11" s="160"/>
+      <c r="BZ11" s="160"/>
+      <c r="CA11" s="160"/>
+      <c r="CB11" s="160"/>
+      <c r="CC11" s="160"/>
+      <c r="CD11" s="160"/>
+      <c r="CE11" s="160"/>
+      <c r="CF11" s="160"/>
+      <c r="CG11" s="160"/>
+      <c r="CH11" s="160"/>
+      <c r="CI11" s="160"/>
+      <c r="CJ11" s="160"/>
+      <c r="CK11" s="160"/>
+      <c r="CL11" s="160"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="8"/>
-      <c r="BW12" s="8"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="4"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="8"/>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="3"/>
+      <c r="AP12" s="160"/>
+      <c r="AQ12" s="160"/>
+      <c r="AR12" s="160"/>
+      <c r="AS12" s="160"/>
+      <c r="AT12" s="160"/>
+      <c r="AU12" s="160"/>
+      <c r="AV12" s="160"/>
+      <c r="AW12" s="160"/>
+      <c r="AX12" s="160"/>
+      <c r="AY12" s="160"/>
+      <c r="AZ12" s="160"/>
+      <c r="BA12" s="160"/>
+      <c r="BB12" s="160"/>
+      <c r="BC12" s="160"/>
+      <c r="BD12" s="160"/>
+      <c r="BE12" s="160"/>
+      <c r="BF12" s="160"/>
+      <c r="BG12" s="160"/>
+      <c r="BH12" s="160"/>
+      <c r="BI12" s="160"/>
+      <c r="BJ12" s="160"/>
+      <c r="BK12" s="160"/>
+      <c r="BL12" s="160"/>
+      <c r="BM12" s="160"/>
+      <c r="BN12" s="160"/>
+      <c r="BO12" s="160"/>
+      <c r="BP12" s="160"/>
+      <c r="BQ12" s="160"/>
+      <c r="BR12" s="160"/>
+      <c r="BS12" s="160"/>
+      <c r="BT12" s="160"/>
+      <c r="BU12" s="160"/>
+      <c r="BV12" s="160"/>
+      <c r="BW12" s="160"/>
+      <c r="BX12" s="160"/>
+      <c r="BY12" s="160"/>
+      <c r="BZ12" s="160"/>
+      <c r="CA12" s="160"/>
+      <c r="CB12" s="160"/>
+      <c r="CC12" s="160"/>
+      <c r="CD12" s="160"/>
+      <c r="CE12" s="160"/>
+      <c r="CF12" s="160"/>
+      <c r="CG12" s="160"/>
+      <c r="CH12" s="160"/>
+      <c r="CI12" s="160"/>
+      <c r="CJ12" s="160"/>
+      <c r="CK12" s="160"/>
+      <c r="CL12" s="160"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="4"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="4"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA13" s="29"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="4"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="8"/>
-      <c r="CK13" s="8"/>
-      <c r="CL13" s="3"/>
+      <c r="AP13" s="160"/>
+      <c r="AQ13" s="160"/>
+      <c r="AR13" s="160"/>
+      <c r="AS13" s="160"/>
+      <c r="AT13" s="160"/>
+      <c r="AU13" s="160"/>
+      <c r="AV13" s="160"/>
+      <c r="AW13" s="160"/>
+      <c r="AX13" s="160"/>
+      <c r="AY13" s="160"/>
+      <c r="AZ13" s="160"/>
+      <c r="BA13" s="160"/>
+      <c r="BB13" s="160"/>
+      <c r="BC13" s="160"/>
+      <c r="BD13" s="160"/>
+      <c r="BE13" s="160"/>
+      <c r="BF13" s="160"/>
+      <c r="BG13" s="160"/>
+      <c r="BH13" s="160"/>
+      <c r="BI13" s="160"/>
+      <c r="BJ13" s="160"/>
+      <c r="BK13" s="160"/>
+      <c r="BL13" s="160"/>
+      <c r="BM13" s="160"/>
+      <c r="BN13" s="160"/>
+      <c r="BO13" s="160"/>
+      <c r="BP13" s="160"/>
+      <c r="BQ13" s="160"/>
+      <c r="BR13" s="160"/>
+      <c r="BS13" s="160"/>
+      <c r="BT13" s="160"/>
+      <c r="BU13" s="160"/>
+      <c r="BV13" s="160"/>
+      <c r="BW13" s="160"/>
+      <c r="BX13" s="160"/>
+      <c r="BY13" s="160"/>
+      <c r="BZ13" s="160"/>
+      <c r="CA13" s="160"/>
+      <c r="CB13" s="160"/>
+      <c r="CC13" s="160"/>
+      <c r="CD13" s="160"/>
+      <c r="CE13" s="160"/>
+      <c r="CF13" s="160"/>
+      <c r="CG13" s="160"/>
+      <c r="CH13" s="160"/>
+      <c r="CI13" s="160"/>
+      <c r="CJ13" s="160"/>
+      <c r="CK13" s="160"/>
+      <c r="CL13" s="160"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A14" s="18"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-      <c r="BX14" s="3"/>
-      <c r="BY14" s="3"/>
-      <c r="BZ14" s="3"/>
-      <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
-      <c r="CC14" s="3"/>
-      <c r="CD14" s="3"/>
-      <c r="CE14" s="3"/>
-      <c r="CF14" s="3"/>
-      <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
-      <c r="CI14" s="3"/>
-      <c r="CJ14" s="3"/>
-      <c r="CK14" s="3"/>
-      <c r="CL14" s="3"/>
+      <c r="AP14" s="160"/>
+      <c r="AQ14" s="160"/>
+      <c r="AR14" s="160"/>
+      <c r="AS14" s="160"/>
+      <c r="AT14" s="160"/>
+      <c r="AU14" s="160"/>
+      <c r="AV14" s="160"/>
+      <c r="AW14" s="160"/>
+      <c r="AX14" s="160"/>
+      <c r="AY14" s="160"/>
+      <c r="AZ14" s="160"/>
+      <c r="BA14" s="160"/>
+      <c r="BB14" s="160"/>
+      <c r="BC14" s="160"/>
+      <c r="BD14" s="160"/>
+      <c r="BE14" s="160"/>
+      <c r="BF14" s="160"/>
+      <c r="BG14" s="160"/>
+      <c r="BH14" s="160"/>
+      <c r="BI14" s="160"/>
+      <c r="BJ14" s="160"/>
+      <c r="BK14" s="160"/>
+      <c r="BL14" s="160"/>
+      <c r="BM14" s="160"/>
+      <c r="BN14" s="160"/>
+      <c r="BO14" s="160"/>
+      <c r="BP14" s="160"/>
+      <c r="BQ14" s="160"/>
+      <c r="BR14" s="160"/>
+      <c r="BS14" s="160"/>
+      <c r="BT14" s="160"/>
+      <c r="BU14" s="160"/>
+      <c r="BV14" s="160"/>
+      <c r="BW14" s="160"/>
+      <c r="BX14" s="160"/>
+      <c r="BY14" s="160"/>
+      <c r="BZ14" s="160"/>
+      <c r="CA14" s="160"/>
+      <c r="CB14" s="160"/>
+      <c r="CC14" s="160"/>
+      <c r="CD14" s="160"/>
+      <c r="CE14" s="160"/>
+      <c r="CF14" s="160"/>
+      <c r="CG14" s="160"/>
+      <c r="CH14" s="160"/>
+      <c r="CI14" s="160"/>
+      <c r="CJ14" s="160"/>
+      <c r="CK14" s="160"/>
+      <c r="CL14" s="160"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.45">
       <c r="BA15" s="8"/>
@@ -5061,7 +6608,7 @@
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.45">
       <c r="AC17" s="9"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
@@ -5079,7 +6626,7 @@
       <c r="BU17" s="8"/>
       <c r="BV17" s="8"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.45">
       <c r="AB18" s="9"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="8"/>
@@ -5100,7 +6647,7 @@
       <c r="BU18" s="8"/>
       <c r="BV18" s="8"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.45">
       <c r="AA19" s="9"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="8"/>
@@ -5121,7 +6668,7 @@
       <c r="CJ19" s="8"/>
       <c r="CK19" s="8"/>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.45">
       <c r="Z20" s="9"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="8"/>
@@ -5142,7 +6689,7 @@
       <c r="CJ20" s="8"/>
       <c r="CK20" s="8"/>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.45">
       <c r="R21" s="6" t="s">
         <v>6</v>
       </c>
@@ -5175,7 +6722,7 @@
       <c r="CJ21" s="8"/>
       <c r="CK21" s="8"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.45">
       <c r="D22" s="1"/>
       <c r="R22" t="s">
         <v>1</v>
@@ -5222,7 +6769,7 @@
       <c r="CJ22" s="8"/>
       <c r="CK22" s="8"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.45">
       <c r="L23" s="6" t="s">
         <v>6</v>
       </c>
@@ -5294,7 +6841,7 @@
       <c r="CJ23" s="8"/>
       <c r="CK23" s="8"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.45">
       <c r="L24" t="s">
         <v>1</v>
       </c>
@@ -5380,7 +6927,7 @@
       <c r="CJ24" s="8"/>
       <c r="CK24" s="8"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
@@ -5465,7 +7012,7 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
         <v>17</v>
@@ -5558,238 +7105,411 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="BO28" s="8"/>
-      <c r="BP28" s="8"/>
-    </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="CM29" s="8"/>
-      <c r="CN29" s="8"/>
-    </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="BO30" s="32"/>
-      <c r="BP30" s="32"/>
-      <c r="CE30" s="9"/>
-      <c r="CF30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG30" s="8"/>
-      <c r="CK30" s="8"/>
-      <c r="CL30" s="8"/>
-      <c r="CM30" s="8"/>
-      <c r="CN30" s="8"/>
-    </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="BM31" s="8"/>
-      <c r="BN31" s="8"/>
-      <c r="BO31" s="8"/>
-      <c r="BP31" s="8"/>
-      <c r="BQ31" s="8"/>
-      <c r="BR31" s="8"/>
-      <c r="CE31" s="9"/>
-      <c r="CF31" s="8"/>
-      <c r="CG31" s="8"/>
-      <c r="CM31" s="8"/>
-      <c r="CN31" s="8"/>
-    </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="BO32" s="8"/>
-      <c r="BP32" s="8"/>
-      <c r="BZ32" s="17"/>
-      <c r="CE32" s="9"/>
-      <c r="CF32" s="8"/>
-      <c r="CG32" s="8"/>
-      <c r="CM32" s="8"/>
-      <c r="CN32" s="8"/>
+    <row r="28" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BL28" s="160"/>
+      <c r="BM28" s="160"/>
+      <c r="BN28" s="160"/>
+      <c r="BO28" s="160"/>
+      <c r="BP28" s="160"/>
+      <c r="BQ28" s="160"/>
+      <c r="BR28" s="160"/>
+      <c r="BS28" s="160"/>
+      <c r="BT28" s="160"/>
+      <c r="BU28" s="160"/>
+      <c r="BV28" s="160"/>
+      <c r="BW28" s="160"/>
+      <c r="BX28" s="160"/>
+      <c r="BY28" s="160"/>
+      <c r="BZ28" s="160"/>
+      <c r="CA28" s="160"/>
+      <c r="CB28" s="160"/>
+      <c r="CC28" s="160"/>
+      <c r="CD28" s="160"/>
+      <c r="CE28" s="160"/>
+      <c r="CF28" s="160"/>
+      <c r="CG28" s="160"/>
+      <c r="CH28" s="160"/>
+      <c r="CI28" s="160"/>
+      <c r="CJ28" s="160"/>
+      <c r="CK28" s="160"/>
+      <c r="CL28" s="160"/>
+      <c r="CM28" s="160"/>
+      <c r="CN28" s="160"/>
+      <c r="CO28" s="160"/>
+      <c r="CP28" s="160"/>
+      <c r="CQ28" s="160"/>
+      <c r="CR28" s="160"/>
+      <c r="CS28" s="160"/>
+      <c r="CT28" s="160"/>
+      <c r="CU28" s="160"/>
+      <c r="CV28" s="160"/>
+      <c r="CW28" s="160"/>
+      <c r="CX28" s="160"/>
+      <c r="CY28" s="160"/>
+      <c r="CZ28" s="160"/>
+      <c r="DA28" s="160"/>
+      <c r="DB28" s="160"/>
+    </row>
+    <row r="29" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BL29" s="160"/>
+      <c r="BM29" s="160"/>
+      <c r="BN29" s="160"/>
+      <c r="BO29" s="160"/>
+      <c r="BP29" s="160"/>
+      <c r="BQ29" s="160"/>
+      <c r="BR29" s="160"/>
+      <c r="BS29" s="160"/>
+      <c r="BT29" s="160"/>
+      <c r="BU29" s="160"/>
+      <c r="BV29" s="160"/>
+      <c r="BW29" s="160"/>
+      <c r="BX29" s="160"/>
+      <c r="BY29" s="160"/>
+      <c r="BZ29" s="160"/>
+      <c r="CA29" s="160"/>
+      <c r="CB29" s="160"/>
+      <c r="CC29" s="160"/>
+      <c r="CD29" s="160"/>
+      <c r="CE29" s="160"/>
+      <c r="CF29" s="160"/>
+      <c r="CG29" s="160"/>
+      <c r="CH29" s="160"/>
+      <c r="CI29" s="160"/>
+      <c r="CJ29" s="160"/>
+      <c r="CK29" s="160"/>
+      <c r="CL29" s="160"/>
+      <c r="CM29" s="160"/>
+      <c r="CN29" s="160"/>
+      <c r="CO29" s="160"/>
+      <c r="CP29" s="160"/>
+      <c r="CQ29" s="160"/>
+      <c r="CR29" s="160"/>
+      <c r="CS29" s="160"/>
+      <c r="CT29" s="160"/>
+      <c r="CU29" s="160"/>
+      <c r="CV29" s="160"/>
+      <c r="CW29" s="160"/>
+      <c r="CX29" s="160"/>
+      <c r="CY29" s="160"/>
+      <c r="CZ29" s="160"/>
+      <c r="DA29" s="160"/>
+      <c r="DB29" s="160"/>
+    </row>
+    <row r="30" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BL30" s="160"/>
+      <c r="BM30" s="160"/>
+      <c r="BN30" s="160"/>
+      <c r="BO30" s="160"/>
+      <c r="BP30" s="160"/>
+      <c r="BQ30" s="160"/>
+      <c r="BR30" s="160"/>
+      <c r="BS30" s="160"/>
+      <c r="BT30" s="160"/>
+      <c r="BU30" s="160"/>
+      <c r="BV30" s="160"/>
+      <c r="BW30" s="160"/>
+      <c r="BX30" s="160"/>
+      <c r="BY30" s="160"/>
+      <c r="BZ30" s="160"/>
+      <c r="CA30" s="160"/>
+      <c r="CB30" s="160"/>
+      <c r="CC30" s="160"/>
+      <c r="CD30" s="160"/>
+      <c r="CE30" s="160"/>
+      <c r="CF30" s="160"/>
+      <c r="CG30" s="160"/>
+      <c r="CH30" s="160"/>
+      <c r="CI30" s="160"/>
+      <c r="CJ30" s="160"/>
+      <c r="CK30" s="160"/>
+      <c r="CL30" s="160"/>
+      <c r="CM30" s="160"/>
+      <c r="CN30" s="160"/>
+      <c r="CO30" s="160"/>
+      <c r="CP30" s="160"/>
+      <c r="CQ30" s="160"/>
+      <c r="CR30" s="160"/>
+      <c r="CS30" s="160"/>
+      <c r="CT30" s="160"/>
+      <c r="CU30" s="160"/>
+      <c r="CV30" s="160"/>
+      <c r="CW30" s="160"/>
+      <c r="CX30" s="160"/>
+      <c r="CY30" s="160"/>
+      <c r="CZ30" s="160"/>
+      <c r="DA30" s="160"/>
+      <c r="DB30" s="160"/>
+    </row>
+    <row r="31" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BL31" s="160"/>
+      <c r="BM31" s="160"/>
+      <c r="BN31" s="160"/>
+      <c r="BO31" s="160"/>
+      <c r="BP31" s="160"/>
+      <c r="BQ31" s="160"/>
+      <c r="BR31" s="160"/>
+      <c r="BS31" s="160"/>
+      <c r="BT31" s="160"/>
+      <c r="BU31" s="160"/>
+      <c r="BV31" s="160"/>
+      <c r="BW31" s="160"/>
+      <c r="BX31" s="160"/>
+      <c r="BY31" s="160"/>
+      <c r="BZ31" s="160"/>
+      <c r="CA31" s="160"/>
+      <c r="CB31" s="160"/>
+      <c r="CC31" s="160"/>
+      <c r="CD31" s="160"/>
+      <c r="CE31" s="160"/>
+      <c r="CF31" s="160"/>
+      <c r="CG31" s="160"/>
+      <c r="CH31" s="160"/>
+      <c r="CI31" s="160"/>
+      <c r="CJ31" s="160"/>
+      <c r="CK31" s="160"/>
+      <c r="CL31" s="160"/>
+      <c r="CM31" s="160"/>
+      <c r="CN31" s="160"/>
+      <c r="CO31" s="160"/>
+      <c r="CP31" s="160"/>
+      <c r="CQ31" s="160"/>
+      <c r="CR31" s="160"/>
+      <c r="CS31" s="160"/>
+      <c r="CT31" s="160"/>
+      <c r="CU31" s="160"/>
+      <c r="CV31" s="160"/>
+      <c r="CW31" s="160"/>
+      <c r="CX31" s="160"/>
+      <c r="CY31" s="160"/>
+      <c r="CZ31" s="160"/>
+      <c r="DA31" s="160"/>
+      <c r="DB31" s="160"/>
+    </row>
+    <row r="32" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="BL32" s="160"/>
+      <c r="BM32" s="160"/>
+      <c r="BN32" s="160"/>
+      <c r="BO32" s="160"/>
+      <c r="BP32" s="160"/>
+      <c r="BQ32" s="160"/>
+      <c r="BR32" s="160"/>
+      <c r="BS32" s="160"/>
+      <c r="BT32" s="160"/>
+      <c r="BU32" s="160"/>
+      <c r="BV32" s="160"/>
+      <c r="BW32" s="160"/>
+      <c r="BX32" s="160"/>
+      <c r="BY32" s="160"/>
+      <c r="BZ32" s="160"/>
+      <c r="CA32" s="160"/>
+      <c r="CB32" s="160"/>
+      <c r="CC32" s="160"/>
+      <c r="CD32" s="160"/>
+      <c r="CE32" s="160"/>
+      <c r="CF32" s="160"/>
+      <c r="CG32" s="160"/>
+      <c r="CH32" s="160"/>
+      <c r="CI32" s="160"/>
+      <c r="CJ32" s="160"/>
+      <c r="CK32" s="160"/>
+      <c r="CL32" s="160"/>
+      <c r="CM32" s="160"/>
+      <c r="CN32" s="160"/>
+      <c r="CO32" s="160"/>
+      <c r="CP32" s="160"/>
+      <c r="CQ32" s="160"/>
+      <c r="CR32" s="160"/>
+      <c r="CS32" s="160"/>
+      <c r="CT32" s="160"/>
+      <c r="CU32" s="160"/>
+      <c r="CV32" s="160"/>
+      <c r="CW32" s="160"/>
+      <c r="CX32" s="160"/>
+      <c r="CY32" s="160"/>
+      <c r="CZ32" s="160"/>
+      <c r="DA32" s="160"/>
+      <c r="DB32" s="160"/>
     </row>
     <row r="33" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="8"/>
-      <c r="BP33" s="8"/>
-      <c r="BQ33" s="3"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="3"/>
-      <c r="BT33" s="3"/>
-      <c r="BU33" s="3"/>
-      <c r="BV33" s="8"/>
-      <c r="BW33" s="8"/>
-      <c r="BX33" s="3"/>
-      <c r="BY33" s="3"/>
-      <c r="BZ33" s="17"/>
-      <c r="CA33" s="3"/>
-      <c r="CB33" s="3"/>
-      <c r="CC33" s="3"/>
-      <c r="CD33" s="3"/>
-      <c r="CE33" s="9"/>
-      <c r="CF33" s="8"/>
-      <c r="CG33" s="8"/>
-      <c r="CH33" s="3"/>
-      <c r="CI33" s="3"/>
-      <c r="CJ33" s="3"/>
-      <c r="CK33" s="3"/>
-      <c r="CL33" s="3"/>
-      <c r="CM33" s="8"/>
-      <c r="CN33" s="8"/>
-      <c r="CO33" s="3"/>
-      <c r="CP33" s="3"/>
-      <c r="CQ33" s="3"/>
-      <c r="CR33" s="3"/>
-      <c r="CS33" s="3"/>
-      <c r="CT33" s="3"/>
-      <c r="CU33" s="3"/>
-      <c r="CV33" s="3"/>
-      <c r="CW33" s="3"/>
-      <c r="CX33" s="3"/>
-      <c r="CY33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="CZ33" s="3"/>
-      <c r="DA33" s="3"/>
-      <c r="DB33" s="3"/>
+      <c r="BL33" s="160"/>
+      <c r="BM33" s="160"/>
+      <c r="BN33" s="160"/>
+      <c r="BO33" s="160"/>
+      <c r="BP33" s="160"/>
+      <c r="BQ33" s="160"/>
+      <c r="BR33" s="160"/>
+      <c r="BS33" s="160"/>
+      <c r="BT33" s="160"/>
+      <c r="BU33" s="160"/>
+      <c r="BV33" s="160"/>
+      <c r="BW33" s="160"/>
+      <c r="BX33" s="160"/>
+      <c r="BY33" s="160"/>
+      <c r="BZ33" s="160"/>
+      <c r="CA33" s="160"/>
+      <c r="CB33" s="160"/>
+      <c r="CC33" s="160"/>
+      <c r="CD33" s="160"/>
+      <c r="CE33" s="160"/>
+      <c r="CF33" s="160"/>
+      <c r="CG33" s="160"/>
+      <c r="CH33" s="160"/>
+      <c r="CI33" s="160"/>
+      <c r="CJ33" s="160"/>
+      <c r="CK33" s="160"/>
+      <c r="CL33" s="160"/>
+      <c r="CM33" s="160"/>
+      <c r="CN33" s="160"/>
+      <c r="CO33" s="160"/>
+      <c r="CP33" s="160"/>
+      <c r="CQ33" s="160"/>
+      <c r="CR33" s="160"/>
+      <c r="CS33" s="160"/>
+      <c r="CT33" s="160"/>
+      <c r="CU33" s="160"/>
+      <c r="CV33" s="160"/>
+      <c r="CW33" s="160"/>
+      <c r="CX33" s="160"/>
+      <c r="CY33" s="160"/>
+      <c r="CZ33" s="160"/>
+      <c r="DA33" s="160"/>
+      <c r="DB33" s="160"/>
     </row>
     <row r="34" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BM34" s="3"/>
-      <c r="BN34" s="3"/>
-      <c r="BO34" s="8"/>
-      <c r="BP34" s="8"/>
-      <c r="BQ34" s="3"/>
-      <c r="BR34" s="3"/>
-      <c r="BS34" s="3"/>
-      <c r="BT34" s="3"/>
-      <c r="BU34" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV34" s="8"/>
-      <c r="BW34" s="8"/>
-      <c r="BX34" s="3"/>
-      <c r="BY34" s="3"/>
-      <c r="BZ34" s="17"/>
-      <c r="CA34" s="3"/>
-      <c r="CB34" s="3"/>
-      <c r="CC34" s="3"/>
-      <c r="CD34" s="3"/>
-      <c r="CE34" s="3"/>
-      <c r="CF34" s="3"/>
-      <c r="CG34" s="3"/>
-      <c r="CH34" s="3"/>
-      <c r="CI34" s="3"/>
-      <c r="CJ34" s="3"/>
-      <c r="CK34" s="3"/>
-      <c r="CL34" s="3"/>
-      <c r="CM34" s="8"/>
-      <c r="CN34" s="8"/>
-      <c r="CO34" s="3"/>
-      <c r="CP34" s="3"/>
-      <c r="CQ34" s="3"/>
-      <c r="CR34" s="3"/>
-      <c r="CS34" s="3"/>
-      <c r="CT34" s="3"/>
-      <c r="CU34" s="3"/>
-      <c r="CV34" s="3"/>
-      <c r="CW34" s="3"/>
-      <c r="CX34" s="3"/>
-      <c r="CY34" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="CZ34" s="3"/>
-      <c r="DA34" s="3"/>
-      <c r="DB34" s="3"/>
+      <c r="BL34" s="160"/>
+      <c r="BM34" s="160"/>
+      <c r="BN34" s="160"/>
+      <c r="BO34" s="160"/>
+      <c r="BP34" s="160"/>
+      <c r="BQ34" s="160"/>
+      <c r="BR34" s="160"/>
+      <c r="BS34" s="160"/>
+      <c r="BT34" s="160"/>
+      <c r="BU34" s="161"/>
+      <c r="BV34" s="160"/>
+      <c r="BW34" s="160"/>
+      <c r="BX34" s="160"/>
+      <c r="BY34" s="160"/>
+      <c r="BZ34" s="160"/>
+      <c r="CA34" s="160"/>
+      <c r="CB34" s="160"/>
+      <c r="CC34" s="160"/>
+      <c r="CD34" s="160"/>
+      <c r="CE34" s="160"/>
+      <c r="CF34" s="160"/>
+      <c r="CG34" s="160"/>
+      <c r="CH34" s="160"/>
+      <c r="CI34" s="160"/>
+      <c r="CJ34" s="160"/>
+      <c r="CK34" s="160"/>
+      <c r="CL34" s="160"/>
+      <c r="CM34" s="160"/>
+      <c r="CN34" s="160"/>
+      <c r="CO34" s="160"/>
+      <c r="CP34" s="160"/>
+      <c r="CQ34" s="160"/>
+      <c r="CR34" s="160"/>
+      <c r="CS34" s="160"/>
+      <c r="CT34" s="160"/>
+      <c r="CU34" s="160"/>
+      <c r="CV34" s="160"/>
+      <c r="CW34" s="160"/>
+      <c r="CX34" s="160"/>
+      <c r="CY34" s="160"/>
+      <c r="CZ34" s="160"/>
+      <c r="DA34" s="160"/>
+      <c r="DB34" s="160"/>
     </row>
     <row r="35" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="8"/>
-      <c r="BP35" s="8"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="CC35" s="28"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="8"/>
-      <c r="CJ35" s="8"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="4"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="3"/>
-      <c r="CQ35" s="3"/>
-      <c r="CR35" s="4"/>
-      <c r="CS35" s="3"/>
-      <c r="CT35" s="3"/>
-      <c r="CU35" s="3"/>
-      <c r="CV35" s="3"/>
-      <c r="CW35" s="3"/>
-      <c r="CX35" s="3"/>
-      <c r="CY35" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="CZ35" s="3"/>
-      <c r="DA35" s="3"/>
-      <c r="DB35" s="3"/>
+      <c r="BL35" s="160"/>
+      <c r="BM35" s="160"/>
+      <c r="BN35" s="160"/>
+      <c r="BO35" s="160"/>
+      <c r="BP35" s="160"/>
+      <c r="BQ35" s="160"/>
+      <c r="BR35" s="160"/>
+      <c r="BS35" s="160"/>
+      <c r="BT35" s="160"/>
+      <c r="BU35" s="160"/>
+      <c r="BV35" s="160"/>
+      <c r="BW35" s="160"/>
+      <c r="BX35" s="160"/>
+      <c r="BY35" s="160"/>
+      <c r="BZ35" s="160"/>
+      <c r="CA35" s="160"/>
+      <c r="CB35" s="160"/>
+      <c r="CC35" s="160"/>
+      <c r="CD35" s="160"/>
+      <c r="CE35" s="160"/>
+      <c r="CF35" s="160"/>
+      <c r="CG35" s="160"/>
+      <c r="CH35" s="160"/>
+      <c r="CI35" s="160"/>
+      <c r="CJ35" s="160"/>
+      <c r="CK35" s="160"/>
+      <c r="CL35" s="160"/>
+      <c r="CM35" s="160"/>
+      <c r="CN35" s="160"/>
+      <c r="CO35" s="160"/>
+      <c r="CP35" s="160"/>
+      <c r="CQ35" s="160"/>
+      <c r="CR35" s="160"/>
+      <c r="CS35" s="160"/>
+      <c r="CT35" s="160"/>
+      <c r="CU35" s="160"/>
+      <c r="CV35" s="160"/>
+      <c r="CW35" s="160"/>
+      <c r="CX35" s="160"/>
+      <c r="CY35" s="160"/>
+      <c r="CZ35" s="160"/>
+      <c r="DA35" s="160"/>
+      <c r="DB35" s="160"/>
     </row>
     <row r="36" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A36" s="18"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
-      <c r="BP36" s="3"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="3"/>
-      <c r="BT36" s="3"/>
-      <c r="BU36" s="3"/>
-      <c r="BV36" s="3"/>
-      <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
-      <c r="BY36" s="3"/>
-      <c r="BZ36" s="3"/>
-      <c r="CA36" s="3"/>
-      <c r="CB36" s="28"/>
-      <c r="CC36" s="28"/>
-      <c r="CD36" s="3"/>
-      <c r="CE36" s="3"/>
-      <c r="CF36" s="3"/>
-      <c r="CG36" s="3"/>
-      <c r="CH36" s="3"/>
-      <c r="CI36" s="8"/>
-      <c r="CJ36" s="8"/>
-      <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="3"/>
-      <c r="CN36" s="3"/>
-      <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
-      <c r="CT36" s="3"/>
-      <c r="CU36" s="3"/>
-      <c r="CV36" s="3"/>
-      <c r="CW36" s="3"/>
-      <c r="CX36" s="3"/>
-      <c r="CY36" s="33"/>
-      <c r="CZ36" s="3"/>
-      <c r="DA36" s="3"/>
-      <c r="DB36" s="3"/>
+      <c r="BL36" s="160"/>
+      <c r="BM36" s="160"/>
+      <c r="BN36" s="160"/>
+      <c r="BO36" s="160"/>
+      <c r="BP36" s="160"/>
+      <c r="BQ36" s="160"/>
+      <c r="BR36" s="160"/>
+      <c r="BS36" s="160"/>
+      <c r="BT36" s="160"/>
+      <c r="BU36" s="160"/>
+      <c r="BV36" s="160"/>
+      <c r="BW36" s="160"/>
+      <c r="BX36" s="160"/>
+      <c r="BY36" s="160"/>
+      <c r="BZ36" s="160"/>
+      <c r="CA36" s="160"/>
+      <c r="CB36" s="160"/>
+      <c r="CC36" s="160"/>
+      <c r="CD36" s="160"/>
+      <c r="CE36" s="160"/>
+      <c r="CF36" s="160"/>
+      <c r="CG36" s="160"/>
+      <c r="CH36" s="160"/>
+      <c r="CI36" s="160"/>
+      <c r="CJ36" s="160"/>
+      <c r="CK36" s="160"/>
+      <c r="CL36" s="160"/>
+      <c r="CM36" s="160"/>
+      <c r="CN36" s="160"/>
+      <c r="CO36" s="160"/>
+      <c r="CP36" s="160"/>
+      <c r="CQ36" s="160"/>
+      <c r="CR36" s="160"/>
+      <c r="CS36" s="160"/>
+      <c r="CT36" s="160"/>
+      <c r="CU36" s="160"/>
+      <c r="CV36" s="160"/>
+      <c r="CW36" s="160"/>
+      <c r="CX36" s="160"/>
+      <c r="CY36" s="160"/>
+      <c r="CZ36" s="160"/>
+      <c r="DA36" s="160"/>
+      <c r="DB36" s="160"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5802,8 +7522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3D41D-10E2-49F9-9670-6032AB04FD08}">
   <dimension ref="A1:GA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="F7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="FC8" sqref="FC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8449,7 +10169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C13F81-CF03-4D85-A20B-8F2756E63EA0}">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>

--- a/98_plan/100_map/map.xlsx
+++ b/98_plan/100_map/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TGS\TeamNinja\98_plan\100_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370E34A-6AD1-4DC3-9101-F0455C0D571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643D761-CD5E-45BE-B6B8-4FE7EB5E4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
+    <workbookView xWindow="7908" yWindow="1032" windowWidth="14784" windowHeight="10956" activeTab="1" xr2:uid="{A6058118-9B78-4E7B-9FAB-1C06387363C6}"/>
   </bookViews>
   <sheets>
     <sheet name="森" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="140">
   <si>
     <t>モデル→</t>
     <phoneticPr fontId="1"/>
@@ -1249,6 +1249,49 @@
     <t>中</t>
     <rPh sb="0" eb="1">
       <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンを後に。ジャンプの高さ2段階(低→高)。分身出しまくって上限知らせる&amp;分身戻す空間入れる。</t>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1829,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,15 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5958,16 +5992,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF701A45-2C08-4477-A0D8-1A953C98EEA7}">
-  <dimension ref="Q2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="17:17" x14ac:dyDescent="0.45">
-      <c r="Q2" s="162"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5978,7 +6014,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56882BED-9781-4BA9-ABE1-B76AD7D0FCF8}">
-  <dimension ref="A1:DB36"/>
+  <dimension ref="A1:CK36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="BI24" sqref="BI24"/>
@@ -5986,7 +6022,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5998,7 +6034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="22"/>
       <c r="C2" t="s">
@@ -6009,7 +6045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>37</v>
@@ -6019,7 +6055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6028,574 +6064,20 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="160"/>
-      <c r="AT4" s="160"/>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="160"/>
-      <c r="BA4" s="160"/>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="160"/>
-      <c r="BH4" s="160"/>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="160"/>
-      <c r="BO4" s="160"/>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="160"/>
-      <c r="BV4" s="160"/>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="160"/>
-      <c r="CC4" s="160"/>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="160"/>
-      <c r="CJ4" s="160"/>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-    </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="160"/>
-      <c r="BA5" s="160"/>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="160"/>
-      <c r="BH5" s="160"/>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="160"/>
-      <c r="BO5" s="160"/>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="160"/>
-      <c r="BV5" s="160"/>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="160"/>
-      <c r="CC5" s="160"/>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="160"/>
-      <c r="CJ5" s="160"/>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-    </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="160"/>
-      <c r="AT6" s="160"/>
-      <c r="AU6" s="160"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="160"/>
-      <c r="AX6" s="160"/>
-      <c r="AY6" s="160"/>
-      <c r="AZ6" s="160"/>
-      <c r="BA6" s="160"/>
-      <c r="BB6" s="160"/>
-      <c r="BC6" s="160"/>
-      <c r="BD6" s="160"/>
-      <c r="BE6" s="160"/>
-      <c r="BF6" s="160"/>
-      <c r="BG6" s="160"/>
-      <c r="BH6" s="160"/>
-      <c r="BI6" s="160"/>
-      <c r="BJ6" s="160"/>
-      <c r="BK6" s="160"/>
-      <c r="BL6" s="160"/>
-      <c r="BM6" s="160"/>
-      <c r="BN6" s="160"/>
-      <c r="BO6" s="160"/>
-      <c r="BP6" s="160"/>
-      <c r="BQ6" s="160"/>
-      <c r="BR6" s="160"/>
-      <c r="BS6" s="160"/>
-      <c r="BT6" s="160"/>
-      <c r="BU6" s="160"/>
-      <c r="BV6" s="160"/>
-      <c r="BW6" s="160"/>
-      <c r="BX6" s="160"/>
-      <c r="BY6" s="160"/>
-      <c r="BZ6" s="160"/>
-      <c r="CA6" s="160"/>
-      <c r="CB6" s="160"/>
-      <c r="CC6" s="160"/>
-      <c r="CD6" s="160"/>
-      <c r="CE6" s="160"/>
-      <c r="CF6" s="160"/>
-      <c r="CG6" s="160"/>
-      <c r="CH6" s="160"/>
-      <c r="CI6" s="160"/>
-      <c r="CJ6" s="160"/>
-      <c r="CK6" s="160"/>
-      <c r="CL6" s="160"/>
-    </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
-      <c r="AU7" s="160"/>
-      <c r="AV7" s="160"/>
-      <c r="AW7" s="160"/>
-      <c r="AX7" s="160"/>
-      <c r="AY7" s="160"/>
-      <c r="AZ7" s="160"/>
-      <c r="BA7" s="160"/>
-      <c r="BB7" s="160"/>
-      <c r="BC7" s="160"/>
-      <c r="BD7" s="160"/>
-      <c r="BE7" s="160"/>
-      <c r="BF7" s="160"/>
-      <c r="BG7" s="160"/>
-      <c r="BH7" s="160"/>
-      <c r="BI7" s="160"/>
-      <c r="BJ7" s="160"/>
-      <c r="BK7" s="160"/>
-      <c r="BL7" s="160"/>
-      <c r="BM7" s="160"/>
-      <c r="BN7" s="160"/>
-      <c r="BO7" s="160"/>
-      <c r="BP7" s="160"/>
-      <c r="BQ7" s="160"/>
-      <c r="BR7" s="160"/>
-      <c r="BS7" s="160"/>
-      <c r="BT7" s="160"/>
-      <c r="BU7" s="160"/>
-      <c r="BV7" s="160"/>
-      <c r="BW7" s="160"/>
-      <c r="BX7" s="160"/>
-      <c r="BY7" s="160"/>
-      <c r="BZ7" s="160"/>
-      <c r="CA7" s="160"/>
-      <c r="CB7" s="160"/>
-      <c r="CC7" s="160"/>
-      <c r="CD7" s="160"/>
-      <c r="CE7" s="160"/>
-      <c r="CF7" s="160"/>
-      <c r="CG7" s="160"/>
-      <c r="CH7" s="160"/>
-      <c r="CI7" s="160"/>
-      <c r="CJ7" s="160"/>
-      <c r="CK7" s="160"/>
-      <c r="CL7" s="160"/>
-    </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="160"/>
-      <c r="AS8" s="160"/>
-      <c r="AT8" s="160"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
-      <c r="AX8" s="160"/>
-      <c r="AY8" s="160"/>
-      <c r="AZ8" s="160"/>
-      <c r="BA8" s="160"/>
-      <c r="BB8" s="160"/>
-      <c r="BC8" s="160"/>
-      <c r="BD8" s="160"/>
-      <c r="BE8" s="160"/>
-      <c r="BF8" s="160"/>
-      <c r="BG8" s="160"/>
-      <c r="BH8" s="160"/>
-      <c r="BI8" s="160"/>
-      <c r="BJ8" s="160"/>
-      <c r="BK8" s="160"/>
-      <c r="BL8" s="160"/>
-      <c r="BM8" s="160"/>
-      <c r="BN8" s="160"/>
-      <c r="BO8" s="160"/>
-      <c r="BP8" s="160"/>
-      <c r="BQ8" s="160"/>
-      <c r="BR8" s="160"/>
-      <c r="BS8" s="160"/>
-      <c r="BT8" s="160"/>
-      <c r="BU8" s="160"/>
-      <c r="BV8" s="160"/>
-      <c r="BW8" s="160"/>
-      <c r="BX8" s="160"/>
-      <c r="BY8" s="160"/>
-      <c r="BZ8" s="160"/>
-      <c r="CA8" s="160"/>
-      <c r="CB8" s="160"/>
-      <c r="CC8" s="160"/>
-      <c r="CD8" s="160"/>
-      <c r="CE8" s="160"/>
-      <c r="CF8" s="160"/>
-      <c r="CG8" s="160"/>
-      <c r="CH8" s="160"/>
-      <c r="CI8" s="160"/>
-      <c r="CJ8" s="160"/>
-      <c r="CK8" s="160"/>
-      <c r="CL8" s="160"/>
-    </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
-      <c r="AX9" s="160"/>
-      <c r="AY9" s="160"/>
-      <c r="AZ9" s="160"/>
-      <c r="BA9" s="160"/>
-      <c r="BB9" s="160"/>
-      <c r="BC9" s="160"/>
-      <c r="BD9" s="160"/>
-      <c r="BE9" s="160"/>
-      <c r="BF9" s="160"/>
-      <c r="BG9" s="160"/>
-      <c r="BH9" s="160"/>
-      <c r="BI9" s="160"/>
-      <c r="BJ9" s="160"/>
-      <c r="BK9" s="160"/>
-      <c r="BL9" s="160"/>
-      <c r="BM9" s="160"/>
-      <c r="BN9" s="160"/>
-      <c r="BO9" s="160"/>
-      <c r="BP9" s="160"/>
-      <c r="BQ9" s="160"/>
-      <c r="BR9" s="160"/>
-      <c r="BS9" s="160"/>
-      <c r="BT9" s="160"/>
-      <c r="BU9" s="160"/>
-      <c r="BV9" s="160"/>
-      <c r="BW9" s="160"/>
-      <c r="BX9" s="160"/>
-      <c r="BY9" s="160"/>
-      <c r="BZ9" s="160"/>
-      <c r="CA9" s="160"/>
-      <c r="CB9" s="160"/>
-      <c r="CC9" s="160"/>
-      <c r="CD9" s="160"/>
-      <c r="CE9" s="160"/>
-      <c r="CF9" s="160"/>
-      <c r="CG9" s="160"/>
-      <c r="CH9" s="160"/>
-      <c r="CI9" s="160"/>
-      <c r="CJ9" s="160"/>
-      <c r="CK9" s="160"/>
-      <c r="CL9" s="160"/>
-    </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="160"/>
-      <c r="BA10" s="160"/>
-      <c r="BB10" s="160"/>
-      <c r="BC10" s="160"/>
-      <c r="BD10" s="160"/>
-      <c r="BE10" s="160"/>
-      <c r="BF10" s="160"/>
-      <c r="BG10" s="160"/>
-      <c r="BH10" s="160"/>
-      <c r="BI10" s="160"/>
-      <c r="BJ10" s="160"/>
-      <c r="BK10" s="160"/>
-      <c r="BL10" s="160"/>
-      <c r="BM10" s="160"/>
-      <c r="BN10" s="160"/>
-      <c r="BO10" s="160"/>
-      <c r="BP10" s="160"/>
-      <c r="BQ10" s="160"/>
-      <c r="BR10" s="160"/>
-      <c r="BS10" s="160"/>
-      <c r="BT10" s="160"/>
-      <c r="BU10" s="160"/>
-      <c r="BV10" s="160"/>
-      <c r="BW10" s="160"/>
-      <c r="BX10" s="160"/>
-      <c r="BY10" s="160"/>
-      <c r="BZ10" s="160"/>
-      <c r="CA10" s="160"/>
-      <c r="CB10" s="160"/>
-      <c r="CC10" s="160"/>
-      <c r="CD10" s="160"/>
-      <c r="CE10" s="160"/>
-      <c r="CF10" s="160"/>
-      <c r="CG10" s="160"/>
-      <c r="CH10" s="160"/>
-      <c r="CI10" s="160"/>
-      <c r="CJ10" s="160"/>
-      <c r="CK10" s="160"/>
-      <c r="CL10" s="160"/>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
-      <c r="AX11" s="160"/>
-      <c r="AY11" s="160"/>
-      <c r="AZ11" s="160"/>
-      <c r="BA11" s="160"/>
-      <c r="BB11" s="160"/>
-      <c r="BC11" s="160"/>
-      <c r="BD11" s="160"/>
-      <c r="BE11" s="160"/>
-      <c r="BF11" s="160"/>
-      <c r="BG11" s="160"/>
-      <c r="BH11" s="160"/>
-      <c r="BI11" s="160"/>
-      <c r="BJ11" s="160"/>
-      <c r="BK11" s="160"/>
-      <c r="BL11" s="161"/>
-      <c r="BM11" s="160"/>
-      <c r="BN11" s="160"/>
-      <c r="BO11" s="160"/>
-      <c r="BP11" s="160"/>
-      <c r="BQ11" s="160"/>
-      <c r="BR11" s="160"/>
-      <c r="BS11" s="160"/>
-      <c r="BT11" s="160"/>
-      <c r="BU11" s="160"/>
-      <c r="BV11" s="160"/>
-      <c r="BW11" s="160"/>
-      <c r="BX11" s="160"/>
-      <c r="BY11" s="160"/>
-      <c r="BZ11" s="160"/>
-      <c r="CA11" s="160"/>
-      <c r="CB11" s="160"/>
-      <c r="CC11" s="160"/>
-      <c r="CD11" s="160"/>
-      <c r="CE11" s="160"/>
-      <c r="CF11" s="160"/>
-      <c r="CG11" s="160"/>
-      <c r="CH11" s="160"/>
-      <c r="CI11" s="160"/>
-      <c r="CJ11" s="160"/>
-      <c r="CK11" s="160"/>
-      <c r="CL11" s="160"/>
-    </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP12" s="160"/>
-      <c r="AQ12" s="160"/>
-      <c r="AR12" s="160"/>
-      <c r="AS12" s="160"/>
-      <c r="AT12" s="160"/>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="160"/>
-      <c r="AW12" s="160"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="160"/>
-      <c r="AZ12" s="160"/>
-      <c r="BA12" s="160"/>
-      <c r="BB12" s="160"/>
-      <c r="BC12" s="160"/>
-      <c r="BD12" s="160"/>
-      <c r="BE12" s="160"/>
-      <c r="BF12" s="160"/>
-      <c r="BG12" s="160"/>
-      <c r="BH12" s="160"/>
-      <c r="BI12" s="160"/>
-      <c r="BJ12" s="160"/>
-      <c r="BK12" s="160"/>
-      <c r="BL12" s="160"/>
-      <c r="BM12" s="160"/>
-      <c r="BN12" s="160"/>
-      <c r="BO12" s="160"/>
-      <c r="BP12" s="160"/>
-      <c r="BQ12" s="160"/>
-      <c r="BR12" s="160"/>
-      <c r="BS12" s="160"/>
-      <c r="BT12" s="160"/>
-      <c r="BU12" s="160"/>
-      <c r="BV12" s="160"/>
-      <c r="BW12" s="160"/>
-      <c r="BX12" s="160"/>
-      <c r="BY12" s="160"/>
-      <c r="BZ12" s="160"/>
-      <c r="CA12" s="160"/>
-      <c r="CB12" s="160"/>
-      <c r="CC12" s="160"/>
-      <c r="CD12" s="160"/>
-      <c r="CE12" s="160"/>
-      <c r="CF12" s="160"/>
-      <c r="CG12" s="160"/>
-      <c r="CH12" s="160"/>
-      <c r="CI12" s="160"/>
-      <c r="CJ12" s="160"/>
-      <c r="CK12" s="160"/>
-      <c r="CL12" s="160"/>
-    </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.45">
-      <c r="AP13" s="160"/>
-      <c r="AQ13" s="160"/>
-      <c r="AR13" s="160"/>
-      <c r="AS13" s="160"/>
-      <c r="AT13" s="160"/>
-      <c r="AU13" s="160"/>
-      <c r="AV13" s="160"/>
-      <c r="AW13" s="160"/>
-      <c r="AX13" s="160"/>
-      <c r="AY13" s="160"/>
-      <c r="AZ13" s="160"/>
-      <c r="BA13" s="160"/>
-      <c r="BB13" s="160"/>
-      <c r="BC13" s="160"/>
-      <c r="BD13" s="160"/>
-      <c r="BE13" s="160"/>
-      <c r="BF13" s="160"/>
-      <c r="BG13" s="160"/>
-      <c r="BH13" s="160"/>
-      <c r="BI13" s="160"/>
-      <c r="BJ13" s="160"/>
-      <c r="BK13" s="160"/>
-      <c r="BL13" s="160"/>
-      <c r="BM13" s="160"/>
-      <c r="BN13" s="160"/>
-      <c r="BO13" s="160"/>
-      <c r="BP13" s="160"/>
-      <c r="BQ13" s="160"/>
-      <c r="BR13" s="160"/>
-      <c r="BS13" s="160"/>
-      <c r="BT13" s="160"/>
-      <c r="BU13" s="160"/>
-      <c r="BV13" s="160"/>
-      <c r="BW13" s="160"/>
-      <c r="BX13" s="160"/>
-      <c r="BY13" s="160"/>
-      <c r="BZ13" s="160"/>
-      <c r="CA13" s="160"/>
-      <c r="CB13" s="160"/>
-      <c r="CC13" s="160"/>
-      <c r="CD13" s="160"/>
-      <c r="CE13" s="160"/>
-      <c r="CF13" s="160"/>
-      <c r="CG13" s="160"/>
-      <c r="CH13" s="160"/>
-      <c r="CI13" s="160"/>
-      <c r="CJ13" s="160"/>
-      <c r="CK13" s="160"/>
-      <c r="CL13" s="160"/>
-    </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="BL11" s="59"/>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A14" s="18"/>
-      <c r="AP14" s="160"/>
-      <c r="AQ14" s="160"/>
-      <c r="AR14" s="160"/>
-      <c r="AS14" s="160"/>
-      <c r="AT14" s="160"/>
-      <c r="AU14" s="160"/>
-      <c r="AV14" s="160"/>
-      <c r="AW14" s="160"/>
-      <c r="AX14" s="160"/>
-      <c r="AY14" s="160"/>
-      <c r="AZ14" s="160"/>
-      <c r="BA14" s="160"/>
-      <c r="BB14" s="160"/>
-      <c r="BC14" s="160"/>
-      <c r="BD14" s="160"/>
-      <c r="BE14" s="160"/>
-      <c r="BF14" s="160"/>
-      <c r="BG14" s="160"/>
-      <c r="BH14" s="160"/>
-      <c r="BI14" s="160"/>
-      <c r="BJ14" s="160"/>
-      <c r="BK14" s="160"/>
-      <c r="BL14" s="160"/>
-      <c r="BM14" s="160"/>
-      <c r="BN14" s="160"/>
-      <c r="BO14" s="160"/>
-      <c r="BP14" s="160"/>
-      <c r="BQ14" s="160"/>
-      <c r="BR14" s="160"/>
-      <c r="BS14" s="160"/>
-      <c r="BT14" s="160"/>
-      <c r="BU14" s="160"/>
-      <c r="BV14" s="160"/>
-      <c r="BW14" s="160"/>
-      <c r="BX14" s="160"/>
-      <c r="BY14" s="160"/>
-      <c r="BZ14" s="160"/>
-      <c r="CA14" s="160"/>
-      <c r="CB14" s="160"/>
-      <c r="CC14" s="160"/>
-      <c r="CD14" s="160"/>
-      <c r="CE14" s="160"/>
-      <c r="CF14" s="160"/>
-      <c r="CG14" s="160"/>
-      <c r="CH14" s="160"/>
-      <c r="CI14" s="160"/>
-      <c r="CJ14" s="160"/>
-      <c r="CK14" s="160"/>
-      <c r="CL14" s="160"/>
-    </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.45">
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
       <c r="BL15" s="8"/>
       <c r="BM15" s="8"/>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.45">
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
@@ -6608,7 +6090,7 @@
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.45">
       <c r="AC17" s="9"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
@@ -6626,7 +6108,7 @@
       <c r="BU17" s="8"/>
       <c r="BV17" s="8"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.45">
       <c r="AB18" s="9"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="8"/>
@@ -6647,7 +6129,7 @@
       <c r="BU18" s="8"/>
       <c r="BV18" s="8"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.45">
       <c r="AA19" s="9"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="8"/>
@@ -6668,7 +6150,7 @@
       <c r="CJ19" s="8"/>
       <c r="CK19" s="8"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.45">
       <c r="Z20" s="9"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="8"/>
@@ -6689,7 +6171,7 @@
       <c r="CJ20" s="8"/>
       <c r="CK20" s="8"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.45">
       <c r="R21" s="6" t="s">
         <v>6</v>
       </c>
@@ -6722,7 +6204,7 @@
       <c r="CJ21" s="8"/>
       <c r="CK21" s="8"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.45">
       <c r="D22" s="1"/>
       <c r="R22" t="s">
         <v>1</v>
@@ -6769,7 +6251,7 @@
       <c r="CJ22" s="8"/>
       <c r="CK22" s="8"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.45">
       <c r="L23" s="6" t="s">
         <v>6</v>
       </c>
@@ -6841,7 +6323,7 @@
       <c r="CJ23" s="8"/>
       <c r="CK23" s="8"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.45">
       <c r="L24" t="s">
         <v>1</v>
       </c>
@@ -6927,7 +6409,7 @@
       <c r="CJ24" s="8"/>
       <c r="CK24" s="8"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
@@ -7012,7 +6494,7 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
         <v>17</v>
@@ -7105,411 +6587,11 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL28" s="160"/>
-      <c r="BM28" s="160"/>
-      <c r="BN28" s="160"/>
-      <c r="BO28" s="160"/>
-      <c r="BP28" s="160"/>
-      <c r="BQ28" s="160"/>
-      <c r="BR28" s="160"/>
-      <c r="BS28" s="160"/>
-      <c r="BT28" s="160"/>
-      <c r="BU28" s="160"/>
-      <c r="BV28" s="160"/>
-      <c r="BW28" s="160"/>
-      <c r="BX28" s="160"/>
-      <c r="BY28" s="160"/>
-      <c r="BZ28" s="160"/>
-      <c r="CA28" s="160"/>
-      <c r="CB28" s="160"/>
-      <c r="CC28" s="160"/>
-      <c r="CD28" s="160"/>
-      <c r="CE28" s="160"/>
-      <c r="CF28" s="160"/>
-      <c r="CG28" s="160"/>
-      <c r="CH28" s="160"/>
-      <c r="CI28" s="160"/>
-      <c r="CJ28" s="160"/>
-      <c r="CK28" s="160"/>
-      <c r="CL28" s="160"/>
-      <c r="CM28" s="160"/>
-      <c r="CN28" s="160"/>
-      <c r="CO28" s="160"/>
-      <c r="CP28" s="160"/>
-      <c r="CQ28" s="160"/>
-      <c r="CR28" s="160"/>
-      <c r="CS28" s="160"/>
-      <c r="CT28" s="160"/>
-      <c r="CU28" s="160"/>
-      <c r="CV28" s="160"/>
-      <c r="CW28" s="160"/>
-      <c r="CX28" s="160"/>
-      <c r="CY28" s="160"/>
-      <c r="CZ28" s="160"/>
-      <c r="DA28" s="160"/>
-      <c r="DB28" s="160"/>
-    </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL29" s="160"/>
-      <c r="BM29" s="160"/>
-      <c r="BN29" s="160"/>
-      <c r="BO29" s="160"/>
-      <c r="BP29" s="160"/>
-      <c r="BQ29" s="160"/>
-      <c r="BR29" s="160"/>
-      <c r="BS29" s="160"/>
-      <c r="BT29" s="160"/>
-      <c r="BU29" s="160"/>
-      <c r="BV29" s="160"/>
-      <c r="BW29" s="160"/>
-      <c r="BX29" s="160"/>
-      <c r="BY29" s="160"/>
-      <c r="BZ29" s="160"/>
-      <c r="CA29" s="160"/>
-      <c r="CB29" s="160"/>
-      <c r="CC29" s="160"/>
-      <c r="CD29" s="160"/>
-      <c r="CE29" s="160"/>
-      <c r="CF29" s="160"/>
-      <c r="CG29" s="160"/>
-      <c r="CH29" s="160"/>
-      <c r="CI29" s="160"/>
-      <c r="CJ29" s="160"/>
-      <c r="CK29" s="160"/>
-      <c r="CL29" s="160"/>
-      <c r="CM29" s="160"/>
-      <c r="CN29" s="160"/>
-      <c r="CO29" s="160"/>
-      <c r="CP29" s="160"/>
-      <c r="CQ29" s="160"/>
-      <c r="CR29" s="160"/>
-      <c r="CS29" s="160"/>
-      <c r="CT29" s="160"/>
-      <c r="CU29" s="160"/>
-      <c r="CV29" s="160"/>
-      <c r="CW29" s="160"/>
-      <c r="CX29" s="160"/>
-      <c r="CY29" s="160"/>
-      <c r="CZ29" s="160"/>
-      <c r="DA29" s="160"/>
-      <c r="DB29" s="160"/>
-    </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL30" s="160"/>
-      <c r="BM30" s="160"/>
-      <c r="BN30" s="160"/>
-      <c r="BO30" s="160"/>
-      <c r="BP30" s="160"/>
-      <c r="BQ30" s="160"/>
-      <c r="BR30" s="160"/>
-      <c r="BS30" s="160"/>
-      <c r="BT30" s="160"/>
-      <c r="BU30" s="160"/>
-      <c r="BV30" s="160"/>
-      <c r="BW30" s="160"/>
-      <c r="BX30" s="160"/>
-      <c r="BY30" s="160"/>
-      <c r="BZ30" s="160"/>
-      <c r="CA30" s="160"/>
-      <c r="CB30" s="160"/>
-      <c r="CC30" s="160"/>
-      <c r="CD30" s="160"/>
-      <c r="CE30" s="160"/>
-      <c r="CF30" s="160"/>
-      <c r="CG30" s="160"/>
-      <c r="CH30" s="160"/>
-      <c r="CI30" s="160"/>
-      <c r="CJ30" s="160"/>
-      <c r="CK30" s="160"/>
-      <c r="CL30" s="160"/>
-      <c r="CM30" s="160"/>
-      <c r="CN30" s="160"/>
-      <c r="CO30" s="160"/>
-      <c r="CP30" s="160"/>
-      <c r="CQ30" s="160"/>
-      <c r="CR30" s="160"/>
-      <c r="CS30" s="160"/>
-      <c r="CT30" s="160"/>
-      <c r="CU30" s="160"/>
-      <c r="CV30" s="160"/>
-      <c r="CW30" s="160"/>
-      <c r="CX30" s="160"/>
-      <c r="CY30" s="160"/>
-      <c r="CZ30" s="160"/>
-      <c r="DA30" s="160"/>
-      <c r="DB30" s="160"/>
-    </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL31" s="160"/>
-      <c r="BM31" s="160"/>
-      <c r="BN31" s="160"/>
-      <c r="BO31" s="160"/>
-      <c r="BP31" s="160"/>
-      <c r="BQ31" s="160"/>
-      <c r="BR31" s="160"/>
-      <c r="BS31" s="160"/>
-      <c r="BT31" s="160"/>
-      <c r="BU31" s="160"/>
-      <c r="BV31" s="160"/>
-      <c r="BW31" s="160"/>
-      <c r="BX31" s="160"/>
-      <c r="BY31" s="160"/>
-      <c r="BZ31" s="160"/>
-      <c r="CA31" s="160"/>
-      <c r="CB31" s="160"/>
-      <c r="CC31" s="160"/>
-      <c r="CD31" s="160"/>
-      <c r="CE31" s="160"/>
-      <c r="CF31" s="160"/>
-      <c r="CG31" s="160"/>
-      <c r="CH31" s="160"/>
-      <c r="CI31" s="160"/>
-      <c r="CJ31" s="160"/>
-      <c r="CK31" s="160"/>
-      <c r="CL31" s="160"/>
-      <c r="CM31" s="160"/>
-      <c r="CN31" s="160"/>
-      <c r="CO31" s="160"/>
-      <c r="CP31" s="160"/>
-      <c r="CQ31" s="160"/>
-      <c r="CR31" s="160"/>
-      <c r="CS31" s="160"/>
-      <c r="CT31" s="160"/>
-      <c r="CU31" s="160"/>
-      <c r="CV31" s="160"/>
-      <c r="CW31" s="160"/>
-      <c r="CX31" s="160"/>
-      <c r="CY31" s="160"/>
-      <c r="CZ31" s="160"/>
-      <c r="DA31" s="160"/>
-      <c r="DB31" s="160"/>
-    </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL32" s="160"/>
-      <c r="BM32" s="160"/>
-      <c r="BN32" s="160"/>
-      <c r="BO32" s="160"/>
-      <c r="BP32" s="160"/>
-      <c r="BQ32" s="160"/>
-      <c r="BR32" s="160"/>
-      <c r="BS32" s="160"/>
-      <c r="BT32" s="160"/>
-      <c r="BU32" s="160"/>
-      <c r="BV32" s="160"/>
-      <c r="BW32" s="160"/>
-      <c r="BX32" s="160"/>
-      <c r="BY32" s="160"/>
-      <c r="BZ32" s="160"/>
-      <c r="CA32" s="160"/>
-      <c r="CB32" s="160"/>
-      <c r="CC32" s="160"/>
-      <c r="CD32" s="160"/>
-      <c r="CE32" s="160"/>
-      <c r="CF32" s="160"/>
-      <c r="CG32" s="160"/>
-      <c r="CH32" s="160"/>
-      <c r="CI32" s="160"/>
-      <c r="CJ32" s="160"/>
-      <c r="CK32" s="160"/>
-      <c r="CL32" s="160"/>
-      <c r="CM32" s="160"/>
-      <c r="CN32" s="160"/>
-      <c r="CO32" s="160"/>
-      <c r="CP32" s="160"/>
-      <c r="CQ32" s="160"/>
-      <c r="CR32" s="160"/>
-      <c r="CS32" s="160"/>
-      <c r="CT32" s="160"/>
-      <c r="CU32" s="160"/>
-      <c r="CV32" s="160"/>
-      <c r="CW32" s="160"/>
-      <c r="CX32" s="160"/>
-      <c r="CY32" s="160"/>
-      <c r="CZ32" s="160"/>
-      <c r="DA32" s="160"/>
-      <c r="DB32" s="160"/>
-    </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL33" s="160"/>
-      <c r="BM33" s="160"/>
-      <c r="BN33" s="160"/>
-      <c r="BO33" s="160"/>
-      <c r="BP33" s="160"/>
-      <c r="BQ33" s="160"/>
-      <c r="BR33" s="160"/>
-      <c r="BS33" s="160"/>
-      <c r="BT33" s="160"/>
-      <c r="BU33" s="160"/>
-      <c r="BV33" s="160"/>
-      <c r="BW33" s="160"/>
-      <c r="BX33" s="160"/>
-      <c r="BY33" s="160"/>
-      <c r="BZ33" s="160"/>
-      <c r="CA33" s="160"/>
-      <c r="CB33" s="160"/>
-      <c r="CC33" s="160"/>
-      <c r="CD33" s="160"/>
-      <c r="CE33" s="160"/>
-      <c r="CF33" s="160"/>
-      <c r="CG33" s="160"/>
-      <c r="CH33" s="160"/>
-      <c r="CI33" s="160"/>
-      <c r="CJ33" s="160"/>
-      <c r="CK33" s="160"/>
-      <c r="CL33" s="160"/>
-      <c r="CM33" s="160"/>
-      <c r="CN33" s="160"/>
-      <c r="CO33" s="160"/>
-      <c r="CP33" s="160"/>
-      <c r="CQ33" s="160"/>
-      <c r="CR33" s="160"/>
-      <c r="CS33" s="160"/>
-      <c r="CT33" s="160"/>
-      <c r="CU33" s="160"/>
-      <c r="CV33" s="160"/>
-      <c r="CW33" s="160"/>
-      <c r="CX33" s="160"/>
-      <c r="CY33" s="160"/>
-      <c r="CZ33" s="160"/>
-      <c r="DA33" s="160"/>
-      <c r="DB33" s="160"/>
-    </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL34" s="160"/>
-      <c r="BM34" s="160"/>
-      <c r="BN34" s="160"/>
-      <c r="BO34" s="160"/>
-      <c r="BP34" s="160"/>
-      <c r="BQ34" s="160"/>
-      <c r="BR34" s="160"/>
-      <c r="BS34" s="160"/>
-      <c r="BT34" s="160"/>
-      <c r="BU34" s="161"/>
-      <c r="BV34" s="160"/>
-      <c r="BW34" s="160"/>
-      <c r="BX34" s="160"/>
-      <c r="BY34" s="160"/>
-      <c r="BZ34" s="160"/>
-      <c r="CA34" s="160"/>
-      <c r="CB34" s="160"/>
-      <c r="CC34" s="160"/>
-      <c r="CD34" s="160"/>
-      <c r="CE34" s="160"/>
-      <c r="CF34" s="160"/>
-      <c r="CG34" s="160"/>
-      <c r="CH34" s="160"/>
-      <c r="CI34" s="160"/>
-      <c r="CJ34" s="160"/>
-      <c r="CK34" s="160"/>
-      <c r="CL34" s="160"/>
-      <c r="CM34" s="160"/>
-      <c r="CN34" s="160"/>
-      <c r="CO34" s="160"/>
-      <c r="CP34" s="160"/>
-      <c r="CQ34" s="160"/>
-      <c r="CR34" s="160"/>
-      <c r="CS34" s="160"/>
-      <c r="CT34" s="160"/>
-      <c r="CU34" s="160"/>
-      <c r="CV34" s="160"/>
-      <c r="CW34" s="160"/>
-      <c r="CX34" s="160"/>
-      <c r="CY34" s="160"/>
-      <c r="CZ34" s="160"/>
-      <c r="DA34" s="160"/>
-      <c r="DB34" s="160"/>
-    </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="BL35" s="160"/>
-      <c r="BM35" s="160"/>
-      <c r="BN35" s="160"/>
-      <c r="BO35" s="160"/>
-      <c r="BP35" s="160"/>
-      <c r="BQ35" s="160"/>
-      <c r="BR35" s="160"/>
-      <c r="BS35" s="160"/>
-      <c r="BT35" s="160"/>
-      <c r="BU35" s="160"/>
-      <c r="BV35" s="160"/>
-      <c r="BW35" s="160"/>
-      <c r="BX35" s="160"/>
-      <c r="BY35" s="160"/>
-      <c r="BZ35" s="160"/>
-      <c r="CA35" s="160"/>
-      <c r="CB35" s="160"/>
-      <c r="CC35" s="160"/>
-      <c r="CD35" s="160"/>
-      <c r="CE35" s="160"/>
-      <c r="CF35" s="160"/>
-      <c r="CG35" s="160"/>
-      <c r="CH35" s="160"/>
-      <c r="CI35" s="160"/>
-      <c r="CJ35" s="160"/>
-      <c r="CK35" s="160"/>
-      <c r="CL35" s="160"/>
-      <c r="CM35" s="160"/>
-      <c r="CN35" s="160"/>
-      <c r="CO35" s="160"/>
-      <c r="CP35" s="160"/>
-      <c r="CQ35" s="160"/>
-      <c r="CR35" s="160"/>
-      <c r="CS35" s="160"/>
-      <c r="CT35" s="160"/>
-      <c r="CU35" s="160"/>
-      <c r="CV35" s="160"/>
-      <c r="CW35" s="160"/>
-      <c r="CX35" s="160"/>
-      <c r="CY35" s="160"/>
-      <c r="CZ35" s="160"/>
-      <c r="DA35" s="160"/>
-      <c r="DB35" s="160"/>
-    </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="BU34" s="59"/>
+    </row>
+    <row r="36" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A36" s="18"/>
-      <c r="BL36" s="160"/>
-      <c r="BM36" s="160"/>
-      <c r="BN36" s="160"/>
-      <c r="BO36" s="160"/>
-      <c r="BP36" s="160"/>
-      <c r="BQ36" s="160"/>
-      <c r="BR36" s="160"/>
-      <c r="BS36" s="160"/>
-      <c r="BT36" s="160"/>
-      <c r="BU36" s="160"/>
-      <c r="BV36" s="160"/>
-      <c r="BW36" s="160"/>
-      <c r="BX36" s="160"/>
-      <c r="BY36" s="160"/>
-      <c r="BZ36" s="160"/>
-      <c r="CA36" s="160"/>
-      <c r="CB36" s="160"/>
-      <c r="CC36" s="160"/>
-      <c r="CD36" s="160"/>
-      <c r="CE36" s="160"/>
-      <c r="CF36" s="160"/>
-      <c r="CG36" s="160"/>
-      <c r="CH36" s="160"/>
-      <c r="CI36" s="160"/>
-      <c r="CJ36" s="160"/>
-      <c r="CK36" s="160"/>
-      <c r="CL36" s="160"/>
-      <c r="CM36" s="160"/>
-      <c r="CN36" s="160"/>
-      <c r="CO36" s="160"/>
-      <c r="CP36" s="160"/>
-      <c r="CQ36" s="160"/>
-      <c r="CR36" s="160"/>
-      <c r="CS36" s="160"/>
-      <c r="CT36" s="160"/>
-      <c r="CU36" s="160"/>
-      <c r="CV36" s="160"/>
-      <c r="CW36" s="160"/>
-      <c r="CX36" s="160"/>
-      <c r="CY36" s="160"/>
-      <c r="CZ36" s="160"/>
-      <c r="DA36" s="160"/>
-      <c r="DB36" s="160"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
